--- a/BackTest/2019-10-26 BackTest KNC.xlsx
+++ b/BackTest/2019-10-26 BackTest KNC.xlsx
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -5771,20 +5771,14 @@
         <v>200.2</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>200</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5812,20 +5806,14 @@
         <v>199.8</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>200</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5853,20 +5841,14 @@
         <v>199.8</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>200</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5894,20 +5876,14 @@
         <v>200</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>201</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5935,20 +5911,14 @@
         <v>200.4</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>202</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5976,20 +5946,14 @@
         <v>200.8</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>201</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6017,20 +5981,14 @@
         <v>201.2</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>202</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6058,20 +6016,14 @@
         <v>201.6</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>202</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6099,20 +6051,14 @@
         <v>202</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>203</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6140,20 +6086,14 @@
         <v>202.2</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>203</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6181,20 +6121,14 @@
         <v>202.8</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>204</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6222,20 +6156,14 @@
         <v>203.2</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>203</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6263,20 +6191,14 @@
         <v>203.6</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>203</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6304,20 +6226,14 @@
         <v>203.8</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>204</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6345,20 +6261,14 @@
         <v>204</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>204</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6386,20 +6296,14 @@
         <v>204</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>204</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6427,20 +6331,14 @@
         <v>204</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>204</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6468,20 +6366,14 @@
         <v>204</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>204</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6509,20 +6401,14 @@
         <v>204</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>204</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6550,20 +6436,14 @@
         <v>204</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>204</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6598,11 +6478,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6637,11 +6513,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6676,11 +6548,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6715,11 +6583,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6754,11 +6618,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6793,11 +6653,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6832,11 +6688,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6871,11 +6723,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6910,11 +6758,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6949,11 +6793,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6988,11 +6828,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7027,11 +6863,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7066,11 +6898,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7105,11 +6933,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7144,11 +6968,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7183,11 +7003,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7222,11 +7038,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7261,11 +7073,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7300,11 +7108,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7339,11 +7143,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7378,11 +7178,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7417,11 +7213,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7452,16 +7244,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7489,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -7524,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
@@ -7559,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
@@ -8606,20 +8396,14 @@
         <v>201.6</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>200</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8647,20 +8431,14 @@
         <v>201</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>200</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8694,12 +8472,12 @@
         <v>0</v>
       </c>
       <c r="J231" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M231" t="n">

--- a/BackTest/2019-10-26 BackTest KNC.xlsx
+++ b/BackTest/2019-10-26 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M234"/>
+  <dimension ref="A1:M235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,25 +433,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C2" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D2" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E2" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>185.364</v>
       </c>
       <c r="G2" t="n">
-        <v>205.4</v>
+        <v>206.7666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C3" t="n">
         <v>207</v>
@@ -477,22 +477,26 @@
         <v>207</v>
       </c>
       <c r="E3" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F3" t="n">
-        <v>173.1867</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>205.8</v>
+        <v>206.8833333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>205</v>
+      </c>
+      <c r="K3" t="n">
+        <v>205</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -503,32 +507,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D4" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E4" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F4" t="n">
-        <v>9252</v>
+        <v>173.1867</v>
       </c>
       <c r="G4" t="n">
-        <v>205.8</v>
+        <v>207</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>207</v>
+      </c>
+      <c r="K4" t="n">
+        <v>205</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -541,19 +553,19 @@
         <v>207</v>
       </c>
       <c r="C5" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D5" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E5" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>9252</v>
       </c>
       <c r="G5" t="n">
-        <v>206.2</v>
+        <v>207.0833333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -562,8 +574,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>205</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -585,10 +603,10 @@
         <v>207</v>
       </c>
       <c r="F6" t="n">
-        <v>373.634</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>206.6</v>
+        <v>207.2</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -597,8 +615,14 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>205</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -608,22 +632,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C7" t="n">
         <v>207</v>
       </c>
       <c r="D7" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E7" t="n">
         <v>207</v>
       </c>
       <c r="F7" t="n">
-        <v>301</v>
+        <v>373.634</v>
       </c>
       <c r="G7" t="n">
-        <v>206.6</v>
+        <v>207.2833333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -632,8 +656,14 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>205</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -646,19 +676,19 @@
         <v>208</v>
       </c>
       <c r="C8" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D8" t="n">
         <v>208</v>
       </c>
       <c r="E8" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="G8" t="n">
-        <v>206.8</v>
+        <v>207.4</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -667,8 +697,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>205</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -678,22 +714,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C9" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D9" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E9" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F9" t="n">
-        <v>383.4182</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>206.4</v>
+        <v>207.5333333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -702,8 +738,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>205</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -725,10 +767,10 @@
         <v>203</v>
       </c>
       <c r="F10" t="n">
-        <v>150.8557</v>
+        <v>383.4182</v>
       </c>
       <c r="G10" t="n">
-        <v>205.6</v>
+        <v>207.5833333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -737,8 +779,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>205</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -760,10 +808,10 @@
         <v>203</v>
       </c>
       <c r="F11" t="n">
-        <v>15086.195</v>
+        <v>150.8557</v>
       </c>
       <c r="G11" t="n">
-        <v>204.8</v>
+        <v>207.6333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -772,8 +820,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>205</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -783,22 +837,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C12" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D12" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E12" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>15086.195</v>
       </c>
       <c r="G12" t="n">
-        <v>204.4</v>
+        <v>207.6833333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -807,8 +861,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>205</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -821,19 +881,19 @@
         <v>205</v>
       </c>
       <c r="C13" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D13" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E13" t="n">
         <v>205</v>
       </c>
       <c r="F13" t="n">
-        <v>3502.1001</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>204</v>
+        <v>207.75</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -842,8 +902,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>205</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -853,22 +919,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C14" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D14" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E14" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F14" t="n">
-        <v>206</v>
+        <v>3502.1001</v>
       </c>
       <c r="G14" t="n">
-        <v>204.2</v>
+        <v>207.8333333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -877,8 +943,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>205</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -900,10 +972,10 @@
         <v>204</v>
       </c>
       <c r="F15" t="n">
-        <v>288.807</v>
+        <v>206</v>
       </c>
       <c r="G15" t="n">
-        <v>204.4</v>
+        <v>207.8666666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -912,8 +984,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>205</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -935,10 +1013,10 @@
         <v>204</v>
       </c>
       <c r="F16" t="n">
-        <v>407.5165</v>
+        <v>288.807</v>
       </c>
       <c r="G16" t="n">
-        <v>204.6</v>
+        <v>207.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -947,8 +1025,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>205</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -958,22 +1042,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C17" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D17" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E17" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F17" t="n">
-        <v>190.4367</v>
+        <v>407.5165</v>
       </c>
       <c r="G17" t="n">
-        <v>204.2</v>
+        <v>207.9333333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -982,8 +1066,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>205</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -996,19 +1086,19 @@
         <v>203</v>
       </c>
       <c r="C18" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D18" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E18" t="n">
         <v>203</v>
       </c>
       <c r="F18" t="n">
-        <v>1619.4683</v>
+        <v>190.4367</v>
       </c>
       <c r="G18" t="n">
-        <v>203.8</v>
+        <v>207.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1017,8 +1107,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>205</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1031,19 +1127,19 @@
         <v>203</v>
       </c>
       <c r="C19" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D19" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E19" t="n">
         <v>203</v>
       </c>
       <c r="F19" t="n">
-        <v>269.622</v>
+        <v>1619.4683</v>
       </c>
       <c r="G19" t="n">
-        <v>203.6</v>
+        <v>207.8666666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1052,8 +1148,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>205</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1063,22 +1165,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C20" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D20" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E20" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F20" t="n">
-        <v>1808.4606</v>
+        <v>269.622</v>
       </c>
       <c r="G20" t="n">
-        <v>203.6</v>
+        <v>207.7833333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1087,8 +1189,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>205</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1098,22 +1206,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C21" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D21" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E21" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F21" t="n">
-        <v>2495.305825242719</v>
+        <v>1808.4606</v>
       </c>
       <c r="G21" t="n">
-        <v>204</v>
+        <v>207.6833333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,8 +1230,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>205</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,22 +1247,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C22" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D22" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E22" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F22" t="n">
-        <v>251</v>
+        <v>2495.305825242719</v>
       </c>
       <c r="G22" t="n">
-        <v>204.4</v>
+        <v>207.5833333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,8 +1271,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>205</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1168,22 +1288,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C23" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D23" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E23" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F23" t="n">
-        <v>47.88</v>
+        <v>251</v>
       </c>
       <c r="G23" t="n">
-        <v>204.2</v>
+        <v>207.5166666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,8 +1312,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>205</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1215,10 +1341,10 @@
         <v>203</v>
       </c>
       <c r="F24" t="n">
-        <v>1200</v>
+        <v>47.88</v>
       </c>
       <c r="G24" t="n">
-        <v>204.2</v>
+        <v>207.45</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,8 +1353,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>205</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,22 +1370,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C25" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D25" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E25" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F25" t="n">
-        <v>9002.2266</v>
+        <v>1200</v>
       </c>
       <c r="G25" t="n">
-        <v>203.8</v>
+        <v>207.35</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,8 +1394,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>205</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1273,22 +1411,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C26" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D26" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E26" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>9002.2266</v>
       </c>
       <c r="G26" t="n">
-        <v>203.4</v>
+        <v>207.1666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,8 +1435,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>205</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,22 +1452,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C27" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D27" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E27" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>203.6</v>
+        <v>207.0333333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,8 +1476,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>205</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,22 +1493,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C28" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D28" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E28" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>204.6</v>
+        <v>206.95</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,8 +1517,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>205</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1378,22 +1534,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C29" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D29" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E29" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>205</v>
+        <v>206.85</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,8 +1558,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>205</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,22 +1575,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C30" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D30" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E30" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F30" t="n">
-        <v>2734</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>205.8</v>
+        <v>206.7166666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1437,8 +1599,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>205</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,22 +1616,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C31" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D31" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E31" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F31" t="n">
-        <v>259</v>
+        <v>2734</v>
       </c>
       <c r="G31" t="n">
-        <v>206</v>
+        <v>206.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,8 +1640,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>205</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1483,22 +1657,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C32" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D32" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E32" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F32" t="n">
-        <v>5275.699</v>
+        <v>259</v>
       </c>
       <c r="G32" t="n">
-        <v>206</v>
+        <v>206.4666666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,8 +1681,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>205</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1521,19 +1701,19 @@
         <v>205</v>
       </c>
       <c r="C33" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D33" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E33" t="n">
         <v>205</v>
       </c>
       <c r="F33" t="n">
-        <v>4873.0116</v>
+        <v>5275.699</v>
       </c>
       <c r="G33" t="n">
-        <v>205.4</v>
+        <v>206.3666666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,8 +1722,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>205</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,22 +1739,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C34" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D34" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E34" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F34" t="n">
-        <v>75.497</v>
+        <v>4873.0116</v>
       </c>
       <c r="G34" t="n">
-        <v>205</v>
+        <v>206.2666666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,8 +1763,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>205</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,22 +1780,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C35" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D35" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E35" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>75.497</v>
       </c>
       <c r="G35" t="n">
-        <v>205</v>
+        <v>206.1333333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,8 +1804,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>205</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1821,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C36" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D36" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E36" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F36" t="n">
-        <v>4092.4847</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>204.8</v>
+        <v>206.0666666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,8 +1845,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>205</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1661,19 +1865,19 @@
         <v>204</v>
       </c>
       <c r="C37" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D37" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E37" t="n">
         <v>204</v>
       </c>
       <c r="F37" t="n">
-        <v>123</v>
+        <v>4092.4847</v>
       </c>
       <c r="G37" t="n">
-        <v>204.8</v>
+        <v>205.9666666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,8 +1886,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>205</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C38" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D38" t="n">
         <v>206</v>
       </c>
       <c r="E38" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F38" t="n">
-        <v>1102.0885</v>
+        <v>123</v>
       </c>
       <c r="G38" t="n">
-        <v>204.4</v>
+        <v>205.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1717,8 +1927,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>205</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1731,19 +1947,19 @@
         <v>206</v>
       </c>
       <c r="C39" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D39" t="n">
         <v>206</v>
       </c>
       <c r="E39" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>1102.0885</v>
       </c>
       <c r="G39" t="n">
-        <v>205</v>
+        <v>205.8166666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,8 +1968,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>205</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,22 +1985,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C40" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D40" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E40" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F40" t="n">
-        <v>1629.0117</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>204.4</v>
+        <v>205.75</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,8 +2009,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>205</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,22 +2026,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C41" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D41" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E41" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>1629.0117</v>
       </c>
       <c r="G41" t="n">
-        <v>204.8</v>
+        <v>205.6166666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,8 +2050,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>205</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,22 +2067,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C42" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D42" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E42" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F42" t="n">
-        <v>338</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>204.4</v>
+        <v>205.5333333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1857,8 +2091,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>205</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1868,7 +2108,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C43" t="n">
         <v>204</v>
@@ -1877,13 +2117,13 @@
         <v>204</v>
       </c>
       <c r="E43" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F43" t="n">
-        <v>228.2346</v>
+        <v>338</v>
       </c>
       <c r="G43" t="n">
-        <v>204.6</v>
+        <v>205.45</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1892,8 +2132,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>205</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1903,7 +2149,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C44" t="n">
         <v>204</v>
@@ -1912,13 +2158,13 @@
         <v>204</v>
       </c>
       <c r="E44" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F44" t="n">
-        <v>326.8349</v>
+        <v>228.2346</v>
       </c>
       <c r="G44" t="n">
-        <v>204.2</v>
+        <v>205.3333333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,8 +2173,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>205</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,7 +2190,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C45" t="n">
         <v>204</v>
@@ -1947,13 +2199,13 @@
         <v>204</v>
       </c>
       <c r="E45" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F45" t="n">
-        <v>14.7058</v>
+        <v>326.8349</v>
       </c>
       <c r="G45" t="n">
-        <v>204.4</v>
+        <v>205.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1962,8 +2214,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>205</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +2231,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C46" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D46" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E46" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F46" t="n">
-        <v>1939.1938</v>
+        <v>14.7058</v>
       </c>
       <c r="G46" t="n">
-        <v>203.8</v>
+        <v>205.0666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1997,8 +2255,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>205</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2272,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C47" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D47" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E47" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>1939.1938</v>
       </c>
       <c r="G47" t="n">
-        <v>203.8</v>
+        <v>204.9666666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2032,8 +2296,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>205</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2055,10 +2325,10 @@
         <v>204</v>
       </c>
       <c r="F48" t="n">
-        <v>376</v>
+        <v>100</v>
       </c>
       <c r="G48" t="n">
-        <v>203.8</v>
+        <v>204.9166666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,8 +2337,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>205</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2090,10 +2366,10 @@
         <v>204</v>
       </c>
       <c r="F49" t="n">
-        <v>181</v>
+        <v>376</v>
       </c>
       <c r="G49" t="n">
-        <v>203.8</v>
+        <v>204.8666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,8 +2378,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>205</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2125,10 +2407,10 @@
         <v>204</v>
       </c>
       <c r="F50" t="n">
-        <v>1423.2942</v>
+        <v>181</v>
       </c>
       <c r="G50" t="n">
-        <v>203.8</v>
+        <v>204.85</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,8 +2419,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>205</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2436,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C51" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D51" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E51" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F51" t="n">
-        <v>1.5073</v>
+        <v>1423.2942</v>
       </c>
       <c r="G51" t="n">
-        <v>204.2</v>
+        <v>204.8333333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,8 +2460,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>205</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2195,10 +2489,10 @@
         <v>205</v>
       </c>
       <c r="F52" t="n">
-        <v>2000</v>
+        <v>1.5073</v>
       </c>
       <c r="G52" t="n">
-        <v>204.4</v>
+        <v>204.8166666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,8 +2501,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>205</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2230,10 +2530,10 @@
         <v>205</v>
       </c>
       <c r="F53" t="n">
-        <v>48</v>
+        <v>2000</v>
       </c>
       <c r="G53" t="n">
-        <v>204.6</v>
+        <v>204.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,8 +2542,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>205</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2256,19 +2562,19 @@
         <v>205</v>
       </c>
       <c r="C54" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D54" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E54" t="n">
         <v>205</v>
       </c>
       <c r="F54" t="n">
-        <v>2216.1217</v>
+        <v>48</v>
       </c>
       <c r="G54" t="n">
-        <v>205</v>
+        <v>204.7833333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,8 +2583,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>205</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2600,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C55" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D55" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E55" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F55" t="n">
-        <v>2399</v>
+        <v>2216.1217</v>
       </c>
       <c r="G55" t="n">
-        <v>205.8</v>
+        <v>204.7833333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,8 +2624,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>205</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,7 +2641,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C56" t="n">
         <v>208</v>
@@ -2332,13 +2650,13 @@
         <v>208</v>
       </c>
       <c r="E56" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F56" t="n">
-        <v>1804.6985</v>
+        <v>2399</v>
       </c>
       <c r="G56" t="n">
-        <v>206.4</v>
+        <v>204.8333333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,8 +2665,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>205</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2370,10 +2694,10 @@
         <v>208</v>
       </c>
       <c r="F57" t="n">
-        <v>204.9731</v>
+        <v>1804.6985</v>
       </c>
       <c r="G57" t="n">
-        <v>207</v>
+        <v>204.8666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,8 +2706,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>205</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2405,10 +2735,10 @@
         <v>208</v>
       </c>
       <c r="F58" t="n">
-        <v>2531</v>
+        <v>204.9731</v>
       </c>
       <c r="G58" t="n">
-        <v>207.6</v>
+        <v>204.9166666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,8 +2747,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>205</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2440,10 +2776,10 @@
         <v>208</v>
       </c>
       <c r="F59" t="n">
-        <v>426.8125</v>
+        <v>2531</v>
       </c>
       <c r="G59" t="n">
-        <v>208</v>
+        <v>204.9666666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,8 +2788,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>205</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2475,10 +2817,10 @@
         <v>208</v>
       </c>
       <c r="F60" t="n">
-        <v>1247.8365</v>
+        <v>426.8125</v>
       </c>
       <c r="G60" t="n">
-        <v>208</v>
+        <v>205.0166666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,8 +2829,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>205</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2846,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C61" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D61" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E61" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F61" t="n">
-        <v>3466.1268</v>
+        <v>1247.8365</v>
       </c>
       <c r="G61" t="n">
-        <v>208.4</v>
+        <v>205.0666666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,8 +2870,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>205</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,7 +2887,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C62" t="n">
         <v>210</v>
@@ -2542,13 +2896,13 @@
         <v>210</v>
       </c>
       <c r="E62" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F62" t="n">
-        <v>132.6548</v>
+        <v>3466.1268</v>
       </c>
       <c r="G62" t="n">
-        <v>208.8</v>
+        <v>205.15</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,8 +2911,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>205</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2580,10 +2940,10 @@
         <v>210</v>
       </c>
       <c r="F63" t="n">
-        <v>3501.5591</v>
+        <v>132.6548</v>
       </c>
       <c r="G63" t="n">
-        <v>209.2</v>
+        <v>205.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,8 +2952,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>205</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,34 +2969,40 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C64" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D64" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E64" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F64" t="n">
-        <v>250</v>
+        <v>3501.5591</v>
       </c>
       <c r="G64" t="n">
-        <v>209</v>
+        <v>205.25</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>205</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>1.019390243902439</v>
       </c>
     </row>
     <row r="65">
@@ -2638,28 +3010,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C65" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D65" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E65" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="G65" t="n">
-        <v>209.4</v>
+        <v>205.2833333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2685,10 +3057,10 @@
         <v>210</v>
       </c>
       <c r="F66" t="n">
-        <v>237.984</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>209.4</v>
+        <v>205.3333333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +3080,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C67" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D67" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E67" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F67" t="n">
-        <v>3143.2077</v>
+        <v>237.984</v>
       </c>
       <c r="G67" t="n">
-        <v>209.2</v>
+        <v>205.3833333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +3115,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C68" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D68" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E68" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F68" t="n">
-        <v>172.1435</v>
+        <v>3143.2077</v>
       </c>
       <c r="G68" t="n">
-        <v>208.8</v>
+        <v>205.4166666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2781,19 +3153,19 @@
         <v>208</v>
       </c>
       <c r="C69" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E69" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F69" t="n">
-        <v>736.4139</v>
+        <v>172.1435</v>
       </c>
       <c r="G69" t="n">
-        <v>208.8</v>
+        <v>205.4166666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +3185,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C70" t="n">
         <v>207</v>
       </c>
       <c r="D70" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E70" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F70" t="n">
-        <v>219.6282</v>
+        <v>736.4139</v>
       </c>
       <c r="G70" t="n">
-        <v>208.2</v>
+        <v>205.4833333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +3220,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C71" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E71" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F71" t="n">
-        <v>6</v>
+        <v>219.6282</v>
       </c>
       <c r="G71" t="n">
-        <v>207.4</v>
+        <v>205.55</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +3255,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C72" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E72" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F72" t="n">
-        <v>692.116</v>
+        <v>6</v>
       </c>
       <c r="G72" t="n">
-        <v>207</v>
+        <v>205.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,7 +3290,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C73" t="n">
         <v>207</v>
@@ -2927,13 +3299,13 @@
         <v>207</v>
       </c>
       <c r="E73" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F73" t="n">
-        <v>1333.0753</v>
+        <v>692.116</v>
       </c>
       <c r="G73" t="n">
-        <v>206.8</v>
+        <v>205.6333333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +3337,10 @@
         <v>207</v>
       </c>
       <c r="F74" t="n">
-        <v>221.2781</v>
+        <v>1333.0753</v>
       </c>
       <c r="G74" t="n">
-        <v>206.8</v>
+        <v>205.65</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3372,10 @@
         <v>207</v>
       </c>
       <c r="F75" t="n">
-        <v>555</v>
+        <v>221.2781</v>
       </c>
       <c r="G75" t="n">
-        <v>206.8</v>
+        <v>205.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3407,10 @@
         <v>207</v>
       </c>
       <c r="F76" t="n">
-        <v>1622.5831</v>
+        <v>555</v>
       </c>
       <c r="G76" t="n">
-        <v>207</v>
+        <v>205.75</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3061,19 +3433,19 @@
         <v>207</v>
       </c>
       <c r="C77" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D77" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E77" t="n">
         <v>207</v>
       </c>
       <c r="F77" t="n">
-        <v>528.6146</v>
+        <v>1622.5831</v>
       </c>
       <c r="G77" t="n">
-        <v>207.6</v>
+        <v>205.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3465,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C78" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D78" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E78" t="n">
         <v>207</v>
       </c>
       <c r="F78" t="n">
-        <v>137.4848</v>
+        <v>528.6146</v>
       </c>
       <c r="G78" t="n">
-        <v>207.6</v>
+        <v>205.9166666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3500,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C79" t="n">
         <v>207</v>
       </c>
       <c r="D79" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E79" t="n">
         <v>207</v>
       </c>
       <c r="F79" t="n">
-        <v>117.5246</v>
+        <v>137.4848</v>
       </c>
       <c r="G79" t="n">
-        <v>207.6</v>
+        <v>205.9666666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3547,10 @@
         <v>207</v>
       </c>
       <c r="F80" t="n">
-        <v>6</v>
+        <v>117.5246</v>
       </c>
       <c r="G80" t="n">
-        <v>207.6</v>
+        <v>206.0333333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3210,10 +3582,10 @@
         <v>207</v>
       </c>
       <c r="F81" t="n">
-        <v>3586.1467</v>
+        <v>6</v>
       </c>
       <c r="G81" t="n">
-        <v>207.6</v>
+        <v>206.0833333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3605,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C82" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D82" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E82" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>3586.1467</v>
       </c>
       <c r="G82" t="n">
-        <v>207.4</v>
+        <v>206.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3652,10 @@
         <v>209</v>
       </c>
       <c r="F83" t="n">
-        <v>1823.3837</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>207.8</v>
+        <v>206.1666666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3306,19 +3678,19 @@
         <v>209</v>
       </c>
       <c r="C84" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D84" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E84" t="n">
         <v>209</v>
       </c>
       <c r="F84" t="n">
-        <v>5084.701</v>
+        <v>1823.3837</v>
       </c>
       <c r="G84" t="n">
-        <v>208.8</v>
+        <v>206.2666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3710,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C85" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D85" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E85" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F85" t="n">
-        <v>1638.9999</v>
+        <v>5084.701</v>
       </c>
       <c r="G85" t="n">
-        <v>209.4</v>
+        <v>206.4166666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3385,10 +3757,10 @@
         <v>210</v>
       </c>
       <c r="F86" t="n">
-        <v>4126.0602</v>
+        <v>1638.9999</v>
       </c>
       <c r="G86" t="n">
-        <v>210</v>
+        <v>206.55</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,10 +3792,10 @@
         <v>210</v>
       </c>
       <c r="F87" t="n">
-        <v>7398.2746</v>
+        <v>4126.0602</v>
       </c>
       <c r="G87" t="n">
-        <v>210.2</v>
+        <v>206.65</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,10 +3827,10 @@
         <v>210</v>
       </c>
       <c r="F88" t="n">
-        <v>100</v>
+        <v>7398.2746</v>
       </c>
       <c r="G88" t="n">
-        <v>210.4</v>
+        <v>206.7166666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3850,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C89" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D89" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E89" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G89" t="n">
-        <v>210.4</v>
+        <v>206.75</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3897,10 @@
         <v>212</v>
       </c>
       <c r="F90" t="n">
-        <v>3536.5587</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>210.8</v>
+        <v>206.8666666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3932,10 @@
         <v>212</v>
       </c>
       <c r="F91" t="n">
-        <v>1823</v>
+        <v>3536.5587</v>
       </c>
       <c r="G91" t="n">
-        <v>211.2</v>
+        <v>206.9666666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3967,10 @@
         <v>212</v>
       </c>
       <c r="F92" t="n">
-        <v>820.0183</v>
+        <v>1823</v>
       </c>
       <c r="G92" t="n">
-        <v>211.6</v>
+        <v>207.0833333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +4002,10 @@
         <v>212</v>
       </c>
       <c r="F93" t="n">
-        <v>268</v>
+        <v>820.0183</v>
       </c>
       <c r="G93" t="n">
-        <v>212</v>
+        <v>207.1833333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +4037,10 @@
         <v>212</v>
       </c>
       <c r="F94" t="n">
-        <v>368.2131</v>
+        <v>268</v>
       </c>
       <c r="G94" t="n">
-        <v>212</v>
+        <v>207.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,7 +4060,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C95" t="n">
         <v>212</v>
@@ -3697,13 +4069,13 @@
         <v>212</v>
       </c>
       <c r="E95" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F95" t="n">
-        <v>1305</v>
+        <v>368.2131</v>
       </c>
       <c r="G95" t="n">
-        <v>212</v>
+        <v>207.45</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +4095,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>211</v>
+      </c>
+      <c r="C96" t="n">
         <v>212</v>
       </c>
-      <c r="C96" t="n">
-        <v>213</v>
-      </c>
       <c r="D96" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E96" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F96" t="n">
-        <v>4739.9057</v>
+        <v>1305</v>
       </c>
       <c r="G96" t="n">
-        <v>212.2</v>
+        <v>207.55</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3761,19 +4133,19 @@
         <v>212</v>
       </c>
       <c r="C97" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D97" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E97" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F97" t="n">
-        <v>999</v>
+        <v>4739.9057</v>
       </c>
       <c r="G97" t="n">
-        <v>212.2</v>
+        <v>207.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +4165,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C98" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D98" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E98" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F98" t="n">
-        <v>3210.1554</v>
+        <v>999</v>
       </c>
       <c r="G98" t="n">
-        <v>212.8</v>
+        <v>207.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,7 +4200,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C99" t="n">
         <v>215</v>
@@ -3837,13 +4209,13 @@
         <v>215</v>
       </c>
       <c r="E99" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F99" t="n">
-        <v>3897.5424</v>
+        <v>3210.1554</v>
       </c>
       <c r="G99" t="n">
-        <v>213.4</v>
+        <v>208</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +4235,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C100" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D100" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E100" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F100" t="n">
-        <v>2.088</v>
+        <v>3897.5424</v>
       </c>
       <c r="G100" t="n">
-        <v>213.8</v>
+        <v>208.15</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3901,19 +4273,19 @@
         <v>214</v>
       </c>
       <c r="C101" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D101" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E101" t="n">
         <v>214</v>
       </c>
       <c r="F101" t="n">
-        <v>2</v>
+        <v>2.088</v>
       </c>
       <c r="G101" t="n">
-        <v>214.2</v>
+        <v>208.3333333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +4305,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>214</v>
+      </c>
+      <c r="C102" t="n">
         <v>215</v>
       </c>
-      <c r="C102" t="n">
-        <v>216</v>
-      </c>
       <c r="D102" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E102" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F102" t="n">
-        <v>15.528</v>
+        <v>2</v>
       </c>
       <c r="G102" t="n">
-        <v>215</v>
+        <v>208.4833333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,28 +4340,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C103" t="n">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D103" t="n">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E103" t="n">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F103" t="n">
-        <v>810.377</v>
+        <v>15.528</v>
       </c>
       <c r="G103" t="n">
-        <v>214</v>
+        <v>208.6833333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4003,28 +4375,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C104" t="n">
         <v>210</v>
       </c>
       <c r="D104" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E104" t="n">
         <v>210</v>
       </c>
       <c r="F104" t="n">
-        <v>227.4895</v>
+        <v>810.377</v>
       </c>
       <c r="G104" t="n">
-        <v>213</v>
+        <v>208.7833333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4041,19 +4413,19 @@
         <v>210</v>
       </c>
       <c r="C105" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D105" t="n">
+        <v>215</v>
+      </c>
+      <c r="E105" t="n">
         <v>210</v>
       </c>
-      <c r="E105" t="n">
-        <v>206</v>
-      </c>
       <c r="F105" t="n">
-        <v>250</v>
+        <v>227.4895</v>
       </c>
       <c r="G105" t="n">
-        <v>211.4</v>
+        <v>208.8833333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4445,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C106" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D106" t="n">
         <v>210</v>
       </c>
       <c r="E106" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F106" t="n">
-        <v>31.417</v>
+        <v>250</v>
       </c>
       <c r="G106" t="n">
-        <v>210.4</v>
+        <v>208.9166666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4111,19 +4483,19 @@
         <v>209</v>
       </c>
       <c r="C107" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D107" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E107" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F107" t="n">
-        <v>9672.132154629629</v>
+        <v>31.417</v>
       </c>
       <c r="G107" t="n">
-        <v>208.8</v>
+        <v>209.0333333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4146,19 +4518,19 @@
         <v>209</v>
       </c>
       <c r="C108" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D108" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E108" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F108" t="n">
-        <v>3715.1181</v>
+        <v>9672.132154629629</v>
       </c>
       <c r="G108" t="n">
-        <v>208.8</v>
+        <v>209.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4550,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>209</v>
+      </c>
+      <c r="C109" t="n">
         <v>210</v>
       </c>
-      <c r="C109" t="n">
-        <v>207</v>
-      </c>
       <c r="D109" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E109" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F109" t="n">
-        <v>3010.0852</v>
+        <v>3715.1181</v>
       </c>
       <c r="G109" t="n">
-        <v>208.2</v>
+        <v>209.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4585,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C110" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D110" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E110" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F110" t="n">
-        <v>1700</v>
+        <v>3010.0852</v>
       </c>
       <c r="G110" t="n">
-        <v>208.6</v>
+        <v>209.25</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4620,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>209</v>
+      </c>
+      <c r="C111" t="n">
         <v>208</v>
       </c>
-      <c r="C111" t="n">
-        <v>206</v>
-      </c>
       <c r="D111" t="n">
+        <v>209</v>
+      </c>
+      <c r="E111" t="n">
         <v>208</v>
       </c>
-      <c r="E111" t="n">
-        <v>206</v>
-      </c>
       <c r="F111" t="n">
-        <v>2572</v>
+        <v>1700</v>
       </c>
       <c r="G111" t="n">
-        <v>207.8</v>
+        <v>209.3166666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4655,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C112" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D112" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E112" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F112" t="n">
-        <v>60.7064</v>
+        <v>2572</v>
       </c>
       <c r="G112" t="n">
-        <v>208</v>
+        <v>209.3333333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,10 +4702,10 @@
         <v>209</v>
       </c>
       <c r="F113" t="n">
-        <v>364.2707</v>
+        <v>60.7064</v>
       </c>
       <c r="G113" t="n">
-        <v>207.8</v>
+        <v>209.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4356,19 +4728,19 @@
         <v>209</v>
       </c>
       <c r="C114" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D114" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E114" t="n">
         <v>209</v>
       </c>
       <c r="F114" t="n">
-        <v>598.9638</v>
+        <v>364.2707</v>
       </c>
       <c r="G114" t="n">
-        <v>208.4</v>
+        <v>209.4666666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4760,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C115" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D115" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E115" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F115" t="n">
-        <v>254.7878</v>
+        <v>598.9638</v>
       </c>
       <c r="G115" t="n">
-        <v>209</v>
+        <v>209.5333333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4795,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C116" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D116" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E116" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F116" t="n">
-        <v>114.4958</v>
+        <v>254.7878</v>
       </c>
       <c r="G116" t="n">
-        <v>209.6</v>
+        <v>209.5833333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4470,7 +4842,7 @@
         <v>209</v>
       </c>
       <c r="F117" t="n">
-        <v>20.2961</v>
+        <v>114.4958</v>
       </c>
       <c r="G117" t="n">
         <v>209.6</v>
@@ -4505,10 +4877,10 @@
         <v>209</v>
       </c>
       <c r="F118" t="n">
-        <v>1.5884</v>
+        <v>20.2961</v>
       </c>
       <c r="G118" t="n">
-        <v>209.6</v>
+        <v>209.6166666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4531,19 +4903,19 @@
         <v>209</v>
       </c>
       <c r="C119" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D119" t="n">
         <v>209</v>
       </c>
       <c r="E119" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F119" t="n">
-        <v>251.6986</v>
+        <v>1.5884</v>
       </c>
       <c r="G119" t="n">
-        <v>208.8</v>
+        <v>209.6333333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4935,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C120" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D120" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E120" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F120" t="n">
-        <v>13600.6316</v>
+        <v>251.6986</v>
       </c>
       <c r="G120" t="n">
-        <v>207.6</v>
+        <v>209.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4601,19 +4973,19 @@
         <v>208</v>
       </c>
       <c r="C121" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D121" t="n">
         <v>208</v>
       </c>
       <c r="E121" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F121" t="n">
-        <v>93</v>
+        <v>13600.6316</v>
       </c>
       <c r="G121" t="n">
-        <v>207.4</v>
+        <v>209.55</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +5005,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C122" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D122" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E122" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F122" t="n">
-        <v>1.7007</v>
+        <v>93</v>
       </c>
       <c r="G122" t="n">
-        <v>207</v>
+        <v>209.5166666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +5040,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C123" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D123" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E123" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F123" t="n">
-        <v>1.3853</v>
+        <v>1.7007</v>
       </c>
       <c r="G123" t="n">
-        <v>206.4</v>
+        <v>209.4666666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +5075,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C124" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D124" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E124" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F124" t="n">
-        <v>1.4582</v>
+        <v>1.3853</v>
       </c>
       <c r="G124" t="n">
-        <v>206.6</v>
+        <v>209.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +5110,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C125" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D125" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E125" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F125" t="n">
-        <v>1.7902</v>
+        <v>1.4582</v>
       </c>
       <c r="G125" t="n">
-        <v>207.2</v>
+        <v>209.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +5145,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C126" t="n">
         <v>208</v>
       </c>
       <c r="D126" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E126" t="n">
         <v>208</v>
       </c>
       <c r="F126" t="n">
-        <v>2552.1952</v>
+        <v>1.7902</v>
       </c>
       <c r="G126" t="n">
-        <v>207.2</v>
+        <v>209.3666666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4811,19 +5183,19 @@
         <v>209</v>
       </c>
       <c r="C127" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D127" t="n">
         <v>209</v>
       </c>
       <c r="E127" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F127" t="n">
-        <v>2.5215</v>
+        <v>2552.1952</v>
       </c>
       <c r="G127" t="n">
-        <v>207.6</v>
+        <v>209.3333333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4855,10 +5227,10 @@
         <v>209</v>
       </c>
       <c r="F128" t="n">
-        <v>365.7443</v>
+        <v>2.5215</v>
       </c>
       <c r="G128" t="n">
-        <v>208.2</v>
+        <v>209.3333333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4890,10 +5262,10 @@
         <v>209</v>
       </c>
       <c r="F129" t="n">
-        <v>0.8633</v>
+        <v>365.7443</v>
       </c>
       <c r="G129" t="n">
-        <v>208.6</v>
+        <v>209.35</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +5285,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C130" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D130" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E130" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F130" t="n">
-        <v>15137.3164</v>
+        <v>0.8633</v>
       </c>
       <c r="G130" t="n">
-        <v>208.4</v>
+        <v>209.3833333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +5320,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C131" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D131" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E131" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F131" t="n">
-        <v>3.1886</v>
+        <v>15137.3164</v>
       </c>
       <c r="G131" t="n">
-        <v>208</v>
+        <v>209.3833333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +5355,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C132" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D132" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E132" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F132" t="n">
-        <v>500</v>
+        <v>3.1886</v>
       </c>
       <c r="G132" t="n">
-        <v>208</v>
+        <v>209.3833333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5390,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C133" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D133" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E133" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F133" t="n">
-        <v>820.4546</v>
+        <v>500</v>
       </c>
       <c r="G133" t="n">
-        <v>207.6</v>
+        <v>209.4166666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5425,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C134" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D134" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E134" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F134" t="n">
-        <v>237.916</v>
+        <v>820.4546</v>
       </c>
       <c r="G134" t="n">
-        <v>207</v>
+        <v>209.4166666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5100,10 +5472,10 @@
         <v>206</v>
       </c>
       <c r="F135" t="n">
-        <v>478.4096</v>
+        <v>237.916</v>
       </c>
       <c r="G135" t="n">
-        <v>206.8</v>
+        <v>209.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5495,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C136" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D136" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E136" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F136" t="n">
-        <v>7258</v>
+        <v>478.4096</v>
       </c>
       <c r="G136" t="n">
-        <v>206.6</v>
+        <v>209.3833333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5170,10 +5542,10 @@
         <v>205</v>
       </c>
       <c r="F137" t="n">
-        <v>788.3854</v>
+        <v>7258</v>
       </c>
       <c r="G137" t="n">
-        <v>205.8</v>
+        <v>209.35</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5565,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C138" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D138" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E138" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F138" t="n">
-        <v>689.196</v>
+        <v>788.3854</v>
       </c>
       <c r="G138" t="n">
-        <v>205.2</v>
+        <v>209.2666666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5600,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C139" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D139" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E139" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F139" t="n">
-        <v>9736.126899999999</v>
+        <v>689.196</v>
       </c>
       <c r="G139" t="n">
-        <v>204.6</v>
+        <v>209.2166666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5635,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C140" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D140" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E140" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F140" t="n">
-        <v>169</v>
+        <v>9736.126899999999</v>
       </c>
       <c r="G140" t="n">
-        <v>204.4</v>
+        <v>209.15</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5310,10 +5682,10 @@
         <v>205</v>
       </c>
       <c r="F141" t="n">
-        <v>240.3035</v>
+        <v>169</v>
       </c>
       <c r="G141" t="n">
-        <v>204.4</v>
+        <v>209.1166666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5705,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C142" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D142" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E142" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F142" t="n">
-        <v>15</v>
+        <v>240.3035</v>
       </c>
       <c r="G142" t="n">
-        <v>204.2</v>
+        <v>209.0833333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5380,10 +5752,10 @@
         <v>204</v>
       </c>
       <c r="F143" t="n">
-        <v>111.3146</v>
+        <v>15</v>
       </c>
       <c r="G143" t="n">
-        <v>204.2</v>
+        <v>209</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5415,10 +5787,10 @@
         <v>204</v>
       </c>
       <c r="F144" t="n">
-        <v>496.3783</v>
+        <v>111.3146</v>
       </c>
       <c r="G144" t="n">
-        <v>204.4</v>
+        <v>208.9166666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5810,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C145" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D145" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E145" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F145" t="n">
-        <v>6479.3157</v>
+        <v>496.3783</v>
       </c>
       <c r="G145" t="n">
-        <v>204</v>
+        <v>208.7833333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5845,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C146" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D146" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E146" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F146" t="n">
-        <v>3200</v>
+        <v>6479.3157</v>
       </c>
       <c r="G146" t="n">
-        <v>203.2</v>
+        <v>208.6666666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5880,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
+        <v>202</v>
+      </c>
+      <c r="C147" t="n">
         <v>201</v>
       </c>
-      <c r="C147" t="n">
-        <v>200</v>
-      </c>
       <c r="D147" t="n">
+        <v>202</v>
+      </c>
+      <c r="E147" t="n">
         <v>201</v>
       </c>
-      <c r="E147" t="n">
-        <v>200</v>
-      </c>
       <c r="F147" t="n">
-        <v>13508.7196</v>
+        <v>3200</v>
       </c>
       <c r="G147" t="n">
-        <v>202.4</v>
+        <v>208.5166666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5915,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
+        <v>201</v>
+      </c>
+      <c r="C148" t="n">
         <v>200</v>
       </c>
-      <c r="C148" t="n">
-        <v>202</v>
-      </c>
       <c r="D148" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E148" t="n">
         <v>200</v>
       </c>
       <c r="F148" t="n">
-        <v>26773.935</v>
+        <v>13508.7196</v>
       </c>
       <c r="G148" t="n">
-        <v>202</v>
+        <v>208.35</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,7 +5950,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C149" t="n">
         <v>202</v>
@@ -5587,13 +5959,13 @@
         <v>202</v>
       </c>
       <c r="E149" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F149" t="n">
-        <v>245.8306</v>
+        <v>26773.935</v>
       </c>
       <c r="G149" t="n">
-        <v>201.6</v>
+        <v>208.2166666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5625,10 +5997,10 @@
         <v>202</v>
       </c>
       <c r="F150" t="n">
-        <v>10092.5661</v>
+        <v>245.8306</v>
       </c>
       <c r="G150" t="n">
-        <v>201.4</v>
+        <v>208.05</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +6020,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C151" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D151" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E151" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F151" t="n">
-        <v>227.664</v>
+        <v>10092.5661</v>
       </c>
       <c r="G151" t="n">
-        <v>201.2</v>
+        <v>207.8833333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5695,10 +6067,10 @@
         <v>200</v>
       </c>
       <c r="F152" t="n">
-        <v>2000</v>
+        <v>227.664</v>
       </c>
       <c r="G152" t="n">
-        <v>201.2</v>
+        <v>207.6833333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5730,10 +6102,10 @@
         <v>200</v>
       </c>
       <c r="F153" t="n">
-        <v>1849.9999</v>
+        <v>2000</v>
       </c>
       <c r="G153" t="n">
-        <v>200.8</v>
+        <v>207.4833333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5756,19 +6128,19 @@
         <v>200</v>
       </c>
       <c r="C154" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D154" t="n">
         <v>200</v>
       </c>
       <c r="E154" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F154" t="n">
-        <v>2351.6966</v>
+        <v>1849.9999</v>
       </c>
       <c r="G154" t="n">
-        <v>200.2</v>
+        <v>207.2833333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5791,19 +6163,19 @@
         <v>200</v>
       </c>
       <c r="C155" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D155" t="n">
         <v>200</v>
       </c>
       <c r="E155" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F155" t="n">
-        <v>478.4691</v>
+        <v>2351.6966</v>
       </c>
       <c r="G155" t="n">
-        <v>199.8</v>
+        <v>207.0666666666667</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5835,10 +6207,10 @@
         <v>200</v>
       </c>
       <c r="F156" t="n">
-        <v>3920.3302</v>
+        <v>478.4691</v>
       </c>
       <c r="G156" t="n">
-        <v>199.8</v>
+        <v>206.8666666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +6230,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C157" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D157" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E157" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F157" t="n">
-        <v>99.25230000000001</v>
+        <v>3920.3302</v>
       </c>
       <c r="G157" t="n">
-        <v>200</v>
+        <v>206.65</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +6265,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C158" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D158" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E158" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F158" t="n">
-        <v>2199.6872</v>
+        <v>99.25230000000001</v>
       </c>
       <c r="G158" t="n">
-        <v>200.4</v>
+        <v>206.4666666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +6300,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C159" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D159" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E159" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F159" t="n">
-        <v>229.3414</v>
+        <v>2199.6872</v>
       </c>
       <c r="G159" t="n">
-        <v>200.8</v>
+        <v>206.25</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +6335,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C160" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D160" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E160" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F160" t="n">
-        <v>19.7227</v>
+        <v>229.3414</v>
       </c>
       <c r="G160" t="n">
-        <v>201.2</v>
+        <v>206.0166666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6010,10 +6382,10 @@
         <v>202</v>
       </c>
       <c r="F161" t="n">
-        <v>2849.6485</v>
+        <v>19.7227</v>
       </c>
       <c r="G161" t="n">
-        <v>201.6</v>
+        <v>205.8166666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6405,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C162" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D162" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E162" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F162" t="n">
-        <v>3443.3496</v>
+        <v>2849.6485</v>
       </c>
       <c r="G162" t="n">
-        <v>202</v>
+        <v>205.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6080,10 +6452,10 @@
         <v>203</v>
       </c>
       <c r="F163" t="n">
-        <v>4741.1021</v>
+        <v>3443.3496</v>
       </c>
       <c r="G163" t="n">
-        <v>202.2</v>
+        <v>205.3833333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6475,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C164" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D164" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E164" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F164" t="n">
-        <v>1</v>
+        <v>4741.1021</v>
       </c>
       <c r="G164" t="n">
-        <v>202.8</v>
+        <v>205.2666666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,7 +6510,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C165" t="n">
         <v>204</v>
@@ -6147,13 +6519,13 @@
         <v>204</v>
       </c>
       <c r="E165" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F165" t="n">
-        <v>20.6733</v>
+        <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>203.2</v>
+        <v>205.1666666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6185,10 +6557,10 @@
         <v>203</v>
       </c>
       <c r="F166" t="n">
-        <v>1168.9997</v>
+        <v>20.6733</v>
       </c>
       <c r="G166" t="n">
-        <v>203.6</v>
+        <v>205.1333333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,7 +6580,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C167" t="n">
         <v>204</v>
@@ -6217,13 +6589,13 @@
         <v>204</v>
       </c>
       <c r="E167" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F167" t="n">
-        <v>2273.7158</v>
+        <v>1168.9997</v>
       </c>
       <c r="G167" t="n">
-        <v>203.8</v>
+        <v>205.0333333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6255,10 +6627,10 @@
         <v>204</v>
       </c>
       <c r="F168" t="n">
-        <v>791.6772999999999</v>
+        <v>2273.7158</v>
       </c>
       <c r="G168" t="n">
-        <v>204</v>
+        <v>204.9666666666667</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6290,10 +6662,10 @@
         <v>204</v>
       </c>
       <c r="F169" t="n">
-        <v>149.2429</v>
+        <v>791.6772999999999</v>
       </c>
       <c r="G169" t="n">
-        <v>204</v>
+        <v>204.8666666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6325,10 +6697,10 @@
         <v>204</v>
       </c>
       <c r="F170" t="n">
-        <v>22553.4908</v>
+        <v>149.2429</v>
       </c>
       <c r="G170" t="n">
-        <v>204</v>
+        <v>204.8166666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6360,10 +6732,10 @@
         <v>204</v>
       </c>
       <c r="F171" t="n">
-        <v>44929.9484</v>
+        <v>22553.4908</v>
       </c>
       <c r="G171" t="n">
-        <v>204</v>
+        <v>204.75</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6395,10 +6767,10 @@
         <v>204</v>
       </c>
       <c r="F172" t="n">
-        <v>175629.2444</v>
+        <v>44929.9484</v>
       </c>
       <c r="G172" t="n">
-        <v>204</v>
+        <v>204.7166666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6430,10 +6802,10 @@
         <v>204</v>
       </c>
       <c r="F173" t="n">
-        <v>112776.2683</v>
+        <v>175629.2444</v>
       </c>
       <c r="G173" t="n">
-        <v>204</v>
+        <v>204.6333333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6456,19 +6828,19 @@
         <v>204</v>
       </c>
       <c r="C174" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D174" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E174" t="n">
         <v>204</v>
       </c>
       <c r="F174" t="n">
-        <v>19603.7977</v>
+        <v>112776.2683</v>
       </c>
       <c r="G174" t="n">
-        <v>204.2</v>
+        <v>204.55</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6860,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C175" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D175" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E175" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F175" t="n">
-        <v>2228.5024</v>
+        <v>19603.7977</v>
       </c>
       <c r="G175" t="n">
-        <v>204.8</v>
+        <v>204.4666666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6526,19 +6898,19 @@
         <v>206</v>
       </c>
       <c r="C176" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D176" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E176" t="n">
         <v>206</v>
       </c>
       <c r="F176" t="n">
-        <v>6988.262</v>
+        <v>2228.5024</v>
       </c>
       <c r="G176" t="n">
-        <v>205.2</v>
+        <v>204.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6570,10 +6942,10 @@
         <v>206</v>
       </c>
       <c r="F177" t="n">
-        <v>451.9999</v>
+        <v>6988.262</v>
       </c>
       <c r="G177" t="n">
-        <v>205.6</v>
+        <v>204.35</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6965,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C178" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D178" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E178" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F178" t="n">
-        <v>544</v>
+        <v>451.9999</v>
       </c>
       <c r="G178" t="n">
-        <v>206.2</v>
+        <v>204.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6640,10 +7012,10 @@
         <v>207</v>
       </c>
       <c r="F179" t="n">
-        <v>54</v>
+        <v>544</v>
       </c>
       <c r="G179" t="n">
-        <v>206.6</v>
+        <v>204.2666666666667</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +7035,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C180" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D180" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E180" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F180" t="n">
-        <v>250</v>
+        <v>54</v>
       </c>
       <c r="G180" t="n">
-        <v>206.4</v>
+        <v>204.2833333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6710,10 +7082,10 @@
         <v>206</v>
       </c>
       <c r="F181" t="n">
-        <v>547.8339999999999</v>
+        <v>250</v>
       </c>
       <c r="G181" t="n">
-        <v>206.4</v>
+        <v>204.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +7105,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C182" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D182" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E182" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F182" t="n">
-        <v>1575.8761</v>
+        <v>547.8339999999999</v>
       </c>
       <c r="G182" t="n">
-        <v>206.6</v>
+        <v>204.2666666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6780,10 +7152,10 @@
         <v>207</v>
       </c>
       <c r="F183" t="n">
-        <v>1076.2666</v>
+        <v>1575.8761</v>
       </c>
       <c r="G183" t="n">
-        <v>206.6</v>
+        <v>204.2666666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6815,10 +7187,10 @@
         <v>207</v>
       </c>
       <c r="F184" t="n">
-        <v>0.0001</v>
+        <v>1076.2666</v>
       </c>
       <c r="G184" t="n">
-        <v>206.6</v>
+        <v>204.2833333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +7210,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C185" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D185" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E185" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F185" t="n">
-        <v>863.5432</v>
+        <v>0.0001</v>
       </c>
       <c r="G185" t="n">
-        <v>207</v>
+        <v>204.2833333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +7245,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C186" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D186" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E186" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F186" t="n">
-        <v>99.99760000000001</v>
+        <v>863.5432</v>
       </c>
       <c r="G186" t="n">
-        <v>207.2</v>
+        <v>204.2833333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +7280,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C187" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D187" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E187" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F187" t="n">
-        <v>54.2935</v>
+        <v>99.99760000000001</v>
       </c>
       <c r="G187" t="n">
-        <v>207</v>
+        <v>204.2666666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +7315,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C188" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D188" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E188" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F188" t="n">
-        <v>394.7301</v>
+        <v>54.2935</v>
       </c>
       <c r="G188" t="n">
-        <v>207</v>
+        <v>204.2166666666667</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6990,10 +7362,10 @@
         <v>207</v>
       </c>
       <c r="F189" t="n">
-        <v>200</v>
+        <v>394.7301</v>
       </c>
       <c r="G189" t="n">
-        <v>207</v>
+        <v>204.1833333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7016,19 +7388,19 @@
         <v>207</v>
       </c>
       <c r="C190" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D190" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E190" t="n">
         <v>207</v>
       </c>
       <c r="F190" t="n">
-        <v>358.8606</v>
+        <v>200</v>
       </c>
       <c r="G190" t="n">
-        <v>207</v>
+        <v>204.15</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,7 +7420,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C191" t="n">
         <v>208</v>
@@ -7057,13 +7429,13 @@
         <v>208</v>
       </c>
       <c r="E191" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F191" t="n">
-        <v>543.8804</v>
+        <v>358.8606</v>
       </c>
       <c r="G191" t="n">
-        <v>207.2</v>
+        <v>204.1666666666667</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7455,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C192" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D192" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E192" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F192" t="n">
-        <v>5669.8048</v>
+        <v>543.8804</v>
       </c>
       <c r="G192" t="n">
-        <v>207.8</v>
+        <v>204.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7130,10 +7502,10 @@
         <v>209</v>
       </c>
       <c r="F193" t="n">
-        <v>257.3301</v>
+        <v>5669.8048</v>
       </c>
       <c r="G193" t="n">
-        <v>208.2</v>
+        <v>204.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7165,10 +7537,10 @@
         <v>209</v>
       </c>
       <c r="F194" t="n">
-        <v>151.4176</v>
+        <v>257.3301</v>
       </c>
       <c r="G194" t="n">
-        <v>208.6</v>
+        <v>204.2333333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7200,10 +7572,10 @@
         <v>209</v>
       </c>
       <c r="F195" t="n">
-        <v>304</v>
+        <v>151.4176</v>
       </c>
       <c r="G195" t="n">
-        <v>208.8</v>
+        <v>204.2833333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7235,10 +7607,10 @@
         <v>209</v>
       </c>
       <c r="F196" t="n">
-        <v>156</v>
+        <v>304</v>
       </c>
       <c r="G196" t="n">
-        <v>209</v>
+        <v>204.3333333333333</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7270,10 +7642,10 @@
         <v>209</v>
       </c>
       <c r="F197" t="n">
-        <v>102.0317</v>
+        <v>156</v>
       </c>
       <c r="G197" t="n">
-        <v>209</v>
+        <v>204.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7665,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C198" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D198" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E198" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F198" t="n">
-        <v>221.0018</v>
+        <v>102.0317</v>
       </c>
       <c r="G198" t="n">
-        <v>208.6</v>
+        <v>204.4666666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,22 +7700,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C199" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D199" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E199" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F199" t="n">
-        <v>1534.1706</v>
+        <v>221.0018</v>
       </c>
       <c r="G199" t="n">
-        <v>208</v>
+        <v>204.5166666666667</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7375,10 +7747,10 @@
         <v>206</v>
       </c>
       <c r="F200" t="n">
-        <v>1149.9999</v>
+        <v>1534.1706</v>
       </c>
       <c r="G200" t="n">
-        <v>207.4</v>
+        <v>204.5666666666667</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7410,10 +7782,10 @@
         <v>206</v>
       </c>
       <c r="F201" t="n">
-        <v>407.7805</v>
+        <v>1149.9999</v>
       </c>
       <c r="G201" t="n">
-        <v>206.8</v>
+        <v>204.5833333333333</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,22 +7805,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C202" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D202" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E202" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F202" t="n">
-        <v>6420.3043</v>
+        <v>407.7805</v>
       </c>
       <c r="G202" t="n">
-        <v>206.4</v>
+        <v>204.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7468,22 +7840,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C203" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D203" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E203" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F203" t="n">
-        <v>5660.75</v>
+        <v>6420.3043</v>
       </c>
       <c r="G203" t="n">
-        <v>206.2</v>
+        <v>204.65</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7503,22 +7875,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C204" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D204" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E204" t="n">
         <v>206</v>
       </c>
       <c r="F204" t="n">
-        <v>1441.019</v>
+        <v>5660.75</v>
       </c>
       <c r="G204" t="n">
-        <v>206.4</v>
+        <v>204.6833333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7538,22 +7910,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C205" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D205" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E205" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F205" t="n">
-        <v>7375.0673</v>
+        <v>1441.019</v>
       </c>
       <c r="G205" t="n">
-        <v>206.8</v>
+        <v>204.7333333333333</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7576,19 +7948,19 @@
         <v>208</v>
       </c>
       <c r="C206" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D206" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E206" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F206" t="n">
-        <v>4764.2353</v>
+        <v>7375.0673</v>
       </c>
       <c r="G206" t="n">
-        <v>207.4</v>
+        <v>204.8166666666667</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7608,22 +7980,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C207" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D207" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E207" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F207" t="n">
-        <v>187.9104</v>
+        <v>4764.2353</v>
       </c>
       <c r="G207" t="n">
-        <v>207.4</v>
+        <v>204.95</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7643,22 +8015,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C208" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D208" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E208" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F208" t="n">
-        <v>10350</v>
+        <v>187.9104</v>
       </c>
       <c r="G208" t="n">
-        <v>207</v>
+        <v>205.0666666666667</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7678,22 +8050,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C209" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D209" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E209" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F209" t="n">
-        <v>6.1504</v>
+        <v>10350</v>
       </c>
       <c r="G209" t="n">
-        <v>206.8</v>
+        <v>205.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7725,10 +8097,10 @@
         <v>206</v>
       </c>
       <c r="F210" t="n">
-        <v>913.9999</v>
+        <v>6.1504</v>
       </c>
       <c r="G210" t="n">
-        <v>206.4</v>
+        <v>205.1666666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7760,10 +8132,10 @@
         <v>206</v>
       </c>
       <c r="F211" t="n">
-        <v>1428.1455</v>
+        <v>913.9999</v>
       </c>
       <c r="G211" t="n">
-        <v>205.8</v>
+        <v>205.2333333333333</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7795,10 +8167,10 @@
         <v>206</v>
       </c>
       <c r="F212" t="n">
-        <v>611.2598</v>
+        <v>1428.1455</v>
       </c>
       <c r="G212" t="n">
-        <v>205.6</v>
+        <v>205.3333333333333</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7830,10 +8202,10 @@
         <v>206</v>
       </c>
       <c r="F213" t="n">
-        <v>1069.6965</v>
+        <v>611.2598</v>
       </c>
       <c r="G213" t="n">
-        <v>206</v>
+        <v>205.4333333333333</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7853,22 +8225,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C214" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D214" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E214" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F214" t="n">
-        <v>8.079700000000001</v>
+        <v>1069.6965</v>
       </c>
       <c r="G214" t="n">
-        <v>205.8</v>
+        <v>205.5333333333333</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7888,22 +8260,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C215" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D215" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E215" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F215" t="n">
-        <v>285.9483</v>
+        <v>8.079700000000001</v>
       </c>
       <c r="G215" t="n">
-        <v>205.8</v>
+        <v>205.6333333333333</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7923,22 +8295,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C216" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D216" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E216" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F216" t="n">
-        <v>8064.8626</v>
+        <v>285.9483</v>
       </c>
       <c r="G216" t="n">
-        <v>205.6</v>
+        <v>205.7333333333333</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7958,22 +8330,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C217" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D217" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E217" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F217" t="n">
-        <v>12798.3088</v>
+        <v>8064.8626</v>
       </c>
       <c r="G217" t="n">
-        <v>205.2</v>
+        <v>205.8166666666667</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8005,10 +8377,10 @@
         <v>204</v>
       </c>
       <c r="F218" t="n">
-        <v>4521.368</v>
+        <v>12798.3088</v>
       </c>
       <c r="G218" t="n">
-        <v>204.8</v>
+        <v>205.8666666666667</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8040,10 +8412,10 @@
         <v>204</v>
       </c>
       <c r="F219" t="n">
-        <v>2100</v>
+        <v>4521.368</v>
       </c>
       <c r="G219" t="n">
-        <v>204.6</v>
+        <v>205.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8075,10 +8447,10 @@
         <v>204</v>
       </c>
       <c r="F220" t="n">
-        <v>0.382</v>
+        <v>2100</v>
       </c>
       <c r="G220" t="n">
-        <v>204.2</v>
+        <v>205.95</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8098,22 +8470,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C221" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D221" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E221" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F221" t="n">
-        <v>874.7807</v>
+        <v>0.382</v>
       </c>
       <c r="G221" t="n">
-        <v>203.8</v>
+        <v>205.9833333333333</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8145,10 +8517,10 @@
         <v>203</v>
       </c>
       <c r="F222" t="n">
-        <v>5000</v>
+        <v>874.7807</v>
       </c>
       <c r="G222" t="n">
-        <v>203.6</v>
+        <v>206</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8168,31 +8540,35 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C223" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D223" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E223" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F223" t="n">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="G223" t="n">
-        <v>203.8</v>
+        <v>206</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>203</v>
+      </c>
+      <c r="K223" t="n">
+        <v>203</v>
+      </c>
       <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
@@ -8203,22 +8579,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C224" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D224" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E224" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F224" t="n">
-        <v>267</v>
+        <v>1</v>
       </c>
       <c r="G224" t="n">
-        <v>203.8</v>
+        <v>206.0333333333333</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8227,8 +8603,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>203</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8238,22 +8620,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C225" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D225" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E225" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F225" t="n">
-        <v>219.9403</v>
+        <v>267</v>
       </c>
       <c r="G225" t="n">
-        <v>203.4</v>
+        <v>206.0333333333333</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8262,8 +8644,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>203</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8285,10 +8673,10 @@
         <v>202</v>
       </c>
       <c r="F226" t="n">
-        <v>732.4722</v>
+        <v>219.9403</v>
       </c>
       <c r="G226" t="n">
-        <v>203.2</v>
+        <v>206</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8320,10 +8708,10 @@
         <v>202</v>
       </c>
       <c r="F227" t="n">
-        <v>1566.0377</v>
+        <v>732.4722</v>
       </c>
       <c r="G227" t="n">
-        <v>203</v>
+        <v>205.9666666666667</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8343,22 +8731,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C228" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D228" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E228" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F228" t="n">
-        <v>1573.3746</v>
+        <v>1566.0377</v>
       </c>
       <c r="G228" t="n">
-        <v>202.2</v>
+        <v>205.9333333333333</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8378,7 +8766,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C229" t="n">
         <v>201</v>
@@ -8387,13 +8775,13 @@
         <v>201</v>
       </c>
       <c r="E229" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F229" t="n">
-        <v>10540.4191</v>
+        <v>1573.3746</v>
       </c>
       <c r="G229" t="n">
-        <v>201.6</v>
+        <v>205.8833333333333</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8416,19 +8804,19 @@
         <v>200</v>
       </c>
       <c r="C230" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D230" t="n">
+        <v>201</v>
+      </c>
+      <c r="E230" t="n">
         <v>200</v>
       </c>
-      <c r="E230" t="n">
-        <v>199</v>
-      </c>
       <c r="F230" t="n">
-        <v>62738.3047</v>
+        <v>10540.4191</v>
       </c>
       <c r="G230" t="n">
-        <v>201</v>
+        <v>205.8333333333333</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8448,38 +8836,32 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C231" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D231" t="n">
         <v>200</v>
       </c>
       <c r="E231" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F231" t="n">
-        <v>198.1902</v>
+        <v>62738.3047</v>
       </c>
       <c r="G231" t="n">
-        <v>200.6</v>
+        <v>205.75</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>199</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8489,7 +8871,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C232" t="n">
         <v>200</v>
@@ -8498,29 +8880,23 @@
         <v>200</v>
       </c>
       <c r="E232" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F232" t="n">
-        <v>15</v>
+        <v>198.1902</v>
       </c>
       <c r="G232" t="n">
-        <v>200.2</v>
+        <v>205.6833333333333</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>200</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8545,7 +8921,7 @@
         <v>15</v>
       </c>
       <c r="G233" t="n">
-        <v>200</v>
+        <v>205.6166666666667</v>
       </c>
       <c r="H233" t="n">
         <v>1</v>
@@ -8556,12 +8932,10 @@
       <c r="J233" t="n">
         <v>200</v>
       </c>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="n">
+        <v>200</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8583,10 +8957,10 @@
         <v>200</v>
       </c>
       <c r="F234" t="n">
-        <v>101.9403</v>
+        <v>15</v>
       </c>
       <c r="G234" t="n">
-        <v>199.8</v>
+        <v>205.55</v>
       </c>
       <c r="H234" t="n">
         <v>1</v>
@@ -8597,13 +8971,58 @@
       <c r="J234" t="n">
         <v>200</v>
       </c>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>200</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>200</v>
+      </c>
+      <c r="C235" t="n">
+        <v>200</v>
+      </c>
+      <c r="D235" t="n">
+        <v>200</v>
+      </c>
+      <c r="E235" t="n">
+        <v>200</v>
+      </c>
+      <c r="F235" t="n">
+        <v>101.9403</v>
+      </c>
+      <c r="G235" t="n">
+        <v>205.4666666666667</v>
+      </c>
+      <c r="H235" t="n">
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>200</v>
+      </c>
+      <c r="K235" t="n">
+        <v>200</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest KNC.xlsx
+++ b/BackTest/2019-10-26 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N232"/>
+  <dimension ref="A1:N303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C2" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E2" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F2" t="n">
-        <v>206</v>
+        <v>2065372.172</v>
       </c>
       <c r="G2" t="n">
-        <v>204.2</v>
+        <v>-1039072.226603483</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C3" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D3" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E3" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F3" t="n">
-        <v>288.807</v>
+        <v>2104904.466</v>
       </c>
       <c r="G3" t="n">
-        <v>204.4</v>
+        <v>-1039072.226603483</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C4" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D4" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E4" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F4" t="n">
-        <v>407.5165</v>
+        <v>604175.2931</v>
       </c>
       <c r="G4" t="n">
-        <v>204.6</v>
+        <v>-1039072.226603483</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F5" t="n">
-        <v>190.4367</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>204.2</v>
+        <v>-1039071.226603483</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C6" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D6" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E6" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F6" t="n">
-        <v>1619.4683</v>
+        <v>221.0009</v>
       </c>
       <c r="G6" t="n">
-        <v>203.8</v>
+        <v>-1039292.227503483</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C7" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D7" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E7" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F7" t="n">
-        <v>269.622</v>
+        <v>198.3447</v>
       </c>
       <c r="G7" t="n">
-        <v>203.6</v>
+        <v>-1039292.227503483</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C8" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D8" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E8" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F8" t="n">
-        <v>1808.4606</v>
+        <v>209.8729</v>
       </c>
       <c r="G8" t="n">
-        <v>203.6</v>
+        <v>-1039292.227503483</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C9" t="n">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D9" t="n">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E9" t="n">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F9" t="n">
-        <v>2495.305825242719</v>
+        <v>1379.4195</v>
       </c>
       <c r="G9" t="n">
-        <v>204</v>
+        <v>-1039292.227503483</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C10" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D10" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E10" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F10" t="n">
-        <v>251</v>
+        <v>423.1267</v>
       </c>
       <c r="G10" t="n">
-        <v>204.4</v>
+        <v>-1039292.227503483</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C11" t="n">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D11" t="n">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E11" t="n">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F11" t="n">
-        <v>47.88</v>
+        <v>221.3247</v>
       </c>
       <c r="G11" t="n">
-        <v>204.2</v>
+        <v>-1039070.902803483</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C12" t="n">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D12" t="n">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E12" t="n">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F12" t="n">
-        <v>1200</v>
+        <v>160.822</v>
       </c>
       <c r="G12" t="n">
-        <v>204.2</v>
+        <v>-1039070.902803483</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -846,10 +846,10 @@
         <v>202</v>
       </c>
       <c r="F13" t="n">
-        <v>9002.2266</v>
+        <v>1781</v>
       </c>
       <c r="G13" t="n">
-        <v>203.8</v>
+        <v>-1037289.902803483</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C14" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D14" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E14" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>3416</v>
       </c>
       <c r="G14" t="n">
-        <v>203.4</v>
+        <v>-1037289.902803483</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C15" t="n">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D15" t="n">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E15" t="n">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>4965.9857</v>
       </c>
       <c r="G15" t="n">
-        <v>203.6</v>
+        <v>-1037289.902803483</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C16" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D16" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E16" t="n">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>1680.8749</v>
       </c>
       <c r="G16" t="n">
-        <v>204.6</v>
+        <v>-1035609.027903483</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>205</v>
       </c>
       <c r="C17" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D17" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E17" t="n">
         <v>205</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>4345.5337</v>
       </c>
       <c r="G17" t="n">
-        <v>205</v>
+        <v>-1031263.494203483</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C18" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D18" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E18" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F18" t="n">
-        <v>2734</v>
+        <v>7169.9074</v>
       </c>
       <c r="G18" t="n">
-        <v>205.8</v>
+        <v>-1024093.586803483</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C19" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D19" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E19" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F19" t="n">
-        <v>259</v>
+        <v>500</v>
       </c>
       <c r="G19" t="n">
-        <v>206</v>
+        <v>-1023593.586803483</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C20" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D20" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E20" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F20" t="n">
-        <v>5275.699</v>
+        <v>1340</v>
       </c>
       <c r="G20" t="n">
-        <v>206</v>
+        <v>-1022253.586803483</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C21" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D21" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E21" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F21" t="n">
-        <v>4873.0116</v>
+        <v>732.7003</v>
       </c>
       <c r="G21" t="n">
-        <v>205.4</v>
+        <v>-1022986.287103483</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C22" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D22" t="n">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E22" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F22" t="n">
-        <v>75.497</v>
+        <v>895.4079</v>
       </c>
       <c r="G22" t="n">
-        <v>205</v>
+        <v>-1023881.695003483</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C23" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D23" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E23" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>331.5117</v>
       </c>
       <c r="G23" t="n">
-        <v>205</v>
+        <v>-1023550.183303483</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C24" t="n">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D24" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E24" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F24" t="n">
-        <v>4092.4847</v>
+        <v>7456.5665</v>
       </c>
       <c r="G24" t="n">
-        <v>204.8</v>
+        <v>-1016093.616803483</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C25" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D25" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E25" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F25" t="n">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="G25" t="n">
-        <v>204.8</v>
+        <v>-1016283.616803483</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C26" t="n">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D26" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E26" t="n">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F26" t="n">
-        <v>1102.0885</v>
+        <v>125.1412</v>
       </c>
       <c r="G26" t="n">
-        <v>204.4</v>
+        <v>-1016408.758003483</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C27" t="n">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D27" t="n">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E27" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>5060.9472</v>
       </c>
       <c r="G27" t="n">
-        <v>205</v>
+        <v>-1011347.810803483</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C28" t="n">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D28" t="n">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="E28" t="n">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F28" t="n">
-        <v>1629.0117</v>
+        <v>283.2225</v>
       </c>
       <c r="G28" t="n">
-        <v>204.4</v>
+        <v>-1011631.033303483</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C29" t="n">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D29" t="n">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E29" t="n">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>537.4148</v>
       </c>
       <c r="G29" t="n">
-        <v>204.8</v>
+        <v>-1011631.033303483</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C30" t="n">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D30" t="n">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E30" t="n">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F30" t="n">
-        <v>338</v>
+        <v>3559.3318</v>
       </c>
       <c r="G30" t="n">
-        <v>204.4</v>
+        <v>-1011631.033303483</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C31" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D31" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E31" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F31" t="n">
-        <v>228.2346</v>
+        <v>4000</v>
       </c>
       <c r="G31" t="n">
-        <v>204.6</v>
+        <v>-1015631.033303483</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C32" t="n">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D32" t="n">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E32" t="n">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F32" t="n">
-        <v>326.8349</v>
+        <v>255.2376</v>
       </c>
       <c r="G32" t="n">
-        <v>204.2</v>
+        <v>-1015886.270903483</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C33" t="n">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D33" t="n">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E33" t="n">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="F33" t="n">
-        <v>14.7058</v>
+        <v>376</v>
       </c>
       <c r="G33" t="n">
-        <v>204.4</v>
+        <v>-1015886.270903483</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C34" t="n">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D34" t="n">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E34" t="n">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F34" t="n">
-        <v>1939.1938</v>
+        <v>4245.2539</v>
       </c>
       <c r="G34" t="n">
-        <v>203.8</v>
+        <v>-1020131.524803483</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C35" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D35" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E35" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>445.8696</v>
       </c>
       <c r="G35" t="n">
-        <v>203.8</v>
+        <v>-1020131.524803483</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C36" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D36" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E36" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F36" t="n">
-        <v>376</v>
+        <v>1157.0779</v>
       </c>
       <c r="G36" t="n">
-        <v>203.8</v>
+        <v>-1020131.524803483</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C37" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D37" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E37" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F37" t="n">
-        <v>181</v>
+        <v>6823.0223</v>
       </c>
       <c r="G37" t="n">
-        <v>203.8</v>
+        <v>-1026954.547103483</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C38" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D38" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E38" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F38" t="n">
-        <v>1423.2942</v>
+        <v>106.4797</v>
       </c>
       <c r="G38" t="n">
-        <v>203.8</v>
+        <v>-1026848.067403483</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C39" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D39" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E39" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F39" t="n">
-        <v>1.5073</v>
+        <v>1139.6525</v>
       </c>
       <c r="G39" t="n">
-        <v>204.2</v>
+        <v>-1025708.414903483</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C40" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D40" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E40" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F40" t="n">
-        <v>2000</v>
+        <v>13.9594</v>
       </c>
       <c r="G40" t="n">
-        <v>204.4</v>
+        <v>-1025708.414903483</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C41" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D41" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E41" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F41" t="n">
-        <v>48</v>
+        <v>184.3833</v>
       </c>
       <c r="G41" t="n">
-        <v>204.6</v>
+        <v>-1025892.798203483</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C42" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D42" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E42" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F42" t="n">
-        <v>2216.1217</v>
+        <v>1857.4016</v>
       </c>
       <c r="G42" t="n">
-        <v>205</v>
+        <v>-1024035.396603483</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C43" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D43" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E43" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F43" t="n">
-        <v>2399</v>
+        <v>196</v>
       </c>
       <c r="G43" t="n">
-        <v>205.8</v>
+        <v>-1023839.396603483</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C44" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D44" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E44" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F44" t="n">
-        <v>1804.6985</v>
+        <v>518</v>
       </c>
       <c r="G44" t="n">
-        <v>206.4</v>
+        <v>-1023839.396603483</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C45" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D45" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E45" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F45" t="n">
-        <v>204.9731</v>
+        <v>218.836</v>
       </c>
       <c r="G45" t="n">
-        <v>207</v>
+        <v>-1024058.232603483</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C46" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D46" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E46" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F46" t="n">
-        <v>2531</v>
+        <v>146.7279</v>
       </c>
       <c r="G46" t="n">
-        <v>207.6</v>
+        <v>-1024204.960503483</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C47" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D47" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E47" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F47" t="n">
-        <v>426.8125</v>
+        <v>3090.6603</v>
       </c>
       <c r="G47" t="n">
-        <v>208</v>
+        <v>-1024204.960503483</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C48" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D48" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E48" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F48" t="n">
-        <v>1247.8365</v>
+        <v>299</v>
       </c>
       <c r="G48" t="n">
-        <v>208</v>
+        <v>-1024503.960503483</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C49" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D49" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E49" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F49" t="n">
-        <v>3466.1268</v>
+        <v>1512.9335</v>
       </c>
       <c r="G49" t="n">
-        <v>208.4</v>
+        <v>-1024503.960503483</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C50" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D50" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E50" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F50" t="n">
-        <v>132.6548</v>
+        <v>122.0258</v>
       </c>
       <c r="G50" t="n">
-        <v>208.8</v>
+        <v>-1024381.934703483</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C51" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D51" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E51" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F51" t="n">
-        <v>3501.5591</v>
+        <v>877.7432</v>
       </c>
       <c r="G51" t="n">
-        <v>209.2</v>
+        <v>-1024381.934703483</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C52" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D52" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E52" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F52" t="n">
-        <v>250</v>
+        <v>890</v>
       </c>
       <c r="G52" t="n">
-        <v>209</v>
+        <v>-1024381.934703483</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C53" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D53" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E53" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>1805.9666</v>
       </c>
       <c r="G53" t="n">
-        <v>209.4</v>
+        <v>-1024381.934703483</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C54" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D54" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E54" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F54" t="n">
-        <v>237.984</v>
+        <v>523</v>
       </c>
       <c r="G54" t="n">
-        <v>209.4</v>
+        <v>-1024904.934703483</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C55" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D55" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E55" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F55" t="n">
-        <v>3143.2077</v>
+        <v>949.1399</v>
       </c>
       <c r="G55" t="n">
-        <v>209.2</v>
+        <v>-1023955.794803483</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C56" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D56" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E56" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F56" t="n">
-        <v>172.1435</v>
+        <v>1439</v>
       </c>
       <c r="G56" t="n">
-        <v>208.8</v>
+        <v>-1025394.794803483</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C57" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D57" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E57" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F57" t="n">
-        <v>736.4139</v>
+        <v>764</v>
       </c>
       <c r="G57" t="n">
-        <v>208.8</v>
+        <v>-1025394.794803483</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C58" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D58" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E58" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F58" t="n">
-        <v>219.6282</v>
+        <v>280.9999</v>
       </c>
       <c r="G58" t="n">
-        <v>208.2</v>
+        <v>-1025394.794803483</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C59" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D59" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E59" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F59" t="n">
-        <v>6</v>
+        <v>2933</v>
       </c>
       <c r="G59" t="n">
-        <v>207.4</v>
+        <v>-1025394.794803483</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>205</v>
       </c>
       <c r="C60" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D60" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E60" t="n">
         <v>205</v>
       </c>
       <c r="F60" t="n">
-        <v>692.116</v>
+        <v>185.364</v>
       </c>
       <c r="G60" t="n">
-        <v>207</v>
+        <v>-1025394.794803483</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>207</v>
       </c>
       <c r="F61" t="n">
-        <v>1333.0753</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>206.8</v>
+        <v>-1025393.794803483</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,7 +2598,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C62" t="n">
         <v>207</v>
@@ -2607,13 +2607,13 @@
         <v>207</v>
       </c>
       <c r="E62" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F62" t="n">
-        <v>221.2781</v>
+        <v>173.1867</v>
       </c>
       <c r="G62" t="n">
-        <v>206.8</v>
+        <v>-1025393.794803483</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2637,19 +2637,19 @@
         <v>207</v>
       </c>
       <c r="C63" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D63" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E63" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F63" t="n">
-        <v>555</v>
+        <v>9252</v>
       </c>
       <c r="G63" t="n">
-        <v>206.8</v>
+        <v>-1034645.794803483</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2682,10 +2682,10 @@
         <v>207</v>
       </c>
       <c r="F64" t="n">
-        <v>1622.5831</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>207</v>
+        <v>-1034644.794803483</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2709,19 +2709,19 @@
         <v>207</v>
       </c>
       <c r="C65" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D65" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E65" t="n">
         <v>207</v>
       </c>
       <c r="F65" t="n">
-        <v>528.6146</v>
+        <v>373.634</v>
       </c>
       <c r="G65" t="n">
-        <v>207.6</v>
+        <v>-1034644.794803483</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2754,10 +2754,10 @@
         <v>207</v>
       </c>
       <c r="F66" t="n">
-        <v>137.4848</v>
+        <v>301</v>
       </c>
       <c r="G66" t="n">
-        <v>207.6</v>
+        <v>-1034644.794803483</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C67" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D67" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E67" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F67" t="n">
-        <v>117.5246</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>207.6</v>
+        <v>-1034643.794803483</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C68" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D68" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E68" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F68" t="n">
-        <v>6</v>
+        <v>383.4182</v>
       </c>
       <c r="G68" t="n">
-        <v>207.6</v>
+        <v>-1035027.213003483</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C69" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D69" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E69" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F69" t="n">
-        <v>3586.1467</v>
+        <v>150.8557</v>
       </c>
       <c r="G69" t="n">
-        <v>207.6</v>
+        <v>-1035027.213003483</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C70" t="n">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D70" t="n">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E70" t="n">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>15086.195</v>
       </c>
       <c r="G70" t="n">
-        <v>207.4</v>
+        <v>-1035027.213003483</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C71" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D71" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E71" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F71" t="n">
-        <v>1823.3837</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>207.8</v>
+        <v>-1035026.213003483</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C72" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D72" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E72" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F72" t="n">
-        <v>5084.701</v>
+        <v>3502.1001</v>
       </c>
       <c r="G72" t="n">
-        <v>208.8</v>
+        <v>-1031524.112903483</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C73" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D73" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E73" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F73" t="n">
-        <v>1638.9999</v>
+        <v>206</v>
       </c>
       <c r="G73" t="n">
-        <v>209.4</v>
+        <v>-1031730.112903483</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C74" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D74" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E74" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F74" t="n">
-        <v>4126.0602</v>
+        <v>288.807</v>
       </c>
       <c r="G74" t="n">
-        <v>210</v>
+        <v>-1031730.112903483</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C75" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D75" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E75" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F75" t="n">
-        <v>7398.2746</v>
+        <v>407.5165</v>
       </c>
       <c r="G75" t="n">
-        <v>210.2</v>
+        <v>-1031730.112903483</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C76" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D76" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E76" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F76" t="n">
-        <v>100</v>
+        <v>190.4367</v>
       </c>
       <c r="G76" t="n">
-        <v>210.4</v>
+        <v>-1031920.549603483</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C77" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D77" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E77" t="n">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>1619.4683</v>
       </c>
       <c r="G77" t="n">
-        <v>210.4</v>
+        <v>-1030301.081303483</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C78" t="n">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D78" t="n">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E78" t="n">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F78" t="n">
-        <v>3536.5587</v>
+        <v>269.622</v>
       </c>
       <c r="G78" t="n">
-        <v>210.8</v>
+        <v>-1030570.703303483</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C79" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D79" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E79" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F79" t="n">
-        <v>1823</v>
+        <v>1808.4606</v>
       </c>
       <c r="G79" t="n">
-        <v>211.2</v>
+        <v>-1028762.242703483</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C80" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D80" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E80" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F80" t="n">
-        <v>820.0183</v>
+        <v>2495.305825242719</v>
       </c>
       <c r="G80" t="n">
-        <v>211.6</v>
+        <v>-1026266.93687824</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C81" t="n">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D81" t="n">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E81" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F81" t="n">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="G81" t="n">
-        <v>212</v>
+        <v>-1026517.93687824</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C82" t="n">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D82" t="n">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E82" t="n">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F82" t="n">
-        <v>368.2131</v>
+        <v>47.88</v>
       </c>
       <c r="G82" t="n">
-        <v>212</v>
+        <v>-1026565.81687824</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C83" t="n">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D83" t="n">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E83" t="n">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F83" t="n">
-        <v>1305</v>
+        <v>1200</v>
       </c>
       <c r="G83" t="n">
-        <v>212</v>
+        <v>-1026565.81687824</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C84" t="n">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D84" t="n">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E84" t="n">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F84" t="n">
-        <v>4739.9057</v>
+        <v>9002.2266</v>
       </c>
       <c r="G84" t="n">
-        <v>212.2</v>
+        <v>-1035568.04347824</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C85" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D85" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E85" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F85" t="n">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>212.2</v>
+        <v>-1035567.04347824</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C86" t="n">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D86" t="n">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E86" t="n">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F86" t="n">
-        <v>3210.1554</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>212.8</v>
+        <v>-1035566.04347824</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,28 +3498,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C87" t="n">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D87" t="n">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E87" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F87" t="n">
-        <v>3897.5424</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>213.4</v>
+        <v>-1035565.04347824</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3534,28 +3534,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C88" t="n">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D88" t="n">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E88" t="n">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F88" t="n">
-        <v>2.088</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>213.8</v>
+        <v>-1035566.04347824</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3570,28 +3570,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C89" t="n">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D89" t="n">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E89" t="n">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>2734</v>
       </c>
       <c r="G89" t="n">
-        <v>214.2</v>
+        <v>-1032832.04347824</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3606,28 +3606,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C90" t="n">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D90" t="n">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E90" t="n">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F90" t="n">
-        <v>15.528</v>
+        <v>259</v>
       </c>
       <c r="G90" t="n">
-        <v>215</v>
+        <v>-1033091.04347824</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3642,28 +3642,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C91" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D91" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E91" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F91" t="n">
-        <v>810.377</v>
+        <v>5275.699</v>
       </c>
       <c r="G91" t="n">
-        <v>214</v>
+        <v>-1027815.34447824</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3678,28 +3678,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C92" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D92" t="n">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E92" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F92" t="n">
-        <v>227.4895</v>
+        <v>4873.0116</v>
       </c>
       <c r="G92" t="n">
-        <v>213</v>
+        <v>-1032688.35607824</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3714,28 +3714,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C93" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D93" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E93" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F93" t="n">
-        <v>250</v>
+        <v>75.497</v>
       </c>
       <c r="G93" t="n">
-        <v>211.4</v>
+        <v>-1032763.85307824</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3750,28 +3750,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C94" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D94" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E94" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F94" t="n">
-        <v>31.417</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>210.4</v>
+        <v>-1032762.85307824</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3786,28 +3786,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C95" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D95" t="n">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E95" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F95" t="n">
-        <v>9672.132154629629</v>
+        <v>4092.4847</v>
       </c>
       <c r="G95" t="n">
-        <v>208.8</v>
+        <v>-1036855.33777824</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C96" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D96" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E96" t="n">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F96" t="n">
-        <v>3715.1181</v>
+        <v>123</v>
       </c>
       <c r="G96" t="n">
-        <v>208.8</v>
+        <v>-1036732.33777824</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,28 +3858,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C97" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D97" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E97" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F97" t="n">
-        <v>3010.0852</v>
+        <v>1102.0885</v>
       </c>
       <c r="G97" t="n">
-        <v>208.2</v>
+        <v>-1037834.42627824</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C98" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D98" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E98" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F98" t="n">
-        <v>1700</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>208.6</v>
+        <v>-1037833.42627824</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C99" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D99" t="n">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E99" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F99" t="n">
-        <v>2572</v>
+        <v>1629.0117</v>
       </c>
       <c r="G99" t="n">
-        <v>207.8</v>
+        <v>-1039462.43797824</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C100" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D100" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E100" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F100" t="n">
-        <v>60.7064</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>208</v>
+        <v>-1039461.43797824</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C101" t="n">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D101" t="n">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E101" t="n">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F101" t="n">
-        <v>364.2707</v>
+        <v>338</v>
       </c>
       <c r="G101" t="n">
-        <v>207.8</v>
+        <v>-1039799.43797824</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C102" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D102" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E102" t="n">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F102" t="n">
-        <v>598.9638</v>
+        <v>228.2346</v>
       </c>
       <c r="G102" t="n">
-        <v>208.4</v>
+        <v>-1039799.43797824</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C103" t="n">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D103" t="n">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E103" t="n">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F103" t="n">
-        <v>254.7878</v>
+        <v>326.8349</v>
       </c>
       <c r="G103" t="n">
-        <v>209</v>
+        <v>-1039799.43797824</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C104" t="n">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D104" t="n">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E104" t="n">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F104" t="n">
-        <v>114.4958</v>
+        <v>14.7058</v>
       </c>
       <c r="G104" t="n">
-        <v>209.6</v>
+        <v>-1039799.43797824</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4146,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C105" t="n">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D105" t="n">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E105" t="n">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F105" t="n">
-        <v>20.2961</v>
+        <v>1939.1938</v>
       </c>
       <c r="G105" t="n">
-        <v>209.6</v>
+        <v>-1041738.63177824</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C106" t="n">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D106" t="n">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E106" t="n">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F106" t="n">
-        <v>1.5884</v>
+        <v>100</v>
       </c>
       <c r="G106" t="n">
-        <v>209.6</v>
+        <v>-1041638.63177824</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C107" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D107" t="n">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E107" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F107" t="n">
-        <v>251.6986</v>
+        <v>376</v>
       </c>
       <c r="G107" t="n">
-        <v>208.8</v>
+        <v>-1041638.63177824</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4254,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C108" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D108" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E108" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F108" t="n">
-        <v>13600.6316</v>
+        <v>181</v>
       </c>
       <c r="G108" t="n">
-        <v>207.6</v>
+        <v>-1041638.63177824</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4290,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C109" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D109" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E109" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F109" t="n">
-        <v>93</v>
+        <v>1423.2942</v>
       </c>
       <c r="G109" t="n">
-        <v>207.4</v>
+        <v>-1041638.63177824</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4326,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C110" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D110" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E110" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F110" t="n">
-        <v>1.7007</v>
+        <v>1.5073</v>
       </c>
       <c r="G110" t="n">
-        <v>207</v>
+        <v>-1041637.12447824</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4362,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C111" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D111" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E111" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F111" t="n">
-        <v>1.3853</v>
+        <v>2000</v>
       </c>
       <c r="G111" t="n">
-        <v>206.4</v>
+        <v>-1041637.12447824</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4398,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C112" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D112" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E112" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F112" t="n">
-        <v>1.4582</v>
+        <v>48</v>
       </c>
       <c r="G112" t="n">
-        <v>206.6</v>
+        <v>-1041637.12447824</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4434,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C113" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D113" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E113" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F113" t="n">
-        <v>1.7902</v>
+        <v>2216.1217</v>
       </c>
       <c r="G113" t="n">
-        <v>207.2</v>
+        <v>-1039421.00277824</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4470,22 +4470,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C114" t="n">
         <v>208</v>
       </c>
       <c r="D114" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E114" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F114" t="n">
-        <v>2552.1952</v>
+        <v>2399</v>
       </c>
       <c r="G114" t="n">
-        <v>207.2</v>
+        <v>-1037022.00277824</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4506,28 +4506,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C115" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D115" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E115" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F115" t="n">
-        <v>2.5215</v>
+        <v>1804.6985</v>
       </c>
       <c r="G115" t="n">
-        <v>207.6</v>
+        <v>-1037022.00277824</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4542,28 +4542,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C116" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D116" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E116" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F116" t="n">
-        <v>365.7443</v>
+        <v>204.9731</v>
       </c>
       <c r="G116" t="n">
-        <v>208.2</v>
+        <v>-1037022.00277824</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4578,28 +4578,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C117" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D117" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E117" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F117" t="n">
-        <v>0.8633</v>
+        <v>2531</v>
       </c>
       <c r="G117" t="n">
-        <v>208.6</v>
+        <v>-1037022.00277824</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4617,25 +4617,25 @@
         <v>208</v>
       </c>
       <c r="C118" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D118" t="n">
         <v>208</v>
       </c>
       <c r="E118" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F118" t="n">
-        <v>15137.3164</v>
+        <v>426.8125</v>
       </c>
       <c r="G118" t="n">
-        <v>208.4</v>
+        <v>-1037022.00277824</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4650,28 +4650,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C119" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D119" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E119" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F119" t="n">
-        <v>3.1886</v>
+        <v>1247.8365</v>
       </c>
       <c r="G119" t="n">
-        <v>208</v>
+        <v>-1037022.00277824</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4689,25 +4689,25 @@
         <v>209</v>
       </c>
       <c r="C120" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D120" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E120" t="n">
         <v>209</v>
       </c>
       <c r="F120" t="n">
-        <v>500</v>
+        <v>3466.1268</v>
       </c>
       <c r="G120" t="n">
-        <v>208</v>
+        <v>-1033555.87597824</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4722,28 +4722,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C121" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D121" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E121" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F121" t="n">
-        <v>820.4546</v>
+        <v>132.6548</v>
       </c>
       <c r="G121" t="n">
-        <v>207.6</v>
+        <v>-1033555.87597824</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4758,22 +4758,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C122" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D122" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E122" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F122" t="n">
-        <v>237.916</v>
+        <v>3501.5591</v>
       </c>
       <c r="G122" t="n">
-        <v>207</v>
+        <v>-1033555.87597824</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4794,22 +4794,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C123" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D123" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E123" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F123" t="n">
-        <v>478.4096</v>
+        <v>250</v>
       </c>
       <c r="G123" t="n">
-        <v>206.8</v>
+        <v>-1033805.87597824</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4830,22 +4830,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C124" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D124" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E124" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F124" t="n">
-        <v>7258</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>206.6</v>
+        <v>-1033804.87597824</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4866,22 +4866,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C125" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D125" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E125" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F125" t="n">
-        <v>788.3854</v>
+        <v>237.984</v>
       </c>
       <c r="G125" t="n">
-        <v>205.8</v>
+        <v>-1033804.87597824</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4902,22 +4902,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C126" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D126" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E126" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F126" t="n">
-        <v>689.196</v>
+        <v>3143.2077</v>
       </c>
       <c r="G126" t="n">
-        <v>205.2</v>
+        <v>-1036948.08367824</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4938,22 +4938,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C127" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D127" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E127" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F127" t="n">
-        <v>9736.126899999999</v>
+        <v>172.1435</v>
       </c>
       <c r="G127" t="n">
-        <v>204.6</v>
+        <v>-1037120.22717824</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4974,22 +4974,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C128" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D128" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E128" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F128" t="n">
-        <v>169</v>
+        <v>736.4139</v>
       </c>
       <c r="G128" t="n">
-        <v>204.4</v>
+        <v>-1037856.64107824</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5010,22 +5010,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C129" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D129" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E129" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F129" t="n">
-        <v>240.3035</v>
+        <v>219.6282</v>
       </c>
       <c r="G129" t="n">
-        <v>204.4</v>
+        <v>-1037856.64107824</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5046,22 +5046,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C130" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D130" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E130" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F130" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G130" t="n">
-        <v>204.2</v>
+        <v>-1037862.64107824</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5082,22 +5082,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C131" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D131" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E131" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F131" t="n">
-        <v>111.3146</v>
+        <v>692.116</v>
       </c>
       <c r="G131" t="n">
-        <v>204.2</v>
+        <v>-1037170.52507824</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5118,22 +5118,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C132" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D132" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E132" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F132" t="n">
-        <v>496.3783</v>
+        <v>1333.0753</v>
       </c>
       <c r="G132" t="n">
-        <v>204.4</v>
+        <v>-1037170.52507824</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5154,22 +5154,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C133" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D133" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E133" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F133" t="n">
-        <v>6479.3157</v>
+        <v>221.2781</v>
       </c>
       <c r="G133" t="n">
-        <v>204</v>
+        <v>-1037170.52507824</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5190,22 +5190,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C134" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D134" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E134" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F134" t="n">
-        <v>3200</v>
+        <v>555</v>
       </c>
       <c r="G134" t="n">
-        <v>203.2</v>
+        <v>-1037170.52507824</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5226,22 +5226,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C135" t="n">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D135" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E135" t="n">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F135" t="n">
-        <v>13508.7196</v>
+        <v>1622.5831</v>
       </c>
       <c r="G135" t="n">
-        <v>202.4</v>
+        <v>-1037170.52507824</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5262,22 +5262,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C136" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D136" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E136" t="n">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F136" t="n">
-        <v>26773.935</v>
+        <v>528.6146</v>
       </c>
       <c r="G136" t="n">
-        <v>202</v>
+        <v>-1036641.91047824</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C137" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D137" t="n">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E137" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F137" t="n">
-        <v>245.8306</v>
+        <v>137.4848</v>
       </c>
       <c r="G137" t="n">
-        <v>201.6</v>
+        <v>-1036779.39527824</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5334,22 +5334,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C138" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D138" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E138" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F138" t="n">
-        <v>10092.5661</v>
+        <v>117.5246</v>
       </c>
       <c r="G138" t="n">
-        <v>201.4</v>
+        <v>-1036779.39527824</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5370,22 +5370,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C139" t="n">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D139" t="n">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E139" t="n">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F139" t="n">
-        <v>227.664</v>
+        <v>6</v>
       </c>
       <c r="G139" t="n">
-        <v>201.2</v>
+        <v>-1036779.39527824</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5406,22 +5406,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C140" t="n">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D140" t="n">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E140" t="n">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F140" t="n">
-        <v>2000</v>
+        <v>3586.1467</v>
       </c>
       <c r="G140" t="n">
-        <v>201.2</v>
+        <v>-1036779.39527824</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5442,22 +5442,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C141" t="n">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D141" t="n">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E141" t="n">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="F141" t="n">
-        <v>1849.9999</v>
+        <v>1</v>
       </c>
       <c r="G141" t="n">
-        <v>200.8</v>
+        <v>-1036778.39527824</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5478,22 +5478,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C142" t="n">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="D142" t="n">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E142" t="n">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="F142" t="n">
-        <v>2351.6966</v>
+        <v>1823.3837</v>
       </c>
       <c r="G142" t="n">
-        <v>200.2</v>
+        <v>-1036778.39527824</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5514,22 +5514,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C143" t="n">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D143" t="n">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="E143" t="n">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="F143" t="n">
-        <v>478.4691</v>
+        <v>5084.701</v>
       </c>
       <c r="G143" t="n">
-        <v>199.8</v>
+        <v>-1031693.69427824</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5550,22 +5550,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C144" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D144" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E144" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F144" t="n">
-        <v>3920.3302</v>
+        <v>1638.9999</v>
       </c>
       <c r="G144" t="n">
-        <v>199.8</v>
+        <v>-1033332.69417824</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C145" t="n">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D145" t="n">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E145" t="n">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F145" t="n">
-        <v>99.25230000000001</v>
+        <v>4126.0602</v>
       </c>
       <c r="G145" t="n">
-        <v>200</v>
+        <v>-1033332.69417824</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5622,22 +5622,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C146" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D146" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E146" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F146" t="n">
-        <v>2199.6872</v>
+        <v>7398.2746</v>
       </c>
       <c r="G146" t="n">
-        <v>200.4</v>
+        <v>-1033332.69417824</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5658,22 +5658,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C147" t="n">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D147" t="n">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E147" t="n">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F147" t="n">
-        <v>229.3414</v>
+        <v>100</v>
       </c>
       <c r="G147" t="n">
-        <v>200.8</v>
+        <v>-1033332.69417824</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5694,22 +5694,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C148" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D148" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="E148" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F148" t="n">
-        <v>19.7227</v>
+        <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>201.2</v>
+        <v>-1033331.69417824</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5730,28 +5730,28 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C149" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D149" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="E149" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F149" t="n">
-        <v>2849.6485</v>
+        <v>3536.5587</v>
       </c>
       <c r="G149" t="n">
-        <v>201.6</v>
+        <v>-1033331.69417824</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
@@ -5766,28 +5766,28 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C150" t="n">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D150" t="n">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E150" t="n">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F150" t="n">
-        <v>3443.3496</v>
+        <v>1823</v>
       </c>
       <c r="G150" t="n">
-        <v>202</v>
+        <v>-1033331.69417824</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
@@ -5802,28 +5802,28 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C151" t="n">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D151" t="n">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E151" t="n">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F151" t="n">
-        <v>4741.1021</v>
+        <v>820.0183</v>
       </c>
       <c r="G151" t="n">
-        <v>202.2</v>
+        <v>-1033331.69417824</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -5838,28 +5838,28 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C152" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D152" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E152" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F152" t="n">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="G152" t="n">
-        <v>202.8</v>
+        <v>-1033331.69417824</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
@@ -5874,28 +5874,28 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C153" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D153" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E153" t="n">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F153" t="n">
-        <v>20.6733</v>
+        <v>368.2131</v>
       </c>
       <c r="G153" t="n">
-        <v>203.2</v>
+        <v>-1033331.69417824</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -5910,28 +5910,28 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C154" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D154" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E154" t="n">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F154" t="n">
-        <v>1168.9997</v>
+        <v>1305</v>
       </c>
       <c r="G154" t="n">
-        <v>203.6</v>
+        <v>-1033331.69417824</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -5946,28 +5946,28 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C155" t="n">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D155" t="n">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E155" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F155" t="n">
-        <v>2273.7158</v>
+        <v>4739.9057</v>
       </c>
       <c r="G155" t="n">
-        <v>203.8</v>
+        <v>-1028591.78847824</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
@@ -5982,28 +5982,28 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C156" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D156" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E156" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F156" t="n">
-        <v>791.6772999999999</v>
+        <v>999</v>
       </c>
       <c r="G156" t="n">
-        <v>204</v>
+        <v>-1029590.78847824</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -6018,28 +6018,28 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C157" t="n">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="D157" t="n">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E157" t="n">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="F157" t="n">
-        <v>149.2429</v>
+        <v>3210.1554</v>
       </c>
       <c r="G157" t="n">
-        <v>204</v>
+        <v>-1026380.63307824</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -6054,28 +6054,28 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C158" t="n">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="D158" t="n">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E158" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F158" t="n">
-        <v>22553.4908</v>
+        <v>3897.5424</v>
       </c>
       <c r="G158" t="n">
-        <v>204</v>
+        <v>-1026380.63307824</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -6090,28 +6090,28 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C159" t="n">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D159" t="n">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="E159" t="n">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F159" t="n">
-        <v>44929.9484</v>
+        <v>2.088</v>
       </c>
       <c r="G159" t="n">
-        <v>204</v>
+        <v>-1026382.72107824</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -6126,28 +6126,28 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C160" t="n">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="D160" t="n">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E160" t="n">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F160" t="n">
-        <v>175629.2444</v>
+        <v>2</v>
       </c>
       <c r="G160" t="n">
-        <v>204</v>
+        <v>-1026380.72107824</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -6162,28 +6162,28 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C161" t="n">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="D161" t="n">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="E161" t="n">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="F161" t="n">
-        <v>112776.2683</v>
+        <v>15.528</v>
       </c>
       <c r="G161" t="n">
-        <v>204</v>
+        <v>-1026365.19307824</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -6198,28 +6198,28 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C162" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D162" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E162" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F162" t="n">
-        <v>19603.7977</v>
+        <v>810.377</v>
       </c>
       <c r="G162" t="n">
-        <v>204.2</v>
+        <v>-1027175.57007824</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -6234,22 +6234,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C163" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D163" t="n">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E163" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F163" t="n">
-        <v>2228.5024</v>
+        <v>227.4895</v>
       </c>
       <c r="G163" t="n">
-        <v>204.8</v>
+        <v>-1027175.57007824</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6270,22 +6270,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C164" t="n">
         <v>206</v>
       </c>
       <c r="D164" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E164" t="n">
         <v>206</v>
       </c>
       <c r="F164" t="n">
-        <v>6988.262</v>
+        <v>250</v>
       </c>
       <c r="G164" t="n">
-        <v>205.2</v>
+        <v>-1027425.57007824</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6306,22 +6306,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C165" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D165" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E165" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F165" t="n">
-        <v>451.9999</v>
+        <v>31.417</v>
       </c>
       <c r="G165" t="n">
-        <v>205.6</v>
+        <v>-1027394.15307824</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6342,22 +6342,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C166" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D166" t="n">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E166" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F166" t="n">
-        <v>544</v>
+        <v>9672.132154629629</v>
       </c>
       <c r="G166" t="n">
-        <v>206.2</v>
+        <v>-1037066.28523287</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6378,22 +6378,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C167" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D167" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E167" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F167" t="n">
-        <v>54</v>
+        <v>3715.1181</v>
       </c>
       <c r="G167" t="n">
-        <v>206.6</v>
+        <v>-1033351.16713287</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6414,22 +6414,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C168" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D168" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E168" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F168" t="n">
-        <v>250</v>
+        <v>3010.0852</v>
       </c>
       <c r="G168" t="n">
-        <v>206.4</v>
+        <v>-1036361.25233287</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6450,22 +6450,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C169" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D169" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E169" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F169" t="n">
-        <v>547.8339999999999</v>
+        <v>1700</v>
       </c>
       <c r="G169" t="n">
-        <v>206.4</v>
+        <v>-1034661.25233287</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6486,22 +6486,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C170" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D170" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E170" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F170" t="n">
-        <v>1575.8761</v>
+        <v>2572</v>
       </c>
       <c r="G170" t="n">
-        <v>206.6</v>
+        <v>-1037233.25233287</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6522,22 +6522,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C171" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D171" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E171" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F171" t="n">
-        <v>1076.2666</v>
+        <v>60.7064</v>
       </c>
       <c r="G171" t="n">
-        <v>206.6</v>
+        <v>-1037172.54593287</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C172" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D172" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E172" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F172" t="n">
-        <v>0.0001</v>
+        <v>364.2707</v>
       </c>
       <c r="G172" t="n">
-        <v>206.6</v>
+        <v>-1037172.54593287</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6594,22 +6594,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C173" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D173" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E173" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F173" t="n">
-        <v>863.5432</v>
+        <v>598.9638</v>
       </c>
       <c r="G173" t="n">
-        <v>207</v>
+        <v>-1036573.58213287</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6630,22 +6630,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C174" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D174" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E174" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F174" t="n">
-        <v>99.99760000000001</v>
+        <v>254.7878</v>
       </c>
       <c r="G174" t="n">
-        <v>207.2</v>
+        <v>-1036318.794332869</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6666,22 +6666,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C175" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D175" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E175" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F175" t="n">
-        <v>54.2935</v>
+        <v>114.4958</v>
       </c>
       <c r="G175" t="n">
-        <v>207</v>
+        <v>-1036433.29013287</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6702,22 +6702,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C176" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D176" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E176" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F176" t="n">
-        <v>394.7301</v>
+        <v>20.2961</v>
       </c>
       <c r="G176" t="n">
-        <v>207</v>
+        <v>-1036433.29013287</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6738,22 +6738,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C177" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D177" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E177" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F177" t="n">
-        <v>200</v>
+        <v>1.5884</v>
       </c>
       <c r="G177" t="n">
-        <v>207</v>
+        <v>-1036433.29013287</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6774,22 +6774,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C178" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D178" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E178" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F178" t="n">
-        <v>358.8606</v>
+        <v>251.6986</v>
       </c>
       <c r="G178" t="n">
-        <v>207</v>
+        <v>-1036684.98873287</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6813,19 +6813,19 @@
         <v>208</v>
       </c>
       <c r="C179" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D179" t="n">
         <v>208</v>
       </c>
       <c r="E179" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F179" t="n">
-        <v>543.8804</v>
+        <v>13600.6316</v>
       </c>
       <c r="G179" t="n">
-        <v>207.2</v>
+        <v>-1050285.620332869</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6846,22 +6846,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C180" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D180" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E180" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F180" t="n">
-        <v>5669.8048</v>
+        <v>93</v>
       </c>
       <c r="G180" t="n">
-        <v>207.8</v>
+        <v>-1050192.620332869</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6882,22 +6882,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C181" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D181" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E181" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F181" t="n">
-        <v>257.3301</v>
+        <v>1.7007</v>
       </c>
       <c r="G181" t="n">
-        <v>208.2</v>
+        <v>-1050194.321032869</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6918,22 +6918,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C182" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D182" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E182" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F182" t="n">
-        <v>151.4176</v>
+        <v>1.3853</v>
       </c>
       <c r="G182" t="n">
-        <v>208.6</v>
+        <v>-1050195.706332869</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6954,22 +6954,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C183" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D183" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E183" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F183" t="n">
-        <v>304</v>
+        <v>1.4582</v>
       </c>
       <c r="G183" t="n">
-        <v>208.8</v>
+        <v>-1050194.248132869</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6990,22 +6990,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C184" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D184" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E184" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F184" t="n">
-        <v>156</v>
+        <v>1.7902</v>
       </c>
       <c r="G184" t="n">
-        <v>209</v>
+        <v>-1050192.457932869</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7029,19 +7029,19 @@
         <v>209</v>
       </c>
       <c r="C185" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D185" t="n">
         <v>209</v>
       </c>
       <c r="E185" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F185" t="n">
-        <v>102.0317</v>
+        <v>2552.1952</v>
       </c>
       <c r="G185" t="n">
-        <v>209</v>
+        <v>-1050192.457932869</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7062,22 +7062,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C186" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D186" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E186" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F186" t="n">
-        <v>221.0018</v>
+        <v>2.5215</v>
       </c>
       <c r="G186" t="n">
-        <v>208.6</v>
+        <v>-1050189.936432869</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7098,22 +7098,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C187" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D187" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E187" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F187" t="n">
-        <v>1534.1706</v>
+        <v>365.7443</v>
       </c>
       <c r="G187" t="n">
-        <v>208</v>
+        <v>-1050189.936432869</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7134,22 +7134,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C188" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D188" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E188" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F188" t="n">
-        <v>1149.9999</v>
+        <v>0.8633</v>
       </c>
       <c r="G188" t="n">
-        <v>207.4</v>
+        <v>-1050189.936432869</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7170,22 +7170,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C189" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D189" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E189" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F189" t="n">
-        <v>407.7805</v>
+        <v>15137.3164</v>
       </c>
       <c r="G189" t="n">
-        <v>206.8</v>
+        <v>-1065327.252832869</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7206,22 +7206,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C190" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D190" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E190" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F190" t="n">
-        <v>6420.3043</v>
+        <v>3.1886</v>
       </c>
       <c r="G190" t="n">
-        <v>206.4</v>
+        <v>-1065330.441432869</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7242,22 +7242,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C191" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D191" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E191" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F191" t="n">
-        <v>5660.75</v>
+        <v>500</v>
       </c>
       <c r="G191" t="n">
-        <v>206.2</v>
+        <v>-1064830.441432869</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7278,22 +7278,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C192" t="n">
         <v>207</v>
       </c>
       <c r="D192" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E192" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F192" t="n">
-        <v>1441.019</v>
+        <v>820.4546</v>
       </c>
       <c r="G192" t="n">
-        <v>206.4</v>
+        <v>-1065650.896032869</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7314,22 +7314,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C193" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D193" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E193" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F193" t="n">
-        <v>7375.0673</v>
+        <v>237.916</v>
       </c>
       <c r="G193" t="n">
-        <v>206.8</v>
+        <v>-1065888.812032869</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7350,22 +7350,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C194" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D194" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E194" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F194" t="n">
-        <v>4764.2353</v>
+        <v>478.4096</v>
       </c>
       <c r="G194" t="n">
-        <v>207.4</v>
+        <v>-1065888.812032869</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7386,22 +7386,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C195" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D195" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E195" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F195" t="n">
-        <v>187.9104</v>
+        <v>7258</v>
       </c>
       <c r="G195" t="n">
-        <v>207.4</v>
+        <v>-1073146.812032869</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7425,19 +7425,19 @@
         <v>205</v>
       </c>
       <c r="C196" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D196" t="n">
         <v>205</v>
       </c>
       <c r="E196" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F196" t="n">
-        <v>10350</v>
+        <v>788.3854</v>
       </c>
       <c r="G196" t="n">
-        <v>207</v>
+        <v>-1073146.812032869</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7458,22 +7458,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C197" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D197" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E197" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F197" t="n">
-        <v>6.1504</v>
+        <v>689.196</v>
       </c>
       <c r="G197" t="n">
-        <v>206.8</v>
+        <v>-1073836.008032869</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7494,22 +7494,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C198" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D198" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E198" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F198" t="n">
-        <v>913.9999</v>
+        <v>9736.126899999999</v>
       </c>
       <c r="G198" t="n">
-        <v>206.4</v>
+        <v>-1083572.134932869</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7530,22 +7530,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C199" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D199" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E199" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F199" t="n">
-        <v>1428.1455</v>
+        <v>169</v>
       </c>
       <c r="G199" t="n">
-        <v>205.8</v>
+        <v>-1083403.134932869</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7566,22 +7566,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C200" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D200" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E200" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F200" t="n">
-        <v>611.2598</v>
+        <v>240.3035</v>
       </c>
       <c r="G200" t="n">
-        <v>205.6</v>
+        <v>-1083403.134932869</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7602,22 +7602,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C201" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D201" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E201" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F201" t="n">
-        <v>1069.6965</v>
+        <v>15</v>
       </c>
       <c r="G201" t="n">
-        <v>206</v>
+        <v>-1083418.134932869</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7638,22 +7638,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C202" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D202" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E202" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F202" t="n">
-        <v>8.079700000000001</v>
+        <v>111.3146</v>
       </c>
       <c r="G202" t="n">
-        <v>205.8</v>
+        <v>-1083418.134932869</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7674,22 +7674,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C203" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D203" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E203" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F203" t="n">
-        <v>285.9483</v>
+        <v>496.3783</v>
       </c>
       <c r="G203" t="n">
-        <v>205.8</v>
+        <v>-1083418.134932869</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C204" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D204" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E204" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F204" t="n">
-        <v>8064.8626</v>
+        <v>6479.3157</v>
       </c>
       <c r="G204" t="n">
-        <v>205.6</v>
+        <v>-1089897.450632869</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7746,22 +7746,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C205" t="n">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D205" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E205" t="n">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F205" t="n">
-        <v>12798.3088</v>
+        <v>3200</v>
       </c>
       <c r="G205" t="n">
-        <v>205.2</v>
+        <v>-1093097.450632869</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7782,22 +7782,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C206" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D206" t="n">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E206" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F206" t="n">
-        <v>4521.368</v>
+        <v>13508.7196</v>
       </c>
       <c r="G206" t="n">
-        <v>204.8</v>
+        <v>-1106606.170232869</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7818,22 +7818,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C207" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D207" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E207" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F207" t="n">
-        <v>2100</v>
+        <v>26773.935</v>
       </c>
       <c r="G207" t="n">
-        <v>204.6</v>
+        <v>-1079832.235232869</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7854,22 +7854,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C208" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D208" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E208" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F208" t="n">
-        <v>0.382</v>
+        <v>245.8306</v>
       </c>
       <c r="G208" t="n">
-        <v>204.2</v>
+        <v>-1079832.235232869</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7890,22 +7890,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C209" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D209" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E209" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F209" t="n">
-        <v>874.7807</v>
+        <v>10092.5661</v>
       </c>
       <c r="G209" t="n">
-        <v>203.8</v>
+        <v>-1079832.235232869</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7926,22 +7926,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C210" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D210" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E210" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F210" t="n">
-        <v>5000</v>
+        <v>227.664</v>
       </c>
       <c r="G210" t="n">
-        <v>203.6</v>
+        <v>-1080059.899232869</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7962,22 +7962,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C211" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D211" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E211" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F211" t="n">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="G211" t="n">
-        <v>203.8</v>
+        <v>-1080059.899232869</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7998,22 +7998,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C212" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D212" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E212" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F212" t="n">
-        <v>267</v>
+        <v>1849.9999</v>
       </c>
       <c r="G212" t="n">
-        <v>203.8</v>
+        <v>-1080059.899232869</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8034,22 +8034,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C213" t="n">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D213" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E213" t="n">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F213" t="n">
-        <v>219.9403</v>
+        <v>2351.6966</v>
       </c>
       <c r="G213" t="n">
-        <v>203.4</v>
+        <v>-1082411.595832869</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8070,22 +8070,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C214" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D214" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E214" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F214" t="n">
-        <v>732.4722</v>
+        <v>478.4691</v>
       </c>
       <c r="G214" t="n">
-        <v>203.2</v>
+        <v>-1081933.126732869</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8106,22 +8106,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C215" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D215" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E215" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F215" t="n">
-        <v>1566.0377</v>
+        <v>3920.3302</v>
       </c>
       <c r="G215" t="n">
-        <v>203</v>
+        <v>-1081933.126732869</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8154,10 +8154,10 @@
         <v>201</v>
       </c>
       <c r="F216" t="n">
-        <v>1573.3746</v>
+        <v>99.25230000000001</v>
       </c>
       <c r="G216" t="n">
-        <v>202.2</v>
+        <v>-1081833.874432869</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8178,22 +8178,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C217" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D217" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E217" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F217" t="n">
-        <v>10540.4191</v>
+        <v>2199.6872</v>
       </c>
       <c r="G217" t="n">
-        <v>201.6</v>
+        <v>-1079634.187232869</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8214,22 +8214,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C218" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D218" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E218" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F218" t="n">
-        <v>62738.3047</v>
+        <v>229.3414</v>
       </c>
       <c r="G218" t="n">
-        <v>201</v>
+        <v>-1079863.528632869</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8250,22 +8250,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C219" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D219" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E219" t="n">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F219" t="n">
-        <v>198.1902</v>
+        <v>19.7227</v>
       </c>
       <c r="G219" t="n">
-        <v>200.6</v>
+        <v>-1079843.805932869</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8286,22 +8286,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C220" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D220" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E220" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F220" t="n">
-        <v>15</v>
+        <v>2849.6485</v>
       </c>
       <c r="G220" t="n">
-        <v>200.2</v>
+        <v>-1079843.805932869</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8322,22 +8322,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C221" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D221" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E221" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F221" t="n">
-        <v>15</v>
+        <v>3443.3496</v>
       </c>
       <c r="G221" t="n">
-        <v>200</v>
+        <v>-1076400.456332869</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8358,22 +8358,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C222" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D222" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E222" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F222" t="n">
-        <v>101.9403</v>
+        <v>4741.1021</v>
       </c>
       <c r="G222" t="n">
-        <v>199.8</v>
+        <v>-1076400.456332869</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8394,35 +8394,31 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C223" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D223" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E223" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F223" t="n">
-        <v>1475</v>
+        <v>1</v>
       </c>
       <c r="G223" t="n">
-        <v>200.2</v>
+        <v>-1076399.456332869</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>200</v>
-      </c>
-      <c r="K223" t="n">
-        <v>200</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
@@ -8434,22 +8430,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C224" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D224" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E224" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F224" t="n">
-        <v>6304.5734</v>
+        <v>20.6733</v>
       </c>
       <c r="G224" t="n">
-        <v>200.2</v>
+        <v>-1076399.456332869</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8458,14 +8454,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>200</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8476,22 +8466,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C225" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D225" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E225" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F225" t="n">
-        <v>4786.3188</v>
+        <v>1168.9997</v>
       </c>
       <c r="G225" t="n">
-        <v>200.4</v>
+        <v>-1076399.456332869</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8500,14 +8490,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>200</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8518,22 +8502,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C226" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D226" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E226" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F226" t="n">
-        <v>2.844</v>
+        <v>2273.7158</v>
       </c>
       <c r="G226" t="n">
-        <v>200.4</v>
+        <v>-1076399.456332869</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8554,22 +8538,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C227" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D227" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E227" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F227" t="n">
-        <v>6884</v>
+        <v>791.6772999999999</v>
       </c>
       <c r="G227" t="n">
-        <v>200.2</v>
+        <v>-1076399.456332869</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8590,35 +8574,31 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C228" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D228" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E228" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F228" t="n">
-        <v>234.64</v>
+        <v>149.2429</v>
       </c>
       <c r="G228" t="n">
-        <v>200</v>
+        <v>-1076399.456332869</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>199</v>
-      </c>
-      <c r="K228" t="n">
-        <v>199</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
@@ -8630,40 +8610,32 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C229" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D229" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E229" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F229" t="n">
-        <v>183.7199</v>
+        <v>22553.4908</v>
       </c>
       <c r="G229" t="n">
-        <v>199.8</v>
+        <v>-1076399.456332869</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>200</v>
-      </c>
-      <c r="K229" t="n">
-        <v>199</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8674,132 +8646,2754 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
+        <v>204</v>
+      </c>
+      <c r="C230" t="n">
+        <v>204</v>
+      </c>
+      <c r="D230" t="n">
+        <v>204</v>
+      </c>
+      <c r="E230" t="n">
+        <v>204</v>
+      </c>
+      <c r="F230" t="n">
+        <v>44929.9484</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-1076399.456332869</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>204</v>
+      </c>
+      <c r="C231" t="n">
+        <v>204</v>
+      </c>
+      <c r="D231" t="n">
+        <v>204</v>
+      </c>
+      <c r="E231" t="n">
+        <v>204</v>
+      </c>
+      <c r="F231" t="n">
+        <v>175629.2444</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-1076399.456332869</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>204</v>
+      </c>
+      <c r="C232" t="n">
+        <v>204</v>
+      </c>
+      <c r="D232" t="n">
+        <v>204</v>
+      </c>
+      <c r="E232" t="n">
+        <v>204</v>
+      </c>
+      <c r="F232" t="n">
+        <v>112776.2683</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-1076399.456332869</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>204</v>
+      </c>
+      <c r="C233" t="n">
+        <v>205</v>
+      </c>
+      <c r="D233" t="n">
+        <v>205</v>
+      </c>
+      <c r="E233" t="n">
+        <v>204</v>
+      </c>
+      <c r="F233" t="n">
+        <v>19603.7977</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-1056795.658632869</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>206</v>
+      </c>
+      <c r="C234" t="n">
+        <v>207</v>
+      </c>
+      <c r="D234" t="n">
+        <v>207</v>
+      </c>
+      <c r="E234" t="n">
+        <v>206</v>
+      </c>
+      <c r="F234" t="n">
+        <v>2228.5024</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-1054567.156232869</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>206</v>
+      </c>
+      <c r="C235" t="n">
+        <v>206</v>
+      </c>
+      <c r="D235" t="n">
+        <v>206</v>
+      </c>
+      <c r="E235" t="n">
+        <v>206</v>
+      </c>
+      <c r="F235" t="n">
+        <v>6988.262</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-1061555.418232869</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>206</v>
+      </c>
+      <c r="C236" t="n">
+        <v>206</v>
+      </c>
+      <c r="D236" t="n">
+        <v>206</v>
+      </c>
+      <c r="E236" t="n">
+        <v>206</v>
+      </c>
+      <c r="F236" t="n">
+        <v>451.9999</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-1061555.418232869</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>207</v>
+      </c>
+      <c r="C237" t="n">
+        <v>207</v>
+      </c>
+      <c r="D237" t="n">
+        <v>207</v>
+      </c>
+      <c r="E237" t="n">
+        <v>207</v>
+      </c>
+      <c r="F237" t="n">
+        <v>544</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-1061011.418232869</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>207</v>
+      </c>
+      <c r="C238" t="n">
+        <v>207</v>
+      </c>
+      <c r="D238" t="n">
+        <v>207</v>
+      </c>
+      <c r="E238" t="n">
+        <v>207</v>
+      </c>
+      <c r="F238" t="n">
+        <v>54</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-1061011.418232869</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>206</v>
+      </c>
+      <c r="C239" t="n">
+        <v>206</v>
+      </c>
+      <c r="D239" t="n">
+        <v>206</v>
+      </c>
+      <c r="E239" t="n">
+        <v>206</v>
+      </c>
+      <c r="F239" t="n">
+        <v>250</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-1061261.418232869</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>206</v>
+      </c>
+      <c r="C240" t="n">
+        <v>206</v>
+      </c>
+      <c r="D240" t="n">
+        <v>206</v>
+      </c>
+      <c r="E240" t="n">
+        <v>206</v>
+      </c>
+      <c r="F240" t="n">
+        <v>547.8339999999999</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-1061261.418232869</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>207</v>
+      </c>
+      <c r="C241" t="n">
+        <v>207</v>
+      </c>
+      <c r="D241" t="n">
+        <v>207</v>
+      </c>
+      <c r="E241" t="n">
+        <v>207</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1575.8761</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-1059685.542132869</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>207</v>
+      </c>
+      <c r="C242" t="n">
+        <v>207</v>
+      </c>
+      <c r="D242" t="n">
+        <v>207</v>
+      </c>
+      <c r="E242" t="n">
+        <v>207</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1076.2666</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-1059685.542132869</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>207</v>
+      </c>
+      <c r="C243" t="n">
+        <v>207</v>
+      </c>
+      <c r="D243" t="n">
+        <v>207</v>
+      </c>
+      <c r="E243" t="n">
+        <v>207</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-1059685.542132869</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>208</v>
+      </c>
+      <c r="C244" t="n">
+        <v>208</v>
+      </c>
+      <c r="D244" t="n">
+        <v>208</v>
+      </c>
+      <c r="E244" t="n">
+        <v>208</v>
+      </c>
+      <c r="F244" t="n">
+        <v>863.5432</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-1058821.998932869</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>207</v>
+      </c>
+      <c r="C245" t="n">
+        <v>207</v>
+      </c>
+      <c r="D245" t="n">
+        <v>207</v>
+      </c>
+      <c r="E245" t="n">
+        <v>207</v>
+      </c>
+      <c r="F245" t="n">
+        <v>99.99760000000001</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-1058921.996532869</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>206</v>
+      </c>
+      <c r="C246" t="n">
+        <v>206</v>
+      </c>
+      <c r="D246" t="n">
+        <v>206</v>
+      </c>
+      <c r="E246" t="n">
+        <v>206</v>
+      </c>
+      <c r="F246" t="n">
+        <v>54.2935</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-1058976.290032869</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>207</v>
+      </c>
+      <c r="C247" t="n">
+        <v>207</v>
+      </c>
+      <c r="D247" t="n">
+        <v>207</v>
+      </c>
+      <c r="E247" t="n">
+        <v>207</v>
+      </c>
+      <c r="F247" t="n">
+        <v>394.7301</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-1058581.559932869</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>207</v>
+      </c>
+      <c r="C248" t="n">
+        <v>207</v>
+      </c>
+      <c r="D248" t="n">
+        <v>207</v>
+      </c>
+      <c r="E248" t="n">
+        <v>207</v>
+      </c>
+      <c r="F248" t="n">
+        <v>200</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-1058581.559932869</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>207</v>
+      </c>
+      <c r="C249" t="n">
+        <v>208</v>
+      </c>
+      <c r="D249" t="n">
+        <v>208</v>
+      </c>
+      <c r="E249" t="n">
+        <v>207</v>
+      </c>
+      <c r="F249" t="n">
+        <v>358.8606</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-1058222.699332869</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>208</v>
+      </c>
+      <c r="C250" t="n">
+        <v>208</v>
+      </c>
+      <c r="D250" t="n">
+        <v>208</v>
+      </c>
+      <c r="E250" t="n">
+        <v>208</v>
+      </c>
+      <c r="F250" t="n">
+        <v>543.8804</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-1058222.699332869</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>209</v>
+      </c>
+      <c r="C251" t="n">
+        <v>209</v>
+      </c>
+      <c r="D251" t="n">
+        <v>209</v>
+      </c>
+      <c r="E251" t="n">
+        <v>209</v>
+      </c>
+      <c r="F251" t="n">
+        <v>5669.8048</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-1052552.894532869</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>209</v>
+      </c>
+      <c r="C252" t="n">
+        <v>209</v>
+      </c>
+      <c r="D252" t="n">
+        <v>209</v>
+      </c>
+      <c r="E252" t="n">
+        <v>209</v>
+      </c>
+      <c r="F252" t="n">
+        <v>257.3301</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-1052552.894532869</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>209</v>
+      </c>
+      <c r="C253" t="n">
+        <v>209</v>
+      </c>
+      <c r="D253" t="n">
+        <v>209</v>
+      </c>
+      <c r="E253" t="n">
+        <v>209</v>
+      </c>
+      <c r="F253" t="n">
+        <v>151.4176</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-1052552.894532869</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>209</v>
+      </c>
+      <c r="C254" t="n">
+        <v>209</v>
+      </c>
+      <c r="D254" t="n">
+        <v>209</v>
+      </c>
+      <c r="E254" t="n">
+        <v>209</v>
+      </c>
+      <c r="F254" t="n">
+        <v>304</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-1052552.894532869</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>209</v>
+      </c>
+      <c r="C255" t="n">
+        <v>209</v>
+      </c>
+      <c r="D255" t="n">
+        <v>209</v>
+      </c>
+      <c r="E255" t="n">
+        <v>209</v>
+      </c>
+      <c r="F255" t="n">
+        <v>156</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-1052552.894532869</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>209</v>
+      </c>
+      <c r="C256" t="n">
+        <v>209</v>
+      </c>
+      <c r="D256" t="n">
+        <v>209</v>
+      </c>
+      <c r="E256" t="n">
+        <v>209</v>
+      </c>
+      <c r="F256" t="n">
+        <v>102.0317</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-1052552.894532869</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>207</v>
+      </c>
+      <c r="C257" t="n">
+        <v>207</v>
+      </c>
+      <c r="D257" t="n">
+        <v>207</v>
+      </c>
+      <c r="E257" t="n">
+        <v>207</v>
+      </c>
+      <c r="F257" t="n">
+        <v>221.0018</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-1052773.896332869</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+      <c r="N257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>206</v>
+      </c>
+      <c r="C258" t="n">
+        <v>206</v>
+      </c>
+      <c r="D258" t="n">
+        <v>206</v>
+      </c>
+      <c r="E258" t="n">
+        <v>206</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1534.1706</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-1054308.066932869</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>206</v>
+      </c>
+      <c r="C259" t="n">
+        <v>206</v>
+      </c>
+      <c r="D259" t="n">
+        <v>206</v>
+      </c>
+      <c r="E259" t="n">
+        <v>206</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1149.9999</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-1054308.066932869</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>206</v>
+      </c>
+      <c r="C260" t="n">
+        <v>206</v>
+      </c>
+      <c r="D260" t="n">
+        <v>206</v>
+      </c>
+      <c r="E260" t="n">
+        <v>206</v>
+      </c>
+      <c r="F260" t="n">
+        <v>407.7805</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-1054308.066932869</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>207</v>
+      </c>
+      <c r="C261" t="n">
+        <v>207</v>
+      </c>
+      <c r="D261" t="n">
+        <v>207</v>
+      </c>
+      <c r="E261" t="n">
+        <v>207</v>
+      </c>
+      <c r="F261" t="n">
+        <v>6420.3043</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-1047887.762632869</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="n">
+        <v>1</v>
+      </c>
+      <c r="N261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>208</v>
+      </c>
+      <c r="C262" t="n">
+        <v>206</v>
+      </c>
+      <c r="D262" t="n">
+        <v>208</v>
+      </c>
+      <c r="E262" t="n">
+        <v>206</v>
+      </c>
+      <c r="F262" t="n">
+        <v>5660.75</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-1053548.512632869</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>207</v>
+      </c>
+      <c r="C263" t="n">
+        <v>207</v>
+      </c>
+      <c r="D263" t="n">
+        <v>207</v>
+      </c>
+      <c r="E263" t="n">
+        <v>206</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1441.019</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-1052107.493632869</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
+      <c r="N263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>208</v>
+      </c>
+      <c r="C264" t="n">
+        <v>208</v>
+      </c>
+      <c r="D264" t="n">
+        <v>208</v>
+      </c>
+      <c r="E264" t="n">
+        <v>207</v>
+      </c>
+      <c r="F264" t="n">
+        <v>7375.0673</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-1044732.426332869</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+      <c r="N264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>208</v>
+      </c>
+      <c r="C265" t="n">
+        <v>209</v>
+      </c>
+      <c r="D265" t="n">
+        <v>209</v>
+      </c>
+      <c r="E265" t="n">
+        <v>208</v>
+      </c>
+      <c r="F265" t="n">
+        <v>4764.2353</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-1039968.191032869</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+      <c r="N265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>207</v>
+      </c>
+      <c r="C266" t="n">
+        <v>207</v>
+      </c>
+      <c r="D266" t="n">
+        <v>207</v>
+      </c>
+      <c r="E266" t="n">
+        <v>207</v>
+      </c>
+      <c r="F266" t="n">
+        <v>187.9104</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-1040156.101432869</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="n">
+        <v>1</v>
+      </c>
+      <c r="N266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>205</v>
+      </c>
+      <c r="C267" t="n">
+        <v>204</v>
+      </c>
+      <c r="D267" t="n">
+        <v>205</v>
+      </c>
+      <c r="E267" t="n">
+        <v>204</v>
+      </c>
+      <c r="F267" t="n">
+        <v>10350</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-1050506.101432869</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="n">
+        <v>1</v>
+      </c>
+      <c r="N267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>206</v>
+      </c>
+      <c r="C268" t="n">
+        <v>206</v>
+      </c>
+      <c r="D268" t="n">
+        <v>206</v>
+      </c>
+      <c r="E268" t="n">
+        <v>206</v>
+      </c>
+      <c r="F268" t="n">
+        <v>6.1504</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-1050499.951032869</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="n">
+        <v>1</v>
+      </c>
+      <c r="N268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>206</v>
+      </c>
+      <c r="C269" t="n">
+        <v>206</v>
+      </c>
+      <c r="D269" t="n">
+        <v>206</v>
+      </c>
+      <c r="E269" t="n">
+        <v>206</v>
+      </c>
+      <c r="F269" t="n">
+        <v>913.9999</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-1050499.951032869</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="n">
+        <v>1</v>
+      </c>
+      <c r="N269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>206</v>
+      </c>
+      <c r="C270" t="n">
+        <v>206</v>
+      </c>
+      <c r="D270" t="n">
+        <v>206</v>
+      </c>
+      <c r="E270" t="n">
+        <v>206</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1428.1455</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-1050499.951032869</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="n">
+        <v>1</v>
+      </c>
+      <c r="N270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>206</v>
+      </c>
+      <c r="C271" t="n">
+        <v>206</v>
+      </c>
+      <c r="D271" t="n">
+        <v>206</v>
+      </c>
+      <c r="E271" t="n">
+        <v>206</v>
+      </c>
+      <c r="F271" t="n">
+        <v>611.2598</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-1050499.951032869</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="n">
+        <v>1</v>
+      </c>
+      <c r="N271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>206</v>
+      </c>
+      <c r="C272" t="n">
+        <v>206</v>
+      </c>
+      <c r="D272" t="n">
+        <v>206</v>
+      </c>
+      <c r="E272" t="n">
+        <v>206</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1069.6965</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-1050499.951032869</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>205</v>
+      </c>
+      <c r="C273" t="n">
+        <v>205</v>
+      </c>
+      <c r="D273" t="n">
+        <v>205</v>
+      </c>
+      <c r="E273" t="n">
+        <v>205</v>
+      </c>
+      <c r="F273" t="n">
+        <v>8.079700000000001</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-1050508.030732869</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="n">
+        <v>1</v>
+      </c>
+      <c r="N273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>206</v>
+      </c>
+      <c r="C274" t="n">
+        <v>206</v>
+      </c>
+      <c r="D274" t="n">
+        <v>206</v>
+      </c>
+      <c r="E274" t="n">
+        <v>206</v>
+      </c>
+      <c r="F274" t="n">
+        <v>285.9483</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-1050222.082432869</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="n">
+        <v>1</v>
+      </c>
+      <c r="N274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>205</v>
+      </c>
+      <c r="C275" t="n">
+        <v>205</v>
+      </c>
+      <c r="D275" t="n">
+        <v>205</v>
+      </c>
+      <c r="E275" t="n">
+        <v>205</v>
+      </c>
+      <c r="F275" t="n">
+        <v>8064.8626</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-1058286.945032869</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="n">
+        <v>1</v>
+      </c>
+      <c r="N275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>204</v>
+      </c>
+      <c r="C276" t="n">
+        <v>204</v>
+      </c>
+      <c r="D276" t="n">
+        <v>204</v>
+      </c>
+      <c r="E276" t="n">
+        <v>204</v>
+      </c>
+      <c r="F276" t="n">
+        <v>12798.3088</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-1071085.253832869</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="n">
+        <v>1</v>
+      </c>
+      <c r="N276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>204</v>
+      </c>
+      <c r="C277" t="n">
+        <v>204</v>
+      </c>
+      <c r="D277" t="n">
+        <v>204</v>
+      </c>
+      <c r="E277" t="n">
+        <v>204</v>
+      </c>
+      <c r="F277" t="n">
+        <v>4521.368</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-1071085.253832869</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="n">
+        <v>1</v>
+      </c>
+      <c r="N277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>204</v>
+      </c>
+      <c r="C278" t="n">
+        <v>204</v>
+      </c>
+      <c r="D278" t="n">
+        <v>204</v>
+      </c>
+      <c r="E278" t="n">
+        <v>204</v>
+      </c>
+      <c r="F278" t="n">
+        <v>2100</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-1071085.253832869</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="n">
+        <v>1</v>
+      </c>
+      <c r="N278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>204</v>
+      </c>
+      <c r="C279" t="n">
+        <v>204</v>
+      </c>
+      <c r="D279" t="n">
+        <v>204</v>
+      </c>
+      <c r="E279" t="n">
+        <v>204</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-1071085.253832869</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="n">
+        <v>1</v>
+      </c>
+      <c r="N279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>203</v>
+      </c>
+      <c r="C280" t="n">
+        <v>203</v>
+      </c>
+      <c r="D280" t="n">
+        <v>203</v>
+      </c>
+      <c r="E280" t="n">
+        <v>203</v>
+      </c>
+      <c r="F280" t="n">
+        <v>874.7807</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-1071960.034532869</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
+      <c r="M280" t="n">
+        <v>1</v>
+      </c>
+      <c r="N280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>203</v>
+      </c>
+      <c r="C281" t="n">
+        <v>203</v>
+      </c>
+      <c r="D281" t="n">
+        <v>203</v>
+      </c>
+      <c r="E281" t="n">
+        <v>203</v>
+      </c>
+      <c r="F281" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-1071960.034532869</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
+      <c r="M281" t="n">
+        <v>1</v>
+      </c>
+      <c r="N281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>205</v>
+      </c>
+      <c r="C282" t="n">
+        <v>205</v>
+      </c>
+      <c r="D282" t="n">
+        <v>205</v>
+      </c>
+      <c r="E282" t="n">
+        <v>205</v>
+      </c>
+      <c r="F282" t="n">
+        <v>1</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-1071959.034532869</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
+      <c r="M282" t="n">
+        <v>1</v>
+      </c>
+      <c r="N282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>204</v>
+      </c>
+      <c r="C283" t="n">
+        <v>204</v>
+      </c>
+      <c r="D283" t="n">
+        <v>204</v>
+      </c>
+      <c r="E283" t="n">
+        <v>204</v>
+      </c>
+      <c r="F283" t="n">
+        <v>267</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-1072226.034532869</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
+      <c r="M283" t="n">
+        <v>1</v>
+      </c>
+      <c r="N283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>202</v>
+      </c>
+      <c r="C284" t="n">
+        <v>202</v>
+      </c>
+      <c r="D284" t="n">
+        <v>202</v>
+      </c>
+      <c r="E284" t="n">
+        <v>202</v>
+      </c>
+      <c r="F284" t="n">
+        <v>219.9403</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-1072445.974832869</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
+      <c r="M284" t="n">
+        <v>1</v>
+      </c>
+      <c r="N284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>202</v>
+      </c>
+      <c r="C285" t="n">
+        <v>202</v>
+      </c>
+      <c r="D285" t="n">
+        <v>202</v>
+      </c>
+      <c r="E285" t="n">
+        <v>202</v>
+      </c>
+      <c r="F285" t="n">
+        <v>732.4722</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-1072445.974832869</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
+      <c r="M285" t="n">
+        <v>1</v>
+      </c>
+      <c r="N285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>202</v>
+      </c>
+      <c r="C286" t="n">
+        <v>202</v>
+      </c>
+      <c r="D286" t="n">
+        <v>202</v>
+      </c>
+      <c r="E286" t="n">
+        <v>202</v>
+      </c>
+      <c r="F286" t="n">
+        <v>1566.0377</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-1072445.974832869</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
+      <c r="M286" t="n">
+        <v>1</v>
+      </c>
+      <c r="N286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>201</v>
+      </c>
+      <c r="C287" t="n">
+        <v>201</v>
+      </c>
+      <c r="D287" t="n">
+        <v>201</v>
+      </c>
+      <c r="E287" t="n">
+        <v>201</v>
+      </c>
+      <c r="F287" t="n">
+        <v>1573.3746</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-1074019.349432869</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
+      <c r="M287" t="n">
+        <v>1</v>
+      </c>
+      <c r="N287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>200</v>
+      </c>
+      <c r="C288" t="n">
+        <v>201</v>
+      </c>
+      <c r="D288" t="n">
+        <v>201</v>
+      </c>
+      <c r="E288" t="n">
+        <v>200</v>
+      </c>
+      <c r="F288" t="n">
+        <v>10540.4191</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-1074019.349432869</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
+      <c r="M288" t="n">
+        <v>1</v>
+      </c>
+      <c r="N288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>200</v>
+      </c>
+      <c r="C289" t="n">
         <v>199</v>
       </c>
-      <c r="C230" t="n">
-        <v>196</v>
-      </c>
-      <c r="D230" t="n">
+      <c r="D289" t="n">
+        <v>200</v>
+      </c>
+      <c r="E289" t="n">
         <v>199</v>
       </c>
-      <c r="E230" t="n">
-        <v>196</v>
-      </c>
-      <c r="F230" t="n">
-        <v>6569.0587</v>
-      </c>
-      <c r="G230" t="n">
-        <v>198.8</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="n">
-        <v>199</v>
-      </c>
-      <c r="K230" t="n">
-        <v>199</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="F289" t="n">
+        <v>62738.3047</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-1136757.654132869</v>
+      </c>
+      <c r="H289" t="n">
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" t="n">
+        <v>201</v>
+      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
+      <c r="M289" t="n">
+        <v>1</v>
+      </c>
+      <c r="N289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>198</v>
+      </c>
+      <c r="C290" t="n">
+        <v>200</v>
+      </c>
+      <c r="D290" t="n">
+        <v>200</v>
+      </c>
+      <c r="E290" t="n">
+        <v>198</v>
+      </c>
+      <c r="F290" t="n">
+        <v>198.1902</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-1136559.463932869</v>
+      </c>
+      <c r="H290" t="n">
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" t="n">
         <v>199</v>
       </c>
-      <c r="C231" t="n">
-        <v>199</v>
-      </c>
-      <c r="D231" t="n">
-        <v>199</v>
-      </c>
-      <c r="E231" t="n">
-        <v>199</v>
-      </c>
-      <c r="F231" t="n">
-        <v>710.9999</v>
-      </c>
-      <c r="G231" t="n">
-        <v>198.6</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="n">
-        <v>196</v>
-      </c>
-      <c r="K231" t="n">
-        <v>199</v>
-      </c>
-      <c r="L231" t="inlineStr">
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>198</v>
-      </c>
-      <c r="C232" t="n">
+      <c r="M290" t="n">
+        <v>1</v>
+      </c>
+      <c r="N290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
         <v>200</v>
       </c>
-      <c r="D232" t="n">
+      <c r="C291" t="n">
         <v>200</v>
       </c>
-      <c r="E232" t="n">
-        <v>198</v>
-      </c>
-      <c r="F232" t="n">
-        <v>3902.3483</v>
-      </c>
-      <c r="G232" t="n">
-        <v>198.8</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="n">
-        <v>199</v>
-      </c>
-      <c r="K232" t="n">
-        <v>199</v>
-      </c>
-      <c r="L232" t="inlineStr">
+      <c r="D291" t="n">
+        <v>200</v>
+      </c>
+      <c r="E291" t="n">
+        <v>200</v>
+      </c>
+      <c r="F291" t="n">
+        <v>15</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-1136559.463932869</v>
+      </c>
+      <c r="H291" t="n">
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" t="n">
+        <v>200</v>
+      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="M291" t="n">
+        <v>1</v>
+      </c>
+      <c r="N291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>200</v>
+      </c>
+      <c r="C292" t="n">
+        <v>200</v>
+      </c>
+      <c r="D292" t="n">
+        <v>200</v>
+      </c>
+      <c r="E292" t="n">
+        <v>200</v>
+      </c>
+      <c r="F292" t="n">
+        <v>15</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-1136559.463932869</v>
+      </c>
+      <c r="H292" t="n">
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0</v>
+      </c>
+      <c r="J292" t="n">
+        <v>200</v>
+      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M292" t="n">
+        <v>1</v>
+      </c>
+      <c r="N292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>200</v>
+      </c>
+      <c r="C293" t="n">
+        <v>200</v>
+      </c>
+      <c r="D293" t="n">
+        <v>200</v>
+      </c>
+      <c r="E293" t="n">
+        <v>200</v>
+      </c>
+      <c r="F293" t="n">
+        <v>101.9403</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-1136559.463932869</v>
+      </c>
+      <c r="H293" t="n">
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>200</v>
+      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M293" t="n">
+        <v>1</v>
+      </c>
+      <c r="N293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>201</v>
+      </c>
+      <c r="C294" t="n">
+        <v>201</v>
+      </c>
+      <c r="D294" t="n">
+        <v>201</v>
+      </c>
+      <c r="E294" t="n">
+        <v>201</v>
+      </c>
+      <c r="F294" t="n">
+        <v>1475</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-1135084.463932869</v>
+      </c>
+      <c r="H294" t="n">
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" t="n">
+        <v>200</v>
+      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M294" t="n">
+        <v>1</v>
+      </c>
+      <c r="N294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>200</v>
+      </c>
+      <c r="C295" t="n">
+        <v>200</v>
+      </c>
+      <c r="D295" t="n">
+        <v>200</v>
+      </c>
+      <c r="E295" t="n">
+        <v>200</v>
+      </c>
+      <c r="F295" t="n">
+        <v>6304.5734</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-1141389.037332869</v>
+      </c>
+      <c r="H295" t="n">
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>201</v>
+      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M295" t="n">
+        <v>1</v>
+      </c>
+      <c r="N295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>201</v>
+      </c>
+      <c r="C296" t="n">
+        <v>201</v>
+      </c>
+      <c r="D296" t="n">
+        <v>201</v>
+      </c>
+      <c r="E296" t="n">
+        <v>201</v>
+      </c>
+      <c r="F296" t="n">
+        <v>4786.3188</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-1136602.718532869</v>
+      </c>
+      <c r="H296" t="n">
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>200</v>
+      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M296" t="n">
+        <v>1</v>
+      </c>
+      <c r="N296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>200</v>
+      </c>
+      <c r="C297" t="n">
+        <v>200</v>
+      </c>
+      <c r="D297" t="n">
+        <v>200</v>
+      </c>
+      <c r="E297" t="n">
+        <v>200</v>
+      </c>
+      <c r="F297" t="n">
+        <v>2.844</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-1136605.562532869</v>
+      </c>
+      <c r="H297" t="n">
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>201</v>
+      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M297" t="n">
+        <v>1</v>
+      </c>
+      <c r="N297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>200</v>
+      </c>
+      <c r="C298" t="n">
+        <v>199</v>
+      </c>
+      <c r="D298" t="n">
+        <v>200</v>
+      </c>
+      <c r="E298" t="n">
+        <v>199</v>
+      </c>
+      <c r="F298" t="n">
+        <v>6884</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-1143489.562532869</v>
+      </c>
+      <c r="H298" t="n">
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" t="n">
+        <v>200</v>
+      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M298" t="n">
+        <v>1</v>
+      </c>
+      <c r="N298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>200</v>
+      </c>
+      <c r="C299" t="n">
+        <v>200</v>
+      </c>
+      <c r="D299" t="n">
+        <v>200</v>
+      </c>
+      <c r="E299" t="n">
+        <v>200</v>
+      </c>
+      <c r="F299" t="n">
+        <v>234.64</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-1143254.922532869</v>
+      </c>
+      <c r="H299" t="n">
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>199</v>
+      </c>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M299" t="n">
+        <v>1</v>
+      </c>
+      <c r="N299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>199</v>
+      </c>
+      <c r="C300" t="n">
+        <v>199</v>
+      </c>
+      <c r="D300" t="n">
+        <v>199</v>
+      </c>
+      <c r="E300" t="n">
+        <v>199</v>
+      </c>
+      <c r="F300" t="n">
+        <v>183.7199</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-1143438.642432869</v>
+      </c>
+      <c r="H300" t="n">
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>200</v>
+      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M300" t="n">
+        <v>1</v>
+      </c>
+      <c r="N300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>199</v>
+      </c>
+      <c r="C301" t="n">
+        <v>196</v>
+      </c>
+      <c r="D301" t="n">
+        <v>199</v>
+      </c>
+      <c r="E301" t="n">
+        <v>196</v>
+      </c>
+      <c r="F301" t="n">
+        <v>6569.0587</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-1150007.701132869</v>
+      </c>
+      <c r="H301" t="n">
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>199</v>
+      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M301" t="n">
+        <v>1</v>
+      </c>
+      <c r="N301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>199</v>
+      </c>
+      <c r="C302" t="n">
+        <v>199</v>
+      </c>
+      <c r="D302" t="n">
+        <v>199</v>
+      </c>
+      <c r="E302" t="n">
+        <v>199</v>
+      </c>
+      <c r="F302" t="n">
+        <v>710.9999</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-1149296.701232869</v>
+      </c>
+      <c r="H302" t="n">
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" t="n">
+        <v>196</v>
+      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M302" t="n">
+        <v>1</v>
+      </c>
+      <c r="N302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>198</v>
+      </c>
+      <c r="C303" t="n">
+        <v>200</v>
+      </c>
+      <c r="D303" t="n">
+        <v>200</v>
+      </c>
+      <c r="E303" t="n">
+        <v>198</v>
+      </c>
+      <c r="F303" t="n">
+        <v>3902.3483</v>
+      </c>
+      <c r="G303" t="n">
+        <v>-1145394.352932869</v>
+      </c>
+      <c r="H303" t="n">
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" t="n">
+        <v>199</v>
+      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M303" t="n">
+        <v>1</v>
+      </c>
+      <c r="N303" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest KNC.xlsx
+++ b/BackTest/2019-10-26 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N303"/>
+  <dimension ref="A1:M303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>-1025892.798203483</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>-1024035.396603483</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>-1023839.396603483</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>-1023839.396603483</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1870,15 @@
         <v>-1024058.232603483</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>-1025394.794803483</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>-1025393.794803483</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>-1034645.794803483</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>-1034644.794803483</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,18 +4015,19 @@
         <v>-1041637.12447824</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>204</v>
+      </c>
+      <c r="J110" t="n">
+        <v>204</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4054,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>204</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4093,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>204</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4132,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4165,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4198,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4231,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4264,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4297,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4330,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4363,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4396,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4429,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4462,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4495,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4528,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4561,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4594,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4627,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4660,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4693,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4726,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4759,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4792,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4825,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4858,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4891,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4924,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4957,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4990,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5023,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5056,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5089,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5122,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5155,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5188,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5221,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5676,18 +5252,15 @@
         <v>-1033332.69417824</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5287,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5320,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5353,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5386,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5419,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5452,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5485,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5518,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5551,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5584,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5617,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6108,18 +5648,15 @@
         <v>-1026382.72107824</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6144,18 +5681,15 @@
         <v>-1026380.72107824</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6180,18 +5714,15 @@
         <v>-1026365.19307824</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6216,18 +5747,15 @@
         <v>-1027175.57007824</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6252,18 +5780,15 @@
         <v>-1027175.57007824</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6288,18 +5813,15 @@
         <v>-1027425.57007824</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5848,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5881,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6396,18 +5912,15 @@
         <v>-1033351.16713287</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6432,18 +5945,15 @@
         <v>-1036361.25233287</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6468,18 +5978,15 @@
         <v>-1034661.25233287</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6504,18 +6011,15 @@
         <v>-1037233.25233287</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6046,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6079,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6112,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6145,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6178,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6211,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6244,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6277,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6310,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6343,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6376,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6409,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6442,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6475,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6508,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6541,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6574,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6607,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6640,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6673,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6706,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6739,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6772,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6805,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6838,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6871,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6904,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6937,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6970,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +7003,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7036,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7069,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7102,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7135,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7168,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7201,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7234,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7267,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7300,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7333,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7366,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7399,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7432,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7465,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7498,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7531,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7564,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7597,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +7630,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7663,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +7696,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7729,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7762,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7795,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +7828,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +7861,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +7894,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +7927,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8630,16 +7960,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +7993,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8026,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8059,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8092,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8125,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8158,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8191,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8224,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8257,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8290,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9026,16 +8323,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9062,16 +8356,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9098,16 +8389,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9134,16 +8422,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9170,16 +8455,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9206,16 +8488,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9242,16 +8521,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9278,16 +8554,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9314,16 +8587,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9350,16 +8620,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9386,16 +8653,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9422,16 +8686,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9458,16 +8719,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9494,16 +8752,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9530,16 +8785,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9566,16 +8818,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9602,16 +8851,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9638,16 +8884,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9672,18 +8915,19 @@
         <v>-1054308.066932869</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
+        <v>207</v>
+      </c>
+      <c r="J258" t="n">
+        <v>207</v>
+      </c>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9708,18 +8952,23 @@
         <v>-1054308.066932869</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+        <v>206</v>
+      </c>
+      <c r="J259" t="n">
+        <v>207</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9744,18 +8993,23 @@
         <v>-1054308.066932869</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+        <v>206</v>
+      </c>
+      <c r="J260" t="n">
+        <v>207</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9780,18 +9034,19 @@
         <v>-1047887.762632869</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
+        <v>206</v>
+      </c>
+      <c r="J261" t="n">
+        <v>206</v>
+      </c>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9816,18 +9071,23 @@
         <v>-1053548.512632869</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+        <v>207</v>
+      </c>
+      <c r="J262" t="n">
+        <v>206</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9852,18 +9112,23 @@
         <v>-1052107.493632869</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+        <v>206</v>
+      </c>
+      <c r="J263" t="n">
+        <v>206</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9888,18 +9153,23 @@
         <v>-1044732.426332869</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+        <v>207</v>
+      </c>
+      <c r="J264" t="n">
+        <v>206</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9924,18 +9194,23 @@
         <v>-1039968.191032869</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+        <v>208</v>
+      </c>
+      <c r="J265" t="n">
+        <v>206</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9962,16 +9237,19 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>206</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9996,18 +9274,23 @@
         <v>-1050506.101432869</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+        <v>207</v>
+      </c>
+      <c r="J267" t="n">
+        <v>206</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10032,18 +9315,23 @@
         <v>-1050499.951032869</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+        <v>204</v>
+      </c>
+      <c r="J268" t="n">
+        <v>206</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10068,18 +9356,23 @@
         <v>-1050499.951032869</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+        <v>206</v>
+      </c>
+      <c r="J269" t="n">
+        <v>206</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10104,18 +9397,23 @@
         <v>-1050499.951032869</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+        <v>206</v>
+      </c>
+      <c r="J270" t="n">
+        <v>206</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10140,18 +9438,23 @@
         <v>-1050499.951032869</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+        <v>206</v>
+      </c>
+      <c r="J271" t="n">
+        <v>206</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10176,18 +9479,23 @@
         <v>-1050499.951032869</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+        <v>206</v>
+      </c>
+      <c r="J272" t="n">
+        <v>206</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10212,18 +9520,23 @@
         <v>-1050508.030732869</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+        <v>206</v>
+      </c>
+      <c r="J273" t="n">
+        <v>206</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10248,18 +9561,23 @@
         <v>-1050222.082432869</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+        <v>205</v>
+      </c>
+      <c r="J274" t="n">
+        <v>206</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10284,18 +9602,23 @@
         <v>-1058286.945032869</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+        <v>206</v>
+      </c>
+      <c r="J275" t="n">
+        <v>206</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10320,18 +9643,23 @@
         <v>-1071085.253832869</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="n">
-        <v>0</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+        <v>205</v>
+      </c>
+      <c r="J276" t="n">
+        <v>206</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10356,18 +9684,23 @@
         <v>-1071085.253832869</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="n">
-        <v>0</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+        <v>204</v>
+      </c>
+      <c r="J277" t="n">
+        <v>206</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10392,18 +9725,23 @@
         <v>-1071085.253832869</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="n">
-        <v>0</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+        <v>204</v>
+      </c>
+      <c r="J278" t="n">
+        <v>206</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10428,18 +9766,23 @@
         <v>-1071085.253832869</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+        <v>204</v>
+      </c>
+      <c r="J279" t="n">
+        <v>206</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10464,18 +9807,23 @@
         <v>-1071960.034532869</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="n">
-        <v>0</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+        <v>204</v>
+      </c>
+      <c r="J280" t="n">
+        <v>206</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10500,18 +9848,23 @@
         <v>-1071960.034532869</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="n">
-        <v>0</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+        <v>203</v>
+      </c>
+      <c r="J281" t="n">
+        <v>206</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10536,18 +9889,23 @@
         <v>-1071959.034532869</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="n">
-        <v>0</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+        <v>203</v>
+      </c>
+      <c r="J282" t="n">
+        <v>206</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10572,18 +9930,23 @@
         <v>-1072226.034532869</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="n">
-        <v>0</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+        <v>205</v>
+      </c>
+      <c r="J283" t="n">
+        <v>206</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10610,16 +9973,19 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>206</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10646,16 +10012,19 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>206</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10682,16 +10051,19 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>206</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10718,16 +10090,19 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>206</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10754,16 +10129,19 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>206</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10788,24 +10166,23 @@
         <v>-1136757.654132869</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289" t="n">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="J289" t="n">
-        <v>201</v>
-      </c>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
+        <v>206</v>
+      </c>
+      <c r="K289" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10830,24 +10207,23 @@
         <v>-1136559.463932869</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="J290" t="n">
-        <v>199</v>
-      </c>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
+        <v>206</v>
+      </c>
+      <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10872,24 +10248,21 @@
         <v>-1136559.463932869</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>200</v>
-      </c>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
+        <v>206</v>
+      </c>
+      <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10914,24 +10287,21 @@
         <v>-1136559.463932869</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>200</v>
-      </c>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
+        <v>206</v>
+      </c>
+      <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10956,24 +10326,21 @@
         <v>-1136559.463932869</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>200</v>
-      </c>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
+        <v>206</v>
+      </c>
+      <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10998,24 +10365,21 @@
         <v>-1135084.463932869</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>200</v>
-      </c>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
+        <v>206</v>
+      </c>
+      <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11040,24 +10404,21 @@
         <v>-1141389.037332869</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>201</v>
-      </c>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
+        <v>206</v>
+      </c>
+      <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11082,24 +10443,21 @@
         <v>-1136602.718532869</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>200</v>
-      </c>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
+        <v>206</v>
+      </c>
+      <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11124,24 +10482,21 @@
         <v>-1136605.562532869</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>201</v>
-      </c>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
+        <v>206</v>
+      </c>
+      <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11166,24 +10521,21 @@
         <v>-1143489.562532869</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>200</v>
-      </c>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
+        <v>206</v>
+      </c>
+      <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11208,24 +10560,21 @@
         <v>-1143254.922532869</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>199</v>
-      </c>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
+        <v>206</v>
+      </c>
+      <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11250,24 +10599,21 @@
         <v>-1143438.642432869</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>200</v>
-      </c>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
+        <v>206</v>
+      </c>
+      <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11292,24 +10638,21 @@
         <v>-1150007.701132869</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>199</v>
-      </c>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
+        <v>206</v>
+      </c>
+      <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11334,24 +10677,21 @@
         <v>-1149296.701232869</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>196</v>
-      </c>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
+        <v>206</v>
+      </c>
+      <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11376,26 +10716,23 @@
         <v>-1145394.352932869</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>199</v>
-      </c>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
+        <v>206</v>
+      </c>
+      <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest KNC.xlsx
+++ b/BackTest/2019-10-26 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,10 +649,14 @@
         <v>-1039292.227503483</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>200</v>
+      </c>
+      <c r="J8" t="n">
+        <v>200</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -685,8 +689,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>200</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +725,19 @@
         <v>-1039292.227503483</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>200</v>
+      </c>
+      <c r="J10" t="n">
+        <v>200</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -781,10 +799,14 @@
         <v>-1039070.902803483</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>201</v>
+      </c>
+      <c r="J12" t="n">
+        <v>201</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -817,8 +839,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>201</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +878,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>201</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -1738,7 +1772,7 @@
         <v>-1025892.798203483</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1805,7 @@
         <v>-1024035.396603483</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1838,7 @@
         <v>-1023839.396603483</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1871,7 @@
         <v>-1023839.396603483</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1904,7 @@
         <v>-1024058.232603483</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2299,10 +2333,14 @@
         <v>-1025394.794803483</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>205</v>
+      </c>
+      <c r="J58" t="n">
+        <v>205</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
@@ -2334,9 +2372,17 @@
       <c r="H59" t="n">
         <v>1</v>
       </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>205</v>
+      </c>
+      <c r="J59" t="n">
+        <v>205</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2411,19 @@
         <v>-1025394.794803483</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>205</v>
+      </c>
+      <c r="J60" t="n">
+        <v>205</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,10 +2452,14 @@
         <v>-1025393.794803483</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>205</v>
+      </c>
+      <c r="J61" t="n">
+        <v>205</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
@@ -2433,9 +2491,17 @@
       <c r="H62" t="n">
         <v>1</v>
       </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>207</v>
+      </c>
+      <c r="J62" t="n">
+        <v>205</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2466,9 +2532,17 @@
       <c r="H63" t="n">
         <v>1</v>
       </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>207</v>
+      </c>
+      <c r="J63" t="n">
+        <v>205</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2499,9 +2573,17 @@
       <c r="H64" t="n">
         <v>1</v>
       </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>205</v>
+      </c>
+      <c r="J64" t="n">
+        <v>205</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2612,19 @@
         <v>-1034644.794803483</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>207</v>
+      </c>
+      <c r="J65" t="n">
+        <v>205</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2653,19 @@
         <v>-1034644.794803483</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>207</v>
+      </c>
+      <c r="J66" t="n">
+        <v>205</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2694,19 @@
         <v>-1034643.794803483</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>207</v>
+      </c>
+      <c r="J67" t="n">
+        <v>205</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2735,19 @@
         <v>-1035027.213003483</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>208</v>
+      </c>
+      <c r="J68" t="n">
+        <v>205</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2776,19 @@
         <v>-1035027.213003483</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>203</v>
+      </c>
+      <c r="J69" t="n">
+        <v>205</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2820,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>205</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +2859,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>205</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +2898,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>205</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +2937,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>205</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +2976,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>205</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3015,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>205</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3054,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>205</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3093,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>205</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3132,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>205</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3171,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>205</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3210,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>205</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3249,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>205</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3288,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>205</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3327,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>205</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3366,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>205</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3405,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>205</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3444,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>205</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3483,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>205</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3522,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>205</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3561,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>205</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3600,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>205</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3639,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>205</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3678,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>205</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3717,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>205</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3756,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>205</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3795,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>205</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3834,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>205</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3873,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>205</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3912,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>205</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +3951,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>205</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +3990,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>205</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4029,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>205</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4068,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>205</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4107,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>205</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4146,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>205</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4185,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>205</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4224,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>205</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4263,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>205</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4302,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>205</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4341,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>205</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,15 +4377,17 @@
         <v>-1041637.12447824</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>204</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>204</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
+        <v>205</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4056,11 +4420,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L111" t="n">
@@ -4095,11 +4459,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L112" t="n">
@@ -4133,8 +4497,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>205</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4166,8 +4536,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>205</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4199,8 +4575,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>205</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4232,8 +4614,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>205</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4265,8 +4653,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>205</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4298,8 +4692,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>205</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4331,8 +4731,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>205</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4364,8 +4770,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>205</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4397,8 +4809,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>205</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4430,8 +4848,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>205</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4463,8 +4887,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>205</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4496,8 +4926,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>205</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4529,8 +4965,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>205</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4562,8 +5004,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>205</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4595,8 +5043,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>205</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4628,8 +5082,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>205</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4661,8 +5121,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>205</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4694,8 +5160,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>205</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4727,8 +5199,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>205</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4760,8 +5238,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>205</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4793,8 +5277,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>205</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4826,8 +5316,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>205</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4859,8 +5355,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>205</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4892,8 +5394,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>205</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4925,8 +5433,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>205</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4958,8 +5472,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>205</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4991,8 +5511,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>205</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5024,8 +5550,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>205</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5057,8 +5589,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>205</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5090,8 +5628,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>205</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5123,8 +5667,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>205</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5156,8 +5706,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>205</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5189,8 +5745,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>205</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5222,8 +5784,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>205</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5252,11 +5820,17 @@
         <v>-1033332.69417824</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>205</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5288,8 +5862,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>205</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5321,8 +5901,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>205</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5354,8 +5940,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>205</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5387,8 +5979,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>205</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5420,8 +6018,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>205</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5453,8 +6057,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>205</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5486,8 +6096,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>205</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5519,8 +6135,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>205</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5552,8 +6174,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>205</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5585,8 +6213,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>205</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5618,8 +6252,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>205</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5648,11 +6288,17 @@
         <v>-1026382.72107824</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>205</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5681,11 +6327,17 @@
         <v>-1026380.72107824</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>205</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5714,13 +6366,19 @@
         <v>-1026365.19307824</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>205</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L161" t="n">
-        <v>1</v>
+        <v>1.048658536585366</v>
       </c>
       <c r="M161" t="inlineStr"/>
     </row>
@@ -5747,7 +6405,7 @@
         <v>-1027175.57007824</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5780,7 +6438,7 @@
         <v>-1027175.57007824</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5813,7 +6471,7 @@
         <v>-1027425.57007824</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5912,7 +6570,7 @@
         <v>-1033351.16713287</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5945,7 +6603,7 @@
         <v>-1036361.25233287</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5978,7 +6636,7 @@
         <v>-1034661.25233287</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6011,7 +6669,7 @@
         <v>-1037233.25233287</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -7232,11 +7890,17 @@
         <v>-1079832.235232869</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>200</v>
+      </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7265,11 +7929,17 @@
         <v>-1079832.235232869</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>202</v>
+      </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7302,7 +7972,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7335,7 +8009,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7368,7 +8046,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7401,7 +8083,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7434,7 +8120,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7467,7 +8157,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7500,7 +8194,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7533,7 +8231,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7566,7 +8268,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7599,7 +8305,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7632,7 +8342,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7665,7 +8379,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7698,7 +8416,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7731,7 +8453,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7764,7 +8490,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7797,7 +8527,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7830,7 +8564,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7863,7 +8601,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7896,7 +8638,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7929,7 +8675,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7962,7 +8712,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7995,7 +8749,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8028,7 +8786,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8061,7 +8823,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8094,7 +8860,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8127,7 +8897,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8160,7 +8934,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8193,7 +8971,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8226,7 +9008,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8259,7 +9045,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8292,7 +9082,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8325,7 +9119,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8358,7 +9156,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8391,7 +9193,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8424,7 +9230,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8457,7 +9267,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8490,7 +9304,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8523,7 +9341,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8556,7 +9378,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8589,7 +9415,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8622,7 +9452,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8655,7 +9489,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8688,7 +9526,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8721,7 +9563,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8754,7 +9600,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8787,7 +9637,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8820,7 +9674,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8853,7 +9711,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8886,7 +9748,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8915,15 +9781,15 @@
         <v>-1054308.066932869</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>207</v>
-      </c>
-      <c r="J258" t="n">
-        <v>207</v>
-      </c>
-      <c r="K258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8952,17 +9818,13 @@
         <v>-1054308.066932869</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="n">
-        <v>206</v>
-      </c>
-      <c r="J259" t="n">
-        <v>207</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L259" t="n">
@@ -8993,17 +9855,15 @@
         <v>-1054308.066932869</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>206</v>
       </c>
-      <c r="J260" t="n">
-        <v>207</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L260" t="n">
@@ -9034,15 +9894,17 @@
         <v>-1047887.762632869</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>206</v>
       </c>
-      <c r="J261" t="n">
-        <v>206</v>
-      </c>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9071,17 +9933,13 @@
         <v>-1053548.512632869</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="n">
-        <v>207</v>
-      </c>
-      <c r="J262" t="n">
-        <v>206</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L262" t="n">
@@ -9112,14 +9970,10 @@
         <v>-1052107.493632869</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="n">
-        <v>206</v>
-      </c>
-      <c r="J263" t="n">
-        <v>206</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9153,14 +10007,10 @@
         <v>-1044732.426332869</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="n">
-        <v>207</v>
-      </c>
-      <c r="J264" t="n">
-        <v>206</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9194,14 +10044,10 @@
         <v>-1039968.191032869</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="n">
-        <v>208</v>
-      </c>
-      <c r="J265" t="n">
-        <v>206</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9238,9 +10084,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>206</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9274,14 +10118,10 @@
         <v>-1050506.101432869</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="n">
-        <v>207</v>
-      </c>
-      <c r="J267" t="n">
-        <v>206</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9315,14 +10155,12 @@
         <v>-1050499.951032869</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>204</v>
       </c>
-      <c r="J268" t="n">
-        <v>206</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9356,14 +10194,12 @@
         <v>-1050499.951032869</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>206</v>
       </c>
-      <c r="J269" t="n">
-        <v>206</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9397,14 +10233,10 @@
         <v>-1050499.951032869</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>206</v>
-      </c>
-      <c r="J270" t="n">
-        <v>206</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9438,14 +10270,12 @@
         <v>-1050499.951032869</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>206</v>
       </c>
-      <c r="J271" t="n">
-        <v>206</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9479,14 +10309,12 @@
         <v>-1050499.951032869</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>206</v>
       </c>
-      <c r="J272" t="n">
-        <v>206</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9520,14 +10348,12 @@
         <v>-1050508.030732869</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>206</v>
       </c>
-      <c r="J273" t="n">
-        <v>206</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9561,14 +10387,10 @@
         <v>-1050222.082432869</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="n">
-        <v>205</v>
-      </c>
-      <c r="J274" t="n">
-        <v>206</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9602,14 +10424,10 @@
         <v>-1058286.945032869</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="n">
-        <v>206</v>
-      </c>
-      <c r="J275" t="n">
-        <v>206</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9643,14 +10461,10 @@
         <v>-1071085.253832869</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="n">
-        <v>205</v>
-      </c>
-      <c r="J276" t="n">
-        <v>206</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9684,14 +10498,12 @@
         <v>-1071085.253832869</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>204</v>
       </c>
-      <c r="J277" t="n">
-        <v>206</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9725,14 +10537,12 @@
         <v>-1071085.253832869</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>204</v>
       </c>
-      <c r="J278" t="n">
-        <v>206</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9766,14 +10576,12 @@
         <v>-1071085.253832869</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>204</v>
       </c>
-      <c r="J279" t="n">
-        <v>206</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9807,14 +10615,12 @@
         <v>-1071960.034532869</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>204</v>
       </c>
-      <c r="J280" t="n">
-        <v>206</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9848,14 +10654,12 @@
         <v>-1071960.034532869</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>203</v>
       </c>
-      <c r="J281" t="n">
-        <v>206</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9889,14 +10693,12 @@
         <v>-1071959.034532869</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>203</v>
       </c>
-      <c r="J282" t="n">
-        <v>206</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9930,14 +10732,10 @@
         <v>-1072226.034532869</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
-      </c>
-      <c r="I283" t="n">
-        <v>205</v>
-      </c>
-      <c r="J283" t="n">
-        <v>206</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9974,9 +10772,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>206</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10010,12 +10806,12 @@
         <v>-1072445.974832869</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>206</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>202</v>
+      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10049,12 +10845,12 @@
         <v>-1072445.974832869</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>206</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>202</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10088,12 +10884,12 @@
         <v>-1074019.349432869</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>206</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>202</v>
+      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10127,12 +10923,12 @@
         <v>-1074019.349432869</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>206</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>201</v>
+      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10166,14 +10962,12 @@
         <v>-1136757.654132869</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>201</v>
       </c>
-      <c r="J289" t="n">
-        <v>206</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10207,14 +11001,12 @@
         <v>-1136559.463932869</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>199</v>
       </c>
-      <c r="J290" t="n">
-        <v>206</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10248,12 +11040,12 @@
         <v>-1136559.463932869</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>206</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>200</v>
+      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10287,12 +11079,12 @@
         <v>-1136559.463932869</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>206</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>200</v>
+      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10326,12 +11118,12 @@
         <v>-1136559.463932869</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>206</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>200</v>
+      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10365,12 +11157,12 @@
         <v>-1135084.463932869</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>206</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>200</v>
+      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10404,12 +11196,12 @@
         <v>-1141389.037332869</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>206</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>201</v>
+      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10443,12 +11235,12 @@
         <v>-1136602.718532869</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>206</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>200</v>
+      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10482,12 +11274,12 @@
         <v>-1136605.562532869</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>206</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>201</v>
+      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10521,12 +11313,12 @@
         <v>-1143489.562532869</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>206</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>200</v>
+      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10560,12 +11352,12 @@
         <v>-1143254.922532869</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>206</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>199</v>
+      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10599,12 +11391,12 @@
         <v>-1143438.642432869</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>206</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>200</v>
+      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10638,12 +11430,12 @@
         <v>-1150007.701132869</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>206</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>199</v>
+      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10677,12 +11469,12 @@
         <v>-1149296.701232869</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>206</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>196</v>
+      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10716,12 +11508,12 @@
         <v>-1145394.352932869</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>206</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>199</v>
+      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10733,6 +11525,6 @@
       <c r="M303" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest KNC.xlsx
+++ b/BackTest/2019-10-26 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,14 +649,10 @@
         <v>-1039292.227503483</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>200</v>
-      </c>
-      <c r="J8" t="n">
-        <v>200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -689,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>200</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -725,19 +715,11 @@
         <v>-1039292.227503483</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>200</v>
-      </c>
-      <c r="J10" t="n">
-        <v>200</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -799,14 +781,10 @@
         <v>-1039070.902803483</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>201</v>
-      </c>
-      <c r="J12" t="n">
-        <v>201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -839,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>201</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -878,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>201</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -1112,7 +1078,7 @@
         <v>-1022986.287103483</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1178,7 +1144,7 @@
         <v>-1023550.183303483</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1211,7 +1177,7 @@
         <v>-1016093.616803483</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1244,7 +1210,7 @@
         <v>-1016283.616803483</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1277,7 +1243,7 @@
         <v>-1016408.758003483</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1310,7 +1276,7 @@
         <v>-1011347.810803483</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1343,7 +1309,7 @@
         <v>-1011631.033303483</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1376,7 +1342,7 @@
         <v>-1011631.033303483</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -2333,14 +2299,10 @@
         <v>-1025394.794803483</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>205</v>
-      </c>
-      <c r="J58" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
@@ -2370,19 +2332,11 @@
         <v>-1025394.794803483</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>205</v>
-      </c>
-      <c r="J59" t="n">
-        <v>205</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2411,19 +2365,11 @@
         <v>-1025394.794803483</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>205</v>
-      </c>
-      <c r="J60" t="n">
-        <v>205</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2452,14 +2398,10 @@
         <v>-1025393.794803483</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>205</v>
-      </c>
-      <c r="J61" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
@@ -2489,19 +2431,11 @@
         <v>-1025393.794803483</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>207</v>
-      </c>
-      <c r="J62" t="n">
-        <v>205</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2530,19 +2464,11 @@
         <v>-1034645.794803483</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>207</v>
-      </c>
-      <c r="J63" t="n">
-        <v>205</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2571,19 +2497,11 @@
         <v>-1034644.794803483</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>205</v>
-      </c>
-      <c r="J64" t="n">
-        <v>205</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2612,19 +2530,11 @@
         <v>-1034644.794803483</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>207</v>
-      </c>
-      <c r="J65" t="n">
-        <v>205</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2653,19 +2563,11 @@
         <v>-1034644.794803483</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>207</v>
-      </c>
-      <c r="J66" t="n">
-        <v>205</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2694,19 +2596,11 @@
         <v>-1034643.794803483</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>207</v>
-      </c>
-      <c r="J67" t="n">
-        <v>205</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2735,19 +2629,11 @@
         <v>-1035027.213003483</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>208</v>
-      </c>
-      <c r="J68" t="n">
-        <v>205</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2776,19 +2662,11 @@
         <v>-1035027.213003483</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>203</v>
-      </c>
-      <c r="J69" t="n">
-        <v>205</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2820,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>205</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2859,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>205</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2898,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>205</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2937,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>205</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2976,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>205</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3015,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>205</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3054,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>205</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3093,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>205</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3132,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>205</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3171,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>205</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3210,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>205</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3249,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>205</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3288,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>205</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3327,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>205</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3366,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>205</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3405,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>205</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3444,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>205</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3483,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>205</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3522,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>205</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3561,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>205</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3600,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>205</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3639,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>205</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3678,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>205</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3717,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>205</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3756,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>205</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3795,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>205</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3834,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>205</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3873,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>205</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3912,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>205</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3951,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>205</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3990,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>205</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4029,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>205</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4068,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>205</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4107,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>205</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4146,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>205</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4185,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>205</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4224,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>205</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4263,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>205</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4302,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>205</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4341,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>205</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4380,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>205</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4419,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>205</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4458,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>205</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4497,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>205</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4536,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>205</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4575,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>205</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4614,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>205</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4653,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>205</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4692,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>205</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4731,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>205</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4770,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>205</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4806,17 +4378,11 @@
         <v>-1033555.87597824</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>205</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4848,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>205</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4887,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>205</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4926,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>205</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4965,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>205</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5004,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>205</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5043,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>205</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5082,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>205</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5121,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>205</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5160,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>205</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5199,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>205</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5238,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>205</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5277,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>205</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5316,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>205</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5355,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>205</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5394,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>205</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5433,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>205</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5472,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>205</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5511,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>205</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5550,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>205</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5589,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>205</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5628,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>205</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5667,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>205</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5706,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>205</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5745,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>205</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5784,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>205</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5823,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>205</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5862,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>205</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5901,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>205</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5940,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>205</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5979,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>205</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6018,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>205</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6057,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>205</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6096,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>205</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6135,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>205</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6174,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>205</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6213,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>205</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6252,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>205</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6291,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>205</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6330,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>205</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6366,19 +5698,13 @@
         <v>-1026365.19307824</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>205</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
-        <v>1.048658536585366</v>
+        <v>1</v>
       </c>
       <c r="M161" t="inlineStr"/>
     </row>
@@ -6405,7 +5731,7 @@
         <v>-1027175.57007824</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6438,7 +5764,7 @@
         <v>-1027175.57007824</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6471,7 +5797,7 @@
         <v>-1027425.57007824</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -7890,241 +7216,239 @@
         <v>-1079832.235232869</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>202</v>
+      </c>
+      <c r="C208" t="n">
+        <v>202</v>
+      </c>
+      <c r="D208" t="n">
+        <v>202</v>
+      </c>
+      <c r="E208" t="n">
+        <v>202</v>
+      </c>
+      <c r="F208" t="n">
+        <v>245.8306</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-1079832.235232869</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>202</v>
+      </c>
+      <c r="C209" t="n">
+        <v>202</v>
+      </c>
+      <c r="D209" t="n">
+        <v>202</v>
+      </c>
+      <c r="E209" t="n">
+        <v>202</v>
+      </c>
+      <c r="F209" t="n">
+        <v>10092.5661</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-1079832.235232869</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>202</v>
+      </c>
+      <c r="J209" t="n">
+        <v>202</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>200</v>
+      </c>
+      <c r="C210" t="n">
+        <v>200</v>
+      </c>
+      <c r="D210" t="n">
+        <v>200</v>
+      </c>
+      <c r="E210" t="n">
+        <v>200</v>
+      </c>
+      <c r="F210" t="n">
+        <v>227.664</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-1080059.899232869</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>202</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>200</v>
+      </c>
+      <c r="C211" t="n">
+        <v>200</v>
+      </c>
+      <c r="D211" t="n">
+        <v>200</v>
+      </c>
+      <c r="E211" t="n">
+        <v>200</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-1080059.899232869</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>200</v>
+      </c>
+      <c r="J211" t="n">
+        <v>202</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>200</v>
+      </c>
+      <c r="C212" t="n">
+        <v>200</v>
+      </c>
+      <c r="D212" t="n">
+        <v>200</v>
+      </c>
+      <c r="E212" t="n">
+        <v>200</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1849.9999</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-1080059.899232869</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>200</v>
+      </c>
+      <c r="J212" t="n">
+        <v>200</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>200</v>
+      </c>
+      <c r="C213" t="n">
+        <v>199</v>
+      </c>
+      <c r="D213" t="n">
+        <v>200</v>
+      </c>
+      <c r="E213" t="n">
+        <v>199</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2351.6966</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-1082411.595832869</v>
+      </c>
+      <c r="H213" t="n">
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>200</v>
+      </c>
+      <c r="J213" t="n">
+        <v>200</v>
+      </c>
+      <c r="K213" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>202</v>
-      </c>
-      <c r="C208" t="n">
-        <v>202</v>
-      </c>
-      <c r="D208" t="n">
-        <v>202</v>
-      </c>
-      <c r="E208" t="n">
-        <v>202</v>
-      </c>
-      <c r="F208" t="n">
-        <v>245.8306</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-1079832.235232869</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>202</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>202</v>
-      </c>
-      <c r="C209" t="n">
-        <v>202</v>
-      </c>
-      <c r="D209" t="n">
-        <v>202</v>
-      </c>
-      <c r="E209" t="n">
-        <v>202</v>
-      </c>
-      <c r="F209" t="n">
-        <v>10092.5661</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-1079832.235232869</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>200</v>
-      </c>
-      <c r="C210" t="n">
-        <v>200</v>
-      </c>
-      <c r="D210" t="n">
-        <v>200</v>
-      </c>
-      <c r="E210" t="n">
-        <v>200</v>
-      </c>
-      <c r="F210" t="n">
-        <v>227.664</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-1080059.899232869</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>200</v>
-      </c>
-      <c r="C211" t="n">
-        <v>200</v>
-      </c>
-      <c r="D211" t="n">
-        <v>200</v>
-      </c>
-      <c r="E211" t="n">
-        <v>200</v>
-      </c>
-      <c r="F211" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-1080059.899232869</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>200</v>
-      </c>
-      <c r="C212" t="n">
-        <v>200</v>
-      </c>
-      <c r="D212" t="n">
-        <v>200</v>
-      </c>
-      <c r="E212" t="n">
-        <v>200</v>
-      </c>
-      <c r="F212" t="n">
-        <v>1849.9999</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-1080059.899232869</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>200</v>
-      </c>
-      <c r="C213" t="n">
-        <v>199</v>
-      </c>
-      <c r="D213" t="n">
-        <v>200</v>
-      </c>
-      <c r="E213" t="n">
-        <v>199</v>
-      </c>
-      <c r="F213" t="n">
-        <v>2351.6966</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-1082411.595832869</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8156,7 +7480,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>200</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8193,7 +7519,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>200</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8230,7 +7558,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>200</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8264,10 +7594,14 @@
         <v>-1079634.187232869</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>201</v>
+      </c>
+      <c r="J217" t="n">
+        <v>200</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8304,7 +7638,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>200</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8341,7 +7677,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>200</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8378,7 +7716,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>200</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8415,7 +7755,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>200</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8452,7 +7794,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>200</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8489,7 +7833,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>200</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8526,7 +7872,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>200</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8563,7 +7911,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>200</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8600,7 +7950,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>200</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8637,7 +7989,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>200</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8674,7 +8028,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>200</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8711,7 +8067,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>200</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8748,7 +8106,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>200</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8785,7 +8145,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>200</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8822,7 +8184,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>200</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8859,7 +8223,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>200</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8896,7 +8262,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>200</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8933,7 +8301,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>200</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8970,7 +8340,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>200</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9007,7 +8379,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>200</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9044,7 +8418,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>200</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9081,7 +8457,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>200</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9118,7 +8496,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>200</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9155,7 +8535,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>200</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9192,7 +8574,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>200</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9229,7 +8613,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>200</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9266,7 +8652,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>200</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9303,7 +8691,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>200</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9340,7 +8730,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>200</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9377,7 +8769,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>200</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9414,7 +8808,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>200</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9451,7 +8847,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>200</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9488,7 +8886,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>200</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9525,7 +8925,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>200</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9562,7 +8964,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>200</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9599,7 +9003,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>200</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9636,7 +9042,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>200</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9673,7 +9081,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>200</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9710,7 +9120,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>200</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9747,7 +9159,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>200</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9784,7 +9198,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>200</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9821,7 +9237,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>200</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9855,12 +9273,12 @@
         <v>-1054308.066932869</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>206</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>200</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9894,12 +9312,12 @@
         <v>-1047887.762632869</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>206</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>200</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9936,7 +9354,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>200</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9973,7 +9393,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>200</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10010,7 +9432,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>200</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10047,7 +9471,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>200</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10084,7 +9510,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>200</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10121,7 +9549,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>200</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10155,12 +9585,12 @@
         <v>-1050499.951032869</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>204</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>200</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10194,12 +9624,12 @@
         <v>-1050499.951032869</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>206</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>200</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10236,7 +9666,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>200</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10270,12 +9702,12 @@
         <v>-1050499.951032869</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>206</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>200</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10309,12 +9741,12 @@
         <v>-1050499.951032869</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>206</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>200</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10348,12 +9780,12 @@
         <v>-1050508.030732869</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>206</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>200</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10390,7 +9822,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>200</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10427,7 +9861,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>200</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10464,7 +9900,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>200</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10498,12 +9936,12 @@
         <v>-1071085.253832869</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>204</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>200</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10537,19 +9975,19 @@
         <v>-1071085.253832869</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>204</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>200</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L278" t="n">
-        <v>1</v>
+        <v>1.015</v>
       </c>
       <c r="M278" t="inlineStr"/>
     </row>
@@ -10576,17 +10014,11 @@
         <v>-1071085.253832869</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>204</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10615,17 +10047,11 @@
         <v>-1071960.034532869</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>204</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10654,17 +10080,11 @@
         <v>-1071960.034532869</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10693,17 +10113,11 @@
         <v>-1071959.034532869</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10736,11 +10150,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10773,11 +10183,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10806,17 +10212,11 @@
         <v>-1072445.974832869</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>202</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10845,17 +10245,11 @@
         <v>-1072445.974832869</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>202</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10884,17 +10278,11 @@
         <v>-1074019.349432869</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>202</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10923,17 +10311,11 @@
         <v>-1074019.349432869</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10962,17 +10344,11 @@
         <v>-1136757.654132869</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11001,17 +10377,11 @@
         <v>-1136559.463932869</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>199</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11040,17 +10410,11 @@
         <v>-1136559.463932869</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11079,17 +10443,11 @@
         <v>-1136559.463932869</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11118,17 +10476,11 @@
         <v>-1136559.463932869</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11157,17 +10509,11 @@
         <v>-1135084.463932869</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11196,17 +10542,11 @@
         <v>-1141389.037332869</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11235,17 +10575,11 @@
         <v>-1136602.718532869</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11274,17 +10608,11 @@
         <v>-1136605.562532869</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11313,17 +10641,11 @@
         <v>-1143489.562532869</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11352,17 +10674,11 @@
         <v>-1143254.922532869</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>199</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11391,17 +10707,11 @@
         <v>-1143438.642432869</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11430,17 +10740,11 @@
         <v>-1150007.701132869</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>199</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11474,12 +10778,10 @@
       <c r="I302" t="n">
         <v>196</v>
       </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="n">
+        <v>196</v>
+      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11513,10 +10815,12 @@
       <c r="I303" t="n">
         <v>199</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>196</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L303" t="n">
@@ -11525,6 +10829,6 @@
       <c r="M303" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest KNC.xlsx
+++ b/BackTest/2019-10-26 BackTest KNC.xlsx
@@ -1078,7 +1078,7 @@
         <v>-1022986.287103483</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1023550.183303483</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1016093.616803483</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1016283.616803483</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1016408.758003483</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1011347.810803483</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1011631.033303483</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1011631.033303483</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-1033555.87597824</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-1033331.69417824</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1033331.69417824</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1033331.69417824</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1033331.69417824</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1033331.69417824</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1028591.78847824</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-1026380.63307824</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-1026382.72107824</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-1026380.72107824</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-1026365.19307824</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1027175.57007824</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1027175.57007824</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1027425.57007824</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-1036433.29013287</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7282,14 +7282,10 @@
         <v>-1079832.235232869</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>202</v>
-      </c>
-      <c r="J209" t="n">
-        <v>202</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
@@ -7322,2124 +7318,1816 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>200</v>
+      </c>
+      <c r="C211" t="n">
+        <v>200</v>
+      </c>
+      <c r="D211" t="n">
+        <v>200</v>
+      </c>
+      <c r="E211" t="n">
+        <v>200</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-1080059.899232869</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>200</v>
+      </c>
+      <c r="C212" t="n">
+        <v>200</v>
+      </c>
+      <c r="D212" t="n">
+        <v>200</v>
+      </c>
+      <c r="E212" t="n">
+        <v>200</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1849.9999</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-1080059.899232869</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>200</v>
+      </c>
+      <c r="C213" t="n">
+        <v>199</v>
+      </c>
+      <c r="D213" t="n">
+        <v>200</v>
+      </c>
+      <c r="E213" t="n">
+        <v>199</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2351.6966</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-1082411.595832869</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>200</v>
+      </c>
+      <c r="C214" t="n">
+        <v>200</v>
+      </c>
+      <c r="D214" t="n">
+        <v>200</v>
+      </c>
+      <c r="E214" t="n">
+        <v>200</v>
+      </c>
+      <c r="F214" t="n">
+        <v>478.4691</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-1081933.126732869</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>200</v>
+      </c>
+      <c r="C215" t="n">
+        <v>200</v>
+      </c>
+      <c r="D215" t="n">
+        <v>200</v>
+      </c>
+      <c r="E215" t="n">
+        <v>200</v>
+      </c>
+      <c r="F215" t="n">
+        <v>3920.3302</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-1081933.126732869</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>201</v>
+      </c>
+      <c r="C216" t="n">
+        <v>201</v>
+      </c>
+      <c r="D216" t="n">
+        <v>201</v>
+      </c>
+      <c r="E216" t="n">
+        <v>201</v>
+      </c>
+      <c r="F216" t="n">
+        <v>99.25230000000001</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-1081833.874432869</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
         <v>202</v>
       </c>
-      <c r="K210" t="inlineStr">
+      <c r="C217" t="n">
+        <v>202</v>
+      </c>
+      <c r="D217" t="n">
+        <v>202</v>
+      </c>
+      <c r="E217" t="n">
+        <v>202</v>
+      </c>
+      <c r="F217" t="n">
+        <v>2199.6872</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-1079634.187232869</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>201</v>
+      </c>
+      <c r="C218" t="n">
+        <v>201</v>
+      </c>
+      <c r="D218" t="n">
+        <v>201</v>
+      </c>
+      <c r="E218" t="n">
+        <v>201</v>
+      </c>
+      <c r="F218" t="n">
+        <v>229.3414</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-1079863.528632869</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>202</v>
+      </c>
+      <c r="C219" t="n">
+        <v>202</v>
+      </c>
+      <c r="D219" t="n">
+        <v>202</v>
+      </c>
+      <c r="E219" t="n">
+        <v>202</v>
+      </c>
+      <c r="F219" t="n">
+        <v>19.7227</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-1079843.805932869</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>202</v>
+      </c>
+      <c r="C220" t="n">
+        <v>202</v>
+      </c>
+      <c r="D220" t="n">
+        <v>202</v>
+      </c>
+      <c r="E220" t="n">
+        <v>202</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2849.6485</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-1079843.805932869</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>203</v>
+      </c>
+      <c r="C221" t="n">
+        <v>203</v>
+      </c>
+      <c r="D221" t="n">
+        <v>203</v>
+      </c>
+      <c r="E221" t="n">
+        <v>203</v>
+      </c>
+      <c r="F221" t="n">
+        <v>3443.3496</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-1076400.456332869</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>203</v>
+      </c>
+      <c r="C222" t="n">
+        <v>203</v>
+      </c>
+      <c r="D222" t="n">
+        <v>203</v>
+      </c>
+      <c r="E222" t="n">
+        <v>203</v>
+      </c>
+      <c r="F222" t="n">
+        <v>4741.1021</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-1076400.456332869</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>204</v>
+      </c>
+      <c r="C223" t="n">
+        <v>204</v>
+      </c>
+      <c r="D223" t="n">
+        <v>204</v>
+      </c>
+      <c r="E223" t="n">
+        <v>204</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-1076399.456332869</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>203</v>
+      </c>
+      <c r="C224" t="n">
+        <v>204</v>
+      </c>
+      <c r="D224" t="n">
+        <v>204</v>
+      </c>
+      <c r="E224" t="n">
+        <v>203</v>
+      </c>
+      <c r="F224" t="n">
+        <v>20.6733</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-1076399.456332869</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>203</v>
+      </c>
+      <c r="C225" t="n">
+        <v>204</v>
+      </c>
+      <c r="D225" t="n">
+        <v>204</v>
+      </c>
+      <c r="E225" t="n">
+        <v>203</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1168.9997</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-1076399.456332869</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>204</v>
+      </c>
+      <c r="C226" t="n">
+        <v>204</v>
+      </c>
+      <c r="D226" t="n">
+        <v>204</v>
+      </c>
+      <c r="E226" t="n">
+        <v>204</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2273.7158</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-1076399.456332869</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>204</v>
+      </c>
+      <c r="C227" t="n">
+        <v>204</v>
+      </c>
+      <c r="D227" t="n">
+        <v>204</v>
+      </c>
+      <c r="E227" t="n">
+        <v>204</v>
+      </c>
+      <c r="F227" t="n">
+        <v>791.6772999999999</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-1076399.456332869</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>204</v>
+      </c>
+      <c r="C228" t="n">
+        <v>204</v>
+      </c>
+      <c r="D228" t="n">
+        <v>204</v>
+      </c>
+      <c r="E228" t="n">
+        <v>204</v>
+      </c>
+      <c r="F228" t="n">
+        <v>149.2429</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-1076399.456332869</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>204</v>
+      </c>
+      <c r="C229" t="n">
+        <v>204</v>
+      </c>
+      <c r="D229" t="n">
+        <v>204</v>
+      </c>
+      <c r="E229" t="n">
+        <v>204</v>
+      </c>
+      <c r="F229" t="n">
+        <v>22553.4908</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-1076399.456332869</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>204</v>
+      </c>
+      <c r="C230" t="n">
+        <v>204</v>
+      </c>
+      <c r="D230" t="n">
+        <v>204</v>
+      </c>
+      <c r="E230" t="n">
+        <v>204</v>
+      </c>
+      <c r="F230" t="n">
+        <v>44929.9484</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-1076399.456332869</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>204</v>
+      </c>
+      <c r="C231" t="n">
+        <v>204</v>
+      </c>
+      <c r="D231" t="n">
+        <v>204</v>
+      </c>
+      <c r="E231" t="n">
+        <v>204</v>
+      </c>
+      <c r="F231" t="n">
+        <v>175629.2444</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-1076399.456332869</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>204</v>
+      </c>
+      <c r="C232" t="n">
+        <v>204</v>
+      </c>
+      <c r="D232" t="n">
+        <v>204</v>
+      </c>
+      <c r="E232" t="n">
+        <v>204</v>
+      </c>
+      <c r="F232" t="n">
+        <v>112776.2683</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-1076399.456332869</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>204</v>
+      </c>
+      <c r="C233" t="n">
+        <v>205</v>
+      </c>
+      <c r="D233" t="n">
+        <v>205</v>
+      </c>
+      <c r="E233" t="n">
+        <v>204</v>
+      </c>
+      <c r="F233" t="n">
+        <v>19603.7977</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-1056795.658632869</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>206</v>
+      </c>
+      <c r="C234" t="n">
+        <v>207</v>
+      </c>
+      <c r="D234" t="n">
+        <v>207</v>
+      </c>
+      <c r="E234" t="n">
+        <v>206</v>
+      </c>
+      <c r="F234" t="n">
+        <v>2228.5024</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-1054567.156232869</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>206</v>
+      </c>
+      <c r="C235" t="n">
+        <v>206</v>
+      </c>
+      <c r="D235" t="n">
+        <v>206</v>
+      </c>
+      <c r="E235" t="n">
+        <v>206</v>
+      </c>
+      <c r="F235" t="n">
+        <v>6988.262</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-1061555.418232869</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>206</v>
+      </c>
+      <c r="C236" t="n">
+        <v>206</v>
+      </c>
+      <c r="D236" t="n">
+        <v>206</v>
+      </c>
+      <c r="E236" t="n">
+        <v>206</v>
+      </c>
+      <c r="F236" t="n">
+        <v>451.9999</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-1061555.418232869</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>207</v>
+      </c>
+      <c r="C237" t="n">
+        <v>207</v>
+      </c>
+      <c r="D237" t="n">
+        <v>207</v>
+      </c>
+      <c r="E237" t="n">
+        <v>207</v>
+      </c>
+      <c r="F237" t="n">
+        <v>544</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-1061011.418232869</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>207</v>
+      </c>
+      <c r="C238" t="n">
+        <v>207</v>
+      </c>
+      <c r="D238" t="n">
+        <v>207</v>
+      </c>
+      <c r="E238" t="n">
+        <v>207</v>
+      </c>
+      <c r="F238" t="n">
+        <v>54</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-1061011.418232869</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>206</v>
+      </c>
+      <c r="C239" t="n">
+        <v>206</v>
+      </c>
+      <c r="D239" t="n">
+        <v>206</v>
+      </c>
+      <c r="E239" t="n">
+        <v>206</v>
+      </c>
+      <c r="F239" t="n">
+        <v>250</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-1061261.418232869</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>206</v>
+      </c>
+      <c r="C240" t="n">
+        <v>206</v>
+      </c>
+      <c r="D240" t="n">
+        <v>206</v>
+      </c>
+      <c r="E240" t="n">
+        <v>206</v>
+      </c>
+      <c r="F240" t="n">
+        <v>547.8339999999999</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-1061261.418232869</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>207</v>
+      </c>
+      <c r="C241" t="n">
+        <v>207</v>
+      </c>
+      <c r="D241" t="n">
+        <v>207</v>
+      </c>
+      <c r="E241" t="n">
+        <v>207</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1575.8761</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-1059685.542132869</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>207</v>
+      </c>
+      <c r="C242" t="n">
+        <v>207</v>
+      </c>
+      <c r="D242" t="n">
+        <v>207</v>
+      </c>
+      <c r="E242" t="n">
+        <v>207</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1076.2666</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-1059685.542132869</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>207</v>
+      </c>
+      <c r="C243" t="n">
+        <v>207</v>
+      </c>
+      <c r="D243" t="n">
+        <v>207</v>
+      </c>
+      <c r="E243" t="n">
+        <v>207</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-1059685.542132869</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>208</v>
+      </c>
+      <c r="C244" t="n">
+        <v>208</v>
+      </c>
+      <c r="D244" t="n">
+        <v>208</v>
+      </c>
+      <c r="E244" t="n">
+        <v>208</v>
+      </c>
+      <c r="F244" t="n">
+        <v>863.5432</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-1058821.998932869</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>207</v>
+      </c>
+      <c r="C245" t="n">
+        <v>207</v>
+      </c>
+      <c r="D245" t="n">
+        <v>207</v>
+      </c>
+      <c r="E245" t="n">
+        <v>207</v>
+      </c>
+      <c r="F245" t="n">
+        <v>99.99760000000001</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-1058921.996532869</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>206</v>
+      </c>
+      <c r="C246" t="n">
+        <v>206</v>
+      </c>
+      <c r="D246" t="n">
+        <v>206</v>
+      </c>
+      <c r="E246" t="n">
+        <v>206</v>
+      </c>
+      <c r="F246" t="n">
+        <v>54.2935</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-1058976.290032869</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>207</v>
+      </c>
+      <c r="C247" t="n">
+        <v>207</v>
+      </c>
+      <c r="D247" t="n">
+        <v>207</v>
+      </c>
+      <c r="E247" t="n">
+        <v>207</v>
+      </c>
+      <c r="F247" t="n">
+        <v>394.7301</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-1058581.559932869</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>207</v>
+      </c>
+      <c r="C248" t="n">
+        <v>207</v>
+      </c>
+      <c r="D248" t="n">
+        <v>207</v>
+      </c>
+      <c r="E248" t="n">
+        <v>207</v>
+      </c>
+      <c r="F248" t="n">
+        <v>200</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-1058581.559932869</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>207</v>
+      </c>
+      <c r="C249" t="n">
+        <v>208</v>
+      </c>
+      <c r="D249" t="n">
+        <v>208</v>
+      </c>
+      <c r="E249" t="n">
+        <v>207</v>
+      </c>
+      <c r="F249" t="n">
+        <v>358.8606</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-1058222.699332869</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>208</v>
+      </c>
+      <c r="C250" t="n">
+        <v>208</v>
+      </c>
+      <c r="D250" t="n">
+        <v>208</v>
+      </c>
+      <c r="E250" t="n">
+        <v>208</v>
+      </c>
+      <c r="F250" t="n">
+        <v>543.8804</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-1058222.699332869</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>209</v>
+      </c>
+      <c r="C251" t="n">
+        <v>209</v>
+      </c>
+      <c r="D251" t="n">
+        <v>209</v>
+      </c>
+      <c r="E251" t="n">
+        <v>209</v>
+      </c>
+      <c r="F251" t="n">
+        <v>5669.8048</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-1052552.894532869</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>209</v>
+      </c>
+      <c r="C252" t="n">
+        <v>209</v>
+      </c>
+      <c r="D252" t="n">
+        <v>209</v>
+      </c>
+      <c r="E252" t="n">
+        <v>209</v>
+      </c>
+      <c r="F252" t="n">
+        <v>257.3301</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-1052552.894532869</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>209</v>
+      </c>
+      <c r="C253" t="n">
+        <v>209</v>
+      </c>
+      <c r="D253" t="n">
+        <v>209</v>
+      </c>
+      <c r="E253" t="n">
+        <v>209</v>
+      </c>
+      <c r="F253" t="n">
+        <v>151.4176</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-1052552.894532869</v>
+      </c>
+      <c r="H253" t="n">
+        <v>2</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>209</v>
+      </c>
+      <c r="C254" t="n">
+        <v>209</v>
+      </c>
+      <c r="D254" t="n">
+        <v>209</v>
+      </c>
+      <c r="E254" t="n">
+        <v>209</v>
+      </c>
+      <c r="F254" t="n">
+        <v>304</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-1052552.894532869</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>209</v>
+      </c>
+      <c r="C255" t="n">
+        <v>209</v>
+      </c>
+      <c r="D255" t="n">
+        <v>209</v>
+      </c>
+      <c r="E255" t="n">
+        <v>209</v>
+      </c>
+      <c r="F255" t="n">
+        <v>156</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-1052552.894532869</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>209</v>
+      </c>
+      <c r="C256" t="n">
+        <v>209</v>
+      </c>
+      <c r="D256" t="n">
+        <v>209</v>
+      </c>
+      <c r="E256" t="n">
+        <v>209</v>
+      </c>
+      <c r="F256" t="n">
+        <v>102.0317</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-1052552.894532869</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>207</v>
+      </c>
+      <c r="C257" t="n">
+        <v>207</v>
+      </c>
+      <c r="D257" t="n">
+        <v>207</v>
+      </c>
+      <c r="E257" t="n">
+        <v>207</v>
+      </c>
+      <c r="F257" t="n">
+        <v>221.0018</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-1052773.896332869</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>206</v>
+      </c>
+      <c r="C258" t="n">
+        <v>206</v>
+      </c>
+      <c r="D258" t="n">
+        <v>206</v>
+      </c>
+      <c r="E258" t="n">
+        <v>206</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1534.1706</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-1054308.066932869</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>206</v>
+      </c>
+      <c r="C259" t="n">
+        <v>206</v>
+      </c>
+      <c r="D259" t="n">
+        <v>206</v>
+      </c>
+      <c r="E259" t="n">
+        <v>206</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1149.9999</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-1054308.066932869</v>
+      </c>
+      <c r="H259" t="n">
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>206</v>
+      </c>
+      <c r="J259" t="n">
+        <v>206</v>
+      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>206</v>
+      </c>
+      <c r="C260" t="n">
+        <v>206</v>
+      </c>
+      <c r="D260" t="n">
+        <v>206</v>
+      </c>
+      <c r="E260" t="n">
+        <v>206</v>
+      </c>
+      <c r="F260" t="n">
+        <v>407.7805</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-1054308.066932869</v>
+      </c>
+      <c r="H260" t="n">
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>206</v>
+      </c>
+      <c r="J260" t="n">
+        <v>206</v>
+      </c>
+      <c r="K260" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>200</v>
-      </c>
-      <c r="C211" t="n">
-        <v>200</v>
-      </c>
-      <c r="D211" t="n">
-        <v>200</v>
-      </c>
-      <c r="E211" t="n">
-        <v>200</v>
-      </c>
-      <c r="F211" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-1080059.899232869</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>200</v>
-      </c>
-      <c r="J211" t="n">
-        <v>202</v>
-      </c>
-      <c r="K211" t="inlineStr">
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>207</v>
+      </c>
+      <c r="C261" t="n">
+        <v>207</v>
+      </c>
+      <c r="D261" t="n">
+        <v>207</v>
+      </c>
+      <c r="E261" t="n">
+        <v>207</v>
+      </c>
+      <c r="F261" t="n">
+        <v>6420.3043</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-1047887.762632869</v>
+      </c>
+      <c r="H261" t="n">
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>206</v>
+      </c>
+      <c r="J261" t="n">
+        <v>206</v>
+      </c>
+      <c r="K261" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>200</v>
-      </c>
-      <c r="C212" t="n">
-        <v>200</v>
-      </c>
-      <c r="D212" t="n">
-        <v>200</v>
-      </c>
-      <c r="E212" t="n">
-        <v>200</v>
-      </c>
-      <c r="F212" t="n">
-        <v>1849.9999</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-1080059.899232869</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>200</v>
-      </c>
-      <c r="J212" t="n">
-        <v>200</v>
-      </c>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>200</v>
-      </c>
-      <c r="C213" t="n">
-        <v>199</v>
-      </c>
-      <c r="D213" t="n">
-        <v>200</v>
-      </c>
-      <c r="E213" t="n">
-        <v>199</v>
-      </c>
-      <c r="F213" t="n">
-        <v>2351.6966</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-1082411.595832869</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>200</v>
-      </c>
-      <c r="J213" t="n">
-        <v>200</v>
-      </c>
-      <c r="K213" t="inlineStr">
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>208</v>
+      </c>
+      <c r="C262" t="n">
+        <v>206</v>
+      </c>
+      <c r="D262" t="n">
+        <v>208</v>
+      </c>
+      <c r="E262" t="n">
+        <v>206</v>
+      </c>
+      <c r="F262" t="n">
+        <v>5660.75</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-1053548.512632869</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>207</v>
+      </c>
+      <c r="C263" t="n">
+        <v>207</v>
+      </c>
+      <c r="D263" t="n">
+        <v>207</v>
+      </c>
+      <c r="E263" t="n">
+        <v>206</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1441.019</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-1052107.493632869</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>208</v>
+      </c>
+      <c r="C264" t="n">
+        <v>208</v>
+      </c>
+      <c r="D264" t="n">
+        <v>208</v>
+      </c>
+      <c r="E264" t="n">
+        <v>207</v>
+      </c>
+      <c r="F264" t="n">
+        <v>7375.0673</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-1044732.426332869</v>
+      </c>
+      <c r="H264" t="n">
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>207</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>200</v>
-      </c>
-      <c r="C214" t="n">
-        <v>200</v>
-      </c>
-      <c r="D214" t="n">
-        <v>200</v>
-      </c>
-      <c r="E214" t="n">
-        <v>200</v>
-      </c>
-      <c r="F214" t="n">
-        <v>478.4691</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-1081933.126732869</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>200</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>200</v>
-      </c>
-      <c r="C215" t="n">
-        <v>200</v>
-      </c>
-      <c r="D215" t="n">
-        <v>200</v>
-      </c>
-      <c r="E215" t="n">
-        <v>200</v>
-      </c>
-      <c r="F215" t="n">
-        <v>3920.3302</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-1081933.126732869</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>200</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>201</v>
-      </c>
-      <c r="C216" t="n">
-        <v>201</v>
-      </c>
-      <c r="D216" t="n">
-        <v>201</v>
-      </c>
-      <c r="E216" t="n">
-        <v>201</v>
-      </c>
-      <c r="F216" t="n">
-        <v>99.25230000000001</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-1081833.874432869</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>200</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>202</v>
-      </c>
-      <c r="C217" t="n">
-        <v>202</v>
-      </c>
-      <c r="D217" t="n">
-        <v>202</v>
-      </c>
-      <c r="E217" t="n">
-        <v>202</v>
-      </c>
-      <c r="F217" t="n">
-        <v>2199.6872</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-1079634.187232869</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>201</v>
-      </c>
-      <c r="J217" t="n">
-        <v>200</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>201</v>
-      </c>
-      <c r="C218" t="n">
-        <v>201</v>
-      </c>
-      <c r="D218" t="n">
-        <v>201</v>
-      </c>
-      <c r="E218" t="n">
-        <v>201</v>
-      </c>
-      <c r="F218" t="n">
-        <v>229.3414</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-1079863.528632869</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>200</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>202</v>
-      </c>
-      <c r="C219" t="n">
-        <v>202</v>
-      </c>
-      <c r="D219" t="n">
-        <v>202</v>
-      </c>
-      <c r="E219" t="n">
-        <v>202</v>
-      </c>
-      <c r="F219" t="n">
-        <v>19.7227</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-1079843.805932869</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>200</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>202</v>
-      </c>
-      <c r="C220" t="n">
-        <v>202</v>
-      </c>
-      <c r="D220" t="n">
-        <v>202</v>
-      </c>
-      <c r="E220" t="n">
-        <v>202</v>
-      </c>
-      <c r="F220" t="n">
-        <v>2849.6485</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-1079843.805932869</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>200</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>203</v>
-      </c>
-      <c r="C221" t="n">
-        <v>203</v>
-      </c>
-      <c r="D221" t="n">
-        <v>203</v>
-      </c>
-      <c r="E221" t="n">
-        <v>203</v>
-      </c>
-      <c r="F221" t="n">
-        <v>3443.3496</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-1076400.456332869</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>200</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>203</v>
-      </c>
-      <c r="C222" t="n">
-        <v>203</v>
-      </c>
-      <c r="D222" t="n">
-        <v>203</v>
-      </c>
-      <c r="E222" t="n">
-        <v>203</v>
-      </c>
-      <c r="F222" t="n">
-        <v>4741.1021</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-1076400.456332869</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>200</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>204</v>
-      </c>
-      <c r="C223" t="n">
-        <v>204</v>
-      </c>
-      <c r="D223" t="n">
-        <v>204</v>
-      </c>
-      <c r="E223" t="n">
-        <v>204</v>
-      </c>
-      <c r="F223" t="n">
-        <v>1</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-1076399.456332869</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>200</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>203</v>
-      </c>
-      <c r="C224" t="n">
-        <v>204</v>
-      </c>
-      <c r="D224" t="n">
-        <v>204</v>
-      </c>
-      <c r="E224" t="n">
-        <v>203</v>
-      </c>
-      <c r="F224" t="n">
-        <v>20.6733</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-1076399.456332869</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>200</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>203</v>
-      </c>
-      <c r="C225" t="n">
-        <v>204</v>
-      </c>
-      <c r="D225" t="n">
-        <v>204</v>
-      </c>
-      <c r="E225" t="n">
-        <v>203</v>
-      </c>
-      <c r="F225" t="n">
-        <v>1168.9997</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-1076399.456332869</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>200</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>204</v>
-      </c>
-      <c r="C226" t="n">
-        <v>204</v>
-      </c>
-      <c r="D226" t="n">
-        <v>204</v>
-      </c>
-      <c r="E226" t="n">
-        <v>204</v>
-      </c>
-      <c r="F226" t="n">
-        <v>2273.7158</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-1076399.456332869</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>200</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>204</v>
-      </c>
-      <c r="C227" t="n">
-        <v>204</v>
-      </c>
-      <c r="D227" t="n">
-        <v>204</v>
-      </c>
-      <c r="E227" t="n">
-        <v>204</v>
-      </c>
-      <c r="F227" t="n">
-        <v>791.6772999999999</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-1076399.456332869</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>200</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>204</v>
-      </c>
-      <c r="C228" t="n">
-        <v>204</v>
-      </c>
-      <c r="D228" t="n">
-        <v>204</v>
-      </c>
-      <c r="E228" t="n">
-        <v>204</v>
-      </c>
-      <c r="F228" t="n">
-        <v>149.2429</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-1076399.456332869</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>200</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>204</v>
-      </c>
-      <c r="C229" t="n">
-        <v>204</v>
-      </c>
-      <c r="D229" t="n">
-        <v>204</v>
-      </c>
-      <c r="E229" t="n">
-        <v>204</v>
-      </c>
-      <c r="F229" t="n">
-        <v>22553.4908</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-1076399.456332869</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>200</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>204</v>
-      </c>
-      <c r="C230" t="n">
-        <v>204</v>
-      </c>
-      <c r="D230" t="n">
-        <v>204</v>
-      </c>
-      <c r="E230" t="n">
-        <v>204</v>
-      </c>
-      <c r="F230" t="n">
-        <v>44929.9484</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-1076399.456332869</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>200</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>204</v>
-      </c>
-      <c r="C231" t="n">
-        <v>204</v>
-      </c>
-      <c r="D231" t="n">
-        <v>204</v>
-      </c>
-      <c r="E231" t="n">
-        <v>204</v>
-      </c>
-      <c r="F231" t="n">
-        <v>175629.2444</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-1076399.456332869</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>200</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>204</v>
-      </c>
-      <c r="C232" t="n">
-        <v>204</v>
-      </c>
-      <c r="D232" t="n">
-        <v>204</v>
-      </c>
-      <c r="E232" t="n">
-        <v>204</v>
-      </c>
-      <c r="F232" t="n">
-        <v>112776.2683</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-1076399.456332869</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>200</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>204</v>
-      </c>
-      <c r="C233" t="n">
-        <v>205</v>
-      </c>
-      <c r="D233" t="n">
-        <v>205</v>
-      </c>
-      <c r="E233" t="n">
-        <v>204</v>
-      </c>
-      <c r="F233" t="n">
-        <v>19603.7977</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-1056795.658632869</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>200</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>206</v>
-      </c>
-      <c r="C234" t="n">
-        <v>207</v>
-      </c>
-      <c r="D234" t="n">
-        <v>207</v>
-      </c>
-      <c r="E234" t="n">
-        <v>206</v>
-      </c>
-      <c r="F234" t="n">
-        <v>2228.5024</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-1054567.156232869</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>200</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>206</v>
-      </c>
-      <c r="C235" t="n">
-        <v>206</v>
-      </c>
-      <c r="D235" t="n">
-        <v>206</v>
-      </c>
-      <c r="E235" t="n">
-        <v>206</v>
-      </c>
-      <c r="F235" t="n">
-        <v>6988.262</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-1061555.418232869</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>200</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>206</v>
-      </c>
-      <c r="C236" t="n">
-        <v>206</v>
-      </c>
-      <c r="D236" t="n">
-        <v>206</v>
-      </c>
-      <c r="E236" t="n">
-        <v>206</v>
-      </c>
-      <c r="F236" t="n">
-        <v>451.9999</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-1061555.418232869</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>200</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>207</v>
-      </c>
-      <c r="C237" t="n">
-        <v>207</v>
-      </c>
-      <c r="D237" t="n">
-        <v>207</v>
-      </c>
-      <c r="E237" t="n">
-        <v>207</v>
-      </c>
-      <c r="F237" t="n">
-        <v>544</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-1061011.418232869</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>200</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>207</v>
-      </c>
-      <c r="C238" t="n">
-        <v>207</v>
-      </c>
-      <c r="D238" t="n">
-        <v>207</v>
-      </c>
-      <c r="E238" t="n">
-        <v>207</v>
-      </c>
-      <c r="F238" t="n">
-        <v>54</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-1061011.418232869</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>200</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>206</v>
-      </c>
-      <c r="C239" t="n">
-        <v>206</v>
-      </c>
-      <c r="D239" t="n">
-        <v>206</v>
-      </c>
-      <c r="E239" t="n">
-        <v>206</v>
-      </c>
-      <c r="F239" t="n">
-        <v>250</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-1061261.418232869</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>200</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>206</v>
-      </c>
-      <c r="C240" t="n">
-        <v>206</v>
-      </c>
-      <c r="D240" t="n">
-        <v>206</v>
-      </c>
-      <c r="E240" t="n">
-        <v>206</v>
-      </c>
-      <c r="F240" t="n">
-        <v>547.8339999999999</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-1061261.418232869</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>200</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>207</v>
-      </c>
-      <c r="C241" t="n">
-        <v>207</v>
-      </c>
-      <c r="D241" t="n">
-        <v>207</v>
-      </c>
-      <c r="E241" t="n">
-        <v>207</v>
-      </c>
-      <c r="F241" t="n">
-        <v>1575.8761</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-1059685.542132869</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>200</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>207</v>
-      </c>
-      <c r="C242" t="n">
-        <v>207</v>
-      </c>
-      <c r="D242" t="n">
-        <v>207</v>
-      </c>
-      <c r="E242" t="n">
-        <v>207</v>
-      </c>
-      <c r="F242" t="n">
-        <v>1076.2666</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-1059685.542132869</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>200</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>207</v>
-      </c>
-      <c r="C243" t="n">
-        <v>207</v>
-      </c>
-      <c r="D243" t="n">
-        <v>207</v>
-      </c>
-      <c r="E243" t="n">
-        <v>207</v>
-      </c>
-      <c r="F243" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-1059685.542132869</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>200</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>208</v>
-      </c>
-      <c r="C244" t="n">
-        <v>208</v>
-      </c>
-      <c r="D244" t="n">
-        <v>208</v>
-      </c>
-      <c r="E244" t="n">
-        <v>208</v>
-      </c>
-      <c r="F244" t="n">
-        <v>863.5432</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-1058821.998932869</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>200</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>207</v>
-      </c>
-      <c r="C245" t="n">
-        <v>207</v>
-      </c>
-      <c r="D245" t="n">
-        <v>207</v>
-      </c>
-      <c r="E245" t="n">
-        <v>207</v>
-      </c>
-      <c r="F245" t="n">
-        <v>99.99760000000001</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-1058921.996532869</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>200</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>206</v>
-      </c>
-      <c r="C246" t="n">
-        <v>206</v>
-      </c>
-      <c r="D246" t="n">
-        <v>206</v>
-      </c>
-      <c r="E246" t="n">
-        <v>206</v>
-      </c>
-      <c r="F246" t="n">
-        <v>54.2935</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-1058976.290032869</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>200</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>207</v>
-      </c>
-      <c r="C247" t="n">
-        <v>207</v>
-      </c>
-      <c r="D247" t="n">
-        <v>207</v>
-      </c>
-      <c r="E247" t="n">
-        <v>207</v>
-      </c>
-      <c r="F247" t="n">
-        <v>394.7301</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-1058581.559932869</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>200</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>207</v>
-      </c>
-      <c r="C248" t="n">
-        <v>207</v>
-      </c>
-      <c r="D248" t="n">
-        <v>207</v>
-      </c>
-      <c r="E248" t="n">
-        <v>207</v>
-      </c>
-      <c r="F248" t="n">
-        <v>200</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-1058581.559932869</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>200</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>207</v>
-      </c>
-      <c r="C249" t="n">
-        <v>208</v>
-      </c>
-      <c r="D249" t="n">
-        <v>208</v>
-      </c>
-      <c r="E249" t="n">
-        <v>207</v>
-      </c>
-      <c r="F249" t="n">
-        <v>358.8606</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-1058222.699332869</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>200</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>208</v>
-      </c>
-      <c r="C250" t="n">
-        <v>208</v>
-      </c>
-      <c r="D250" t="n">
-        <v>208</v>
-      </c>
-      <c r="E250" t="n">
-        <v>208</v>
-      </c>
-      <c r="F250" t="n">
-        <v>543.8804</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-1058222.699332869</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>200</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>209</v>
-      </c>
-      <c r="C251" t="n">
-        <v>209</v>
-      </c>
-      <c r="D251" t="n">
-        <v>209</v>
-      </c>
-      <c r="E251" t="n">
-        <v>209</v>
-      </c>
-      <c r="F251" t="n">
-        <v>5669.8048</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-1052552.894532869</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>200</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>209</v>
-      </c>
-      <c r="C252" t="n">
-        <v>209</v>
-      </c>
-      <c r="D252" t="n">
-        <v>209</v>
-      </c>
-      <c r="E252" t="n">
-        <v>209</v>
-      </c>
-      <c r="F252" t="n">
-        <v>257.3301</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-1052552.894532869</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>200</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>209</v>
-      </c>
-      <c r="C253" t="n">
-        <v>209</v>
-      </c>
-      <c r="D253" t="n">
-        <v>209</v>
-      </c>
-      <c r="E253" t="n">
-        <v>209</v>
-      </c>
-      <c r="F253" t="n">
-        <v>151.4176</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-1052552.894532869</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>200</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>209</v>
-      </c>
-      <c r="C254" t="n">
-        <v>209</v>
-      </c>
-      <c r="D254" t="n">
-        <v>209</v>
-      </c>
-      <c r="E254" t="n">
-        <v>209</v>
-      </c>
-      <c r="F254" t="n">
-        <v>304</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-1052552.894532869</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>200</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>209</v>
-      </c>
-      <c r="C255" t="n">
-        <v>209</v>
-      </c>
-      <c r="D255" t="n">
-        <v>209</v>
-      </c>
-      <c r="E255" t="n">
-        <v>209</v>
-      </c>
-      <c r="F255" t="n">
-        <v>156</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-1052552.894532869</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>200</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>209</v>
-      </c>
-      <c r="C256" t="n">
-        <v>209</v>
-      </c>
-      <c r="D256" t="n">
-        <v>209</v>
-      </c>
-      <c r="E256" t="n">
-        <v>209</v>
-      </c>
-      <c r="F256" t="n">
-        <v>102.0317</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-1052552.894532869</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>200</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>207</v>
-      </c>
-      <c r="C257" t="n">
-        <v>207</v>
-      </c>
-      <c r="D257" t="n">
-        <v>207</v>
-      </c>
-      <c r="E257" t="n">
-        <v>207</v>
-      </c>
-      <c r="F257" t="n">
-        <v>221.0018</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-1052773.896332869</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>200</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>206</v>
-      </c>
-      <c r="C258" t="n">
-        <v>206</v>
-      </c>
-      <c r="D258" t="n">
-        <v>206</v>
-      </c>
-      <c r="E258" t="n">
-        <v>206</v>
-      </c>
-      <c r="F258" t="n">
-        <v>1534.1706</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-1054308.066932869</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>200</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>206</v>
-      </c>
-      <c r="C259" t="n">
-        <v>206</v>
-      </c>
-      <c r="D259" t="n">
-        <v>206</v>
-      </c>
-      <c r="E259" t="n">
-        <v>206</v>
-      </c>
-      <c r="F259" t="n">
-        <v>1149.9999</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-1054308.066932869</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>200</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>206</v>
-      </c>
-      <c r="C260" t="n">
-        <v>206</v>
-      </c>
-      <c r="D260" t="n">
-        <v>206</v>
-      </c>
-      <c r="E260" t="n">
-        <v>206</v>
-      </c>
-      <c r="F260" t="n">
-        <v>407.7805</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-1054308.066932869</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>200</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>207</v>
-      </c>
-      <c r="C261" t="n">
-        <v>207</v>
-      </c>
-      <c r="D261" t="n">
-        <v>207</v>
-      </c>
-      <c r="E261" t="n">
-        <v>207</v>
-      </c>
-      <c r="F261" t="n">
-        <v>6420.3043</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-1047887.762632869</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>200</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>208</v>
-      </c>
-      <c r="C262" t="n">
-        <v>206</v>
-      </c>
-      <c r="D262" t="n">
-        <v>208</v>
-      </c>
-      <c r="E262" t="n">
-        <v>206</v>
-      </c>
-      <c r="F262" t="n">
-        <v>5660.75</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-1053548.512632869</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>200</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>207</v>
-      </c>
-      <c r="C263" t="n">
-        <v>207</v>
-      </c>
-      <c r="D263" t="n">
-        <v>207</v>
-      </c>
-      <c r="E263" t="n">
-        <v>206</v>
-      </c>
-      <c r="F263" t="n">
-        <v>1441.019</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-1052107.493632869</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>200</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>208</v>
-      </c>
-      <c r="C264" t="n">
-        <v>208</v>
-      </c>
-      <c r="D264" t="n">
-        <v>208</v>
-      </c>
-      <c r="E264" t="n">
-        <v>207</v>
-      </c>
-      <c r="F264" t="n">
-        <v>7375.0673</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-1044732.426332869</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>200</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9471,9 +9159,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>200</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9510,9 +9196,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>200</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9549,9 +9233,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>200</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9588,9 +9270,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>200</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9627,9 +9307,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>200</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9666,9 +9344,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>200</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9705,9 +9381,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>200</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9744,9 +9418,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>200</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9783,9 +9455,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>200</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9822,9 +9492,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>200</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9861,9 +9529,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>200</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9900,9 +9566,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>200</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9939,9 +9603,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>200</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9975,19 +9637,17 @@
         <v>-1071085.253832869</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>200</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L278" t="n">
-        <v>1.015</v>
+        <v>1</v>
       </c>
       <c r="M278" t="inlineStr"/>
     </row>
@@ -10014,11 +9674,15 @@
         <v>-1071085.253832869</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10047,11 +9711,15 @@
         <v>-1071960.034532869</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10084,7 +9752,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10117,7 +9789,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10150,7 +9826,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10183,7 +9863,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10216,7 +9900,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10249,7 +9937,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10282,7 +9974,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10315,7 +10011,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10348,7 +10048,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10381,7 +10085,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10414,7 +10122,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10447,7 +10159,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10480,7 +10196,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10513,7 +10233,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10546,7 +10270,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10579,7 +10307,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10612,7 +10344,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10645,7 +10381,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10674,11 +10414,17 @@
         <v>-1143254.922532869</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>199</v>
+      </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10707,11 +10453,17 @@
         <v>-1143438.642432869</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>200</v>
+      </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10740,11 +10492,17 @@
         <v>-1150007.701132869</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>199</v>
+      </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10778,10 +10536,12 @@
       <c r="I302" t="n">
         <v>196</v>
       </c>
-      <c r="J302" t="n">
-        <v>196</v>
-      </c>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10815,12 +10575,10 @@
       <c r="I303" t="n">
         <v>199</v>
       </c>
-      <c r="J303" t="n">
-        <v>196</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L303" t="n">

--- a/BackTest/2019-10-26 BackTest KNC.xlsx
+++ b/BackTest/2019-10-26 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M303"/>
+  <dimension ref="A1:L303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2065372.172</v>
       </c>
       <c r="G2" t="n">
-        <v>-1039072.226603483</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2104904.466</v>
       </c>
       <c r="G3" t="n">
-        <v>-1039072.226603483</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>604175.2931</v>
       </c>
       <c r="G4" t="n">
-        <v>-1039072.226603483</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>-1039071.226603483</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>221.0009</v>
       </c>
       <c r="G6" t="n">
-        <v>-1039292.227503483</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>198.3447</v>
       </c>
       <c r="G7" t="n">
-        <v>-1039292.227503483</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>209.8729</v>
       </c>
       <c r="G8" t="n">
-        <v>-1039292.227503483</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1379.4195</v>
       </c>
       <c r="G9" t="n">
-        <v>-1039292.227503483</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>423.1267</v>
       </c>
       <c r="G10" t="n">
-        <v>-1039292.227503483</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>221.3247</v>
       </c>
       <c r="G11" t="n">
-        <v>-1039070.902803483</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>160.822</v>
       </c>
       <c r="G12" t="n">
-        <v>-1039070.902803483</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1781</v>
       </c>
       <c r="G13" t="n">
-        <v>-1037289.902803483</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>3416</v>
       </c>
       <c r="G14" t="n">
-        <v>-1037289.902803483</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>4965.9857</v>
       </c>
       <c r="G15" t="n">
-        <v>-1037289.902803483</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1680.8749</v>
       </c>
       <c r="G16" t="n">
-        <v>-1035609.027903483</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>4345.5337</v>
       </c>
       <c r="G17" t="n">
-        <v>-1031263.494203483</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>7169.9074</v>
       </c>
       <c r="G18" t="n">
-        <v>-1024093.586803483</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>500</v>
       </c>
       <c r="G19" t="n">
-        <v>-1023593.586803483</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1340</v>
       </c>
       <c r="G20" t="n">
-        <v>-1022253.586803483</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>732.7003</v>
       </c>
       <c r="G21" t="n">
-        <v>-1022986.287103483</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>895.4079</v>
       </c>
       <c r="G22" t="n">
-        <v>-1023881.695003483</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>331.5117</v>
       </c>
       <c r="G23" t="n">
-        <v>-1023550.183303483</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>7456.5665</v>
       </c>
       <c r="G24" t="n">
-        <v>-1016093.616803483</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>190</v>
       </c>
       <c r="G25" t="n">
-        <v>-1016283.616803483</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>125.1412</v>
       </c>
       <c r="G26" t="n">
-        <v>-1016408.758003483</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>5060.9472</v>
       </c>
       <c r="G27" t="n">
-        <v>-1011347.810803483</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>283.2225</v>
       </c>
       <c r="G28" t="n">
-        <v>-1011631.033303483</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>537.4148</v>
       </c>
       <c r="G29" t="n">
-        <v>-1011631.033303483</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>3559.3318</v>
       </c>
       <c r="G30" t="n">
-        <v>-1011631.033303483</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>4000</v>
       </c>
       <c r="G31" t="n">
-        <v>-1015631.033303483</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>255.2376</v>
       </c>
       <c r="G32" t="n">
-        <v>-1015886.270903483</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>376</v>
       </c>
       <c r="G33" t="n">
-        <v>-1015886.270903483</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>4245.2539</v>
       </c>
       <c r="G34" t="n">
-        <v>-1020131.524803483</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>445.8696</v>
       </c>
       <c r="G35" t="n">
-        <v>-1020131.524803483</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1157.0779</v>
       </c>
       <c r="G36" t="n">
-        <v>-1020131.524803483</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>6823.0223</v>
       </c>
       <c r="G37" t="n">
-        <v>-1026954.547103483</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>106.4797</v>
       </c>
       <c r="G38" t="n">
-        <v>-1026848.067403483</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1139.6525</v>
       </c>
       <c r="G39" t="n">
-        <v>-1025708.414903483</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>13.9594</v>
       </c>
       <c r="G40" t="n">
-        <v>-1025708.414903483</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>184.3833</v>
       </c>
       <c r="G41" t="n">
-        <v>-1025892.798203483</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1857.4016</v>
       </c>
       <c r="G42" t="n">
-        <v>-1024035.396603483</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>196</v>
       </c>
       <c r="G43" t="n">
-        <v>-1023839.396603483</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>518</v>
       </c>
       <c r="G44" t="n">
-        <v>-1023839.396603483</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>218.836</v>
       </c>
       <c r="G45" t="n">
-        <v>-1024058.232603483</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>146.7279</v>
       </c>
       <c r="G46" t="n">
-        <v>-1024204.960503483</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>3090.6603</v>
       </c>
       <c r="G47" t="n">
-        <v>-1024204.960503483</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>299</v>
       </c>
       <c r="G48" t="n">
-        <v>-1024503.960503483</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>1512.9335</v>
       </c>
       <c r="G49" t="n">
-        <v>-1024503.960503483</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>122.0258</v>
       </c>
       <c r="G50" t="n">
-        <v>-1024381.934703483</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>877.7432</v>
       </c>
       <c r="G51" t="n">
-        <v>-1024381.934703483</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>890</v>
       </c>
       <c r="G52" t="n">
-        <v>-1024381.934703483</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1805.9666</v>
       </c>
       <c r="G53" t="n">
-        <v>-1024381.934703483</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>523</v>
       </c>
       <c r="G54" t="n">
-        <v>-1024904.934703483</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>949.1399</v>
       </c>
       <c r="G55" t="n">
-        <v>-1023955.794803483</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>1439</v>
       </c>
       <c r="G56" t="n">
-        <v>-1025394.794803483</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>764</v>
       </c>
       <c r="G57" t="n">
-        <v>-1025394.794803483</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>280.9999</v>
       </c>
       <c r="G58" t="n">
-        <v>-1025394.794803483</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>2933</v>
       </c>
       <c r="G59" t="n">
-        <v>-1025394.794803483</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>185.364</v>
       </c>
       <c r="G60" t="n">
-        <v>-1025394.794803483</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>-1025393.794803483</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>173.1867</v>
       </c>
       <c r="G62" t="n">
-        <v>-1025393.794803483</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>9252</v>
       </c>
       <c r="G63" t="n">
-        <v>-1034645.794803483</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>-1034644.794803483</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>373.634</v>
       </c>
       <c r="G65" t="n">
-        <v>-1034644.794803483</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>301</v>
       </c>
       <c r="G66" t="n">
-        <v>-1034644.794803483</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>-1034643.794803483</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>383.4182</v>
       </c>
       <c r="G68" t="n">
-        <v>-1035027.213003483</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>150.8557</v>
       </c>
       <c r="G69" t="n">
-        <v>-1035027.213003483</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>15086.195</v>
       </c>
       <c r="G70" t="n">
-        <v>-1035027.213003483</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>-1035026.213003483</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>3502.1001</v>
       </c>
       <c r="G72" t="n">
-        <v>-1031524.112903483</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>206</v>
       </c>
       <c r="G73" t="n">
-        <v>-1031730.112903483</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>288.807</v>
       </c>
       <c r="G74" t="n">
-        <v>-1031730.112903483</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>407.5165</v>
       </c>
       <c r="G75" t="n">
-        <v>-1031730.112903483</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>190.4367</v>
       </c>
       <c r="G76" t="n">
-        <v>-1031920.549603483</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>1619.4683</v>
       </c>
       <c r="G77" t="n">
-        <v>-1030301.081303483</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>269.622</v>
       </c>
       <c r="G78" t="n">
-        <v>-1030570.703303483</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>1808.4606</v>
       </c>
       <c r="G79" t="n">
-        <v>-1028762.242703483</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>2495.305825242719</v>
       </c>
       <c r="G80" t="n">
-        <v>-1026266.93687824</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>251</v>
       </c>
       <c r="G81" t="n">
-        <v>-1026517.93687824</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>47.88</v>
       </c>
       <c r="G82" t="n">
-        <v>-1026565.81687824</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>1200</v>
       </c>
       <c r="G83" t="n">
-        <v>-1026565.81687824</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>9002.2266</v>
       </c>
       <c r="G84" t="n">
-        <v>-1035568.04347824</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>-1035567.04347824</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>-1035566.04347824</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>-1035565.04347824</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>-1035566.04347824</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>2734</v>
       </c>
       <c r="G89" t="n">
-        <v>-1032832.04347824</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>259</v>
       </c>
       <c r="G90" t="n">
-        <v>-1033091.04347824</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>5275.699</v>
       </c>
       <c r="G91" t="n">
-        <v>-1027815.34447824</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>4873.0116</v>
       </c>
       <c r="G92" t="n">
-        <v>-1032688.35607824</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>75.497</v>
       </c>
       <c r="G93" t="n">
-        <v>-1032763.85307824</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>-1032762.85307824</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>4092.4847</v>
       </c>
       <c r="G95" t="n">
-        <v>-1036855.33777824</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>123</v>
       </c>
       <c r="G96" t="n">
-        <v>-1036732.33777824</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>1102.0885</v>
       </c>
       <c r="G97" t="n">
-        <v>-1037834.42627824</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>-1037833.42627824</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>1629.0117</v>
       </c>
       <c r="G99" t="n">
-        <v>-1039462.43797824</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>-1039461.43797824</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>338</v>
       </c>
       <c r="G101" t="n">
-        <v>-1039799.43797824</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>228.2346</v>
       </c>
       <c r="G102" t="n">
-        <v>-1039799.43797824</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>326.8349</v>
       </c>
       <c r="G103" t="n">
-        <v>-1039799.43797824</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>14.7058</v>
       </c>
       <c r="G104" t="n">
-        <v>-1039799.43797824</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>1939.1938</v>
       </c>
       <c r="G105" t="n">
-        <v>-1041738.63177824</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>100</v>
       </c>
       <c r="G106" t="n">
-        <v>-1041638.63177824</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>376</v>
       </c>
       <c r="G107" t="n">
-        <v>-1041638.63177824</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>181</v>
       </c>
       <c r="G108" t="n">
-        <v>-1041638.63177824</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>1423.2942</v>
       </c>
       <c r="G109" t="n">
-        <v>-1041638.63177824</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>1.5073</v>
       </c>
       <c r="G110" t="n">
-        <v>-1041637.12447824</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>2000</v>
       </c>
       <c r="G111" t="n">
-        <v>-1041637.12447824</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>48</v>
       </c>
       <c r="G112" t="n">
-        <v>-1041637.12447824</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>2216.1217</v>
       </c>
       <c r="G113" t="n">
-        <v>-1039421.00277824</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>2399</v>
       </c>
       <c r="G114" t="n">
-        <v>-1037022.00277824</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>1804.6985</v>
       </c>
       <c r="G115" t="n">
-        <v>-1037022.00277824</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>204.9731</v>
       </c>
       <c r="G116" t="n">
-        <v>-1037022.00277824</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>2531</v>
       </c>
       <c r="G117" t="n">
-        <v>-1037022.00277824</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>426.8125</v>
       </c>
       <c r="G118" t="n">
-        <v>-1037022.00277824</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>1247.8365</v>
       </c>
       <c r="G119" t="n">
-        <v>-1037022.00277824</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>3466.1268</v>
       </c>
       <c r="G120" t="n">
-        <v>-1033555.87597824</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>132.6548</v>
       </c>
       <c r="G121" t="n">
-        <v>-1033555.87597824</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>3501.5591</v>
       </c>
       <c r="G122" t="n">
-        <v>-1033555.87597824</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>250</v>
       </c>
       <c r="G123" t="n">
-        <v>-1033805.87597824</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>-1033804.87597824</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>237.984</v>
       </c>
       <c r="G125" t="n">
-        <v>-1033804.87597824</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>3143.2077</v>
       </c>
       <c r="G126" t="n">
-        <v>-1036948.08367824</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>172.1435</v>
       </c>
       <c r="G127" t="n">
-        <v>-1037120.22717824</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>736.4139</v>
       </c>
       <c r="G128" t="n">
-        <v>-1037856.64107824</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>219.6282</v>
       </c>
       <c r="G129" t="n">
-        <v>-1037856.64107824</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>6</v>
       </c>
       <c r="G130" t="n">
-        <v>-1037862.64107824</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>692.116</v>
       </c>
       <c r="G131" t="n">
-        <v>-1037170.52507824</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>1333.0753</v>
       </c>
       <c r="G132" t="n">
-        <v>-1037170.52507824</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>221.2781</v>
       </c>
       <c r="G133" t="n">
-        <v>-1037170.52507824</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>555</v>
       </c>
       <c r="G134" t="n">
-        <v>-1037170.52507824</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>1622.5831</v>
       </c>
       <c r="G135" t="n">
-        <v>-1037170.52507824</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>528.6146</v>
       </c>
       <c r="G136" t="n">
-        <v>-1036641.91047824</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>137.4848</v>
       </c>
       <c r="G137" t="n">
-        <v>-1036779.39527824</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>117.5246</v>
       </c>
       <c r="G138" t="n">
-        <v>-1036779.39527824</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>6</v>
       </c>
       <c r="G139" t="n">
-        <v>-1036779.39527824</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>3586.1467</v>
       </c>
       <c r="G140" t="n">
-        <v>-1036779.39527824</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>1</v>
       </c>
       <c r="G141" t="n">
-        <v>-1036778.39527824</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>1823.3837</v>
       </c>
       <c r="G142" t="n">
-        <v>-1036778.39527824</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>5084.701</v>
       </c>
       <c r="G143" t="n">
-        <v>-1031693.69427824</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>1638.9999</v>
       </c>
       <c r="G144" t="n">
-        <v>-1033332.69417824</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>4126.0602</v>
       </c>
       <c r="G145" t="n">
-        <v>-1033332.69417824</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>7398.2746</v>
       </c>
       <c r="G146" t="n">
-        <v>-1033332.69417824</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>100</v>
       </c>
       <c r="G147" t="n">
-        <v>-1033332.69417824</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>-1033331.69417824</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>3536.5587</v>
       </c>
       <c r="G149" t="n">
-        <v>-1033331.69417824</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>1823</v>
       </c>
       <c r="G150" t="n">
-        <v>-1033331.69417824</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>820.0183</v>
       </c>
       <c r="G151" t="n">
-        <v>-1033331.69417824</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>268</v>
       </c>
       <c r="G152" t="n">
-        <v>-1033331.69417824</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>368.2131</v>
       </c>
       <c r="G153" t="n">
-        <v>-1033331.69417824</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>1305</v>
       </c>
       <c r="G154" t="n">
-        <v>-1033331.69417824</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>4739.9057</v>
       </c>
       <c r="G155" t="n">
-        <v>-1028591.78847824</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>999</v>
       </c>
       <c r="G156" t="n">
-        <v>-1029590.78847824</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>3210.1554</v>
       </c>
       <c r="G157" t="n">
-        <v>-1026380.63307824</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>3897.5424</v>
       </c>
       <c r="G158" t="n">
-        <v>-1026380.63307824</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>2.088</v>
       </c>
       <c r="G159" t="n">
-        <v>-1026382.72107824</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>2</v>
       </c>
       <c r="G160" t="n">
-        <v>-1026380.72107824</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>15.528</v>
       </c>
       <c r="G161" t="n">
-        <v>-1026365.19307824</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>810.377</v>
       </c>
       <c r="G162" t="n">
-        <v>-1027175.57007824</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>227.4895</v>
       </c>
       <c r="G163" t="n">
-        <v>-1027175.57007824</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>250</v>
       </c>
       <c r="G164" t="n">
-        <v>-1027425.57007824</v>
-      </c>
-      <c r="H164" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>31.417</v>
       </c>
       <c r="G165" t="n">
-        <v>-1027394.15307824</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>9672.132154629629</v>
       </c>
       <c r="G166" t="n">
-        <v>-1037066.28523287</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>3715.1181</v>
       </c>
       <c r="G167" t="n">
-        <v>-1033351.16713287</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>3010.0852</v>
       </c>
       <c r="G168" t="n">
-        <v>-1036361.25233287</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>1700</v>
       </c>
       <c r="G169" t="n">
-        <v>-1034661.25233287</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>2572</v>
       </c>
       <c r="G170" t="n">
-        <v>-1037233.25233287</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>60.7064</v>
       </c>
       <c r="G171" t="n">
-        <v>-1037172.54593287</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>364.2707</v>
       </c>
       <c r="G172" t="n">
-        <v>-1037172.54593287</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>598.9638</v>
       </c>
       <c r="G173" t="n">
-        <v>-1036573.58213287</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>254.7878</v>
       </c>
       <c r="G174" t="n">
-        <v>-1036318.794332869</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>114.4958</v>
       </c>
       <c r="G175" t="n">
-        <v>-1036433.29013287</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>20.2961</v>
       </c>
       <c r="G176" t="n">
-        <v>-1036433.29013287</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>1.5884</v>
       </c>
       <c r="G177" t="n">
-        <v>-1036433.29013287</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>251.6986</v>
       </c>
       <c r="G178" t="n">
-        <v>-1036684.98873287</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>13600.6316</v>
       </c>
       <c r="G179" t="n">
-        <v>-1050285.620332869</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>93</v>
       </c>
       <c r="G180" t="n">
-        <v>-1050192.620332869</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>1.7007</v>
       </c>
       <c r="G181" t="n">
-        <v>-1050194.321032869</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>1.3853</v>
       </c>
       <c r="G182" t="n">
-        <v>-1050195.706332869</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>1.4582</v>
       </c>
       <c r="G183" t="n">
-        <v>-1050194.248132869</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>1.7902</v>
       </c>
       <c r="G184" t="n">
-        <v>-1050192.457932869</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>2552.1952</v>
       </c>
       <c r="G185" t="n">
-        <v>-1050192.457932869</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>2.5215</v>
       </c>
       <c r="G186" t="n">
-        <v>-1050189.936432869</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>365.7443</v>
       </c>
       <c r="G187" t="n">
-        <v>-1050189.936432869</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>0.8633</v>
       </c>
       <c r="G188" t="n">
-        <v>-1050189.936432869</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>15137.3164</v>
       </c>
       <c r="G189" t="n">
-        <v>-1065327.252832869</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>3.1886</v>
       </c>
       <c r="G190" t="n">
-        <v>-1065330.441432869</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>500</v>
       </c>
       <c r="G191" t="n">
-        <v>-1064830.441432869</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>820.4546</v>
       </c>
       <c r="G192" t="n">
-        <v>-1065650.896032869</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>237.916</v>
       </c>
       <c r="G193" t="n">
-        <v>-1065888.812032869</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>478.4096</v>
       </c>
       <c r="G194" t="n">
-        <v>-1065888.812032869</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>7258</v>
       </c>
       <c r="G195" t="n">
-        <v>-1073146.812032869</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>788.3854</v>
       </c>
       <c r="G196" t="n">
-        <v>-1073146.812032869</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>689.196</v>
       </c>
       <c r="G197" t="n">
-        <v>-1073836.008032869</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>9736.126899999999</v>
       </c>
       <c r="G198" t="n">
-        <v>-1083572.134932869</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>169</v>
       </c>
       <c r="G199" t="n">
-        <v>-1083403.134932869</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>240.3035</v>
       </c>
       <c r="G200" t="n">
-        <v>-1083403.134932869</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>15</v>
       </c>
       <c r="G201" t="n">
-        <v>-1083418.134932869</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>111.3146</v>
       </c>
       <c r="G202" t="n">
-        <v>-1083418.134932869</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>496.3783</v>
       </c>
       <c r="G203" t="n">
-        <v>-1083418.134932869</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>6479.3157</v>
       </c>
       <c r="G204" t="n">
-        <v>-1089897.450632869</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6533,15 @@
         <v>3200</v>
       </c>
       <c r="G205" t="n">
-        <v>-1093097.450632869</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6563,15 @@
         <v>13508.7196</v>
       </c>
       <c r="G206" t="n">
-        <v>-1106606.170232869</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6593,15 @@
         <v>26773.935</v>
       </c>
       <c r="G207" t="n">
-        <v>-1079832.235232869</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6623,15 @@
         <v>245.8306</v>
       </c>
       <c r="G208" t="n">
-        <v>-1079832.235232869</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6653,15 @@
         <v>10092.5661</v>
       </c>
       <c r="G209" t="n">
-        <v>-1079832.235232869</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6683,15 @@
         <v>227.664</v>
       </c>
       <c r="G210" t="n">
-        <v>-1080059.899232869</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6713,15 @@
         <v>2000</v>
       </c>
       <c r="G211" t="n">
-        <v>-1080059.899232869</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6743,15 @@
         <v>1849.9999</v>
       </c>
       <c r="G212" t="n">
-        <v>-1080059.899232869</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6773,15 @@
         <v>2351.6966</v>
       </c>
       <c r="G213" t="n">
-        <v>-1082411.595832869</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6803,15 @@
         <v>478.4691</v>
       </c>
       <c r="G214" t="n">
-        <v>-1081933.126732869</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6833,15 @@
         <v>3920.3302</v>
       </c>
       <c r="G215" t="n">
-        <v>-1081933.126732869</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6863,15 @@
         <v>99.25230000000001</v>
       </c>
       <c r="G216" t="n">
-        <v>-1081833.874432869</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6893,15 @@
         <v>2199.6872</v>
       </c>
       <c r="G217" t="n">
-        <v>-1079634.187232869</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6923,15 @@
         <v>229.3414</v>
       </c>
       <c r="G218" t="n">
-        <v>-1079863.528632869</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6953,15 @@
         <v>19.7227</v>
       </c>
       <c r="G219" t="n">
-        <v>-1079843.805932869</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6983,15 @@
         <v>2849.6485</v>
       </c>
       <c r="G220" t="n">
-        <v>-1079843.805932869</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7013,15 @@
         <v>3443.3496</v>
       </c>
       <c r="G221" t="n">
-        <v>-1076400.456332869</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7043,15 @@
         <v>4741.1021</v>
       </c>
       <c r="G222" t="n">
-        <v>-1076400.456332869</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7073,15 @@
         <v>1</v>
       </c>
       <c r="G223" t="n">
-        <v>-1076399.456332869</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7103,15 @@
         <v>20.6733</v>
       </c>
       <c r="G224" t="n">
-        <v>-1076399.456332869</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7133,15 @@
         <v>1168.9997</v>
       </c>
       <c r="G225" t="n">
-        <v>-1076399.456332869</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7163,15 @@
         <v>2273.7158</v>
       </c>
       <c r="G226" t="n">
-        <v>-1076399.456332869</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7193,15 @@
         <v>791.6772999999999</v>
       </c>
       <c r="G227" t="n">
-        <v>-1076399.456332869</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7223,15 @@
         <v>149.2429</v>
       </c>
       <c r="G228" t="n">
-        <v>-1076399.456332869</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7253,15 @@
         <v>22553.4908</v>
       </c>
       <c r="G229" t="n">
-        <v>-1076399.456332869</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7283,15 @@
         <v>44929.9484</v>
       </c>
       <c r="G230" t="n">
-        <v>-1076399.456332869</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7313,15 @@
         <v>175629.2444</v>
       </c>
       <c r="G231" t="n">
-        <v>-1076399.456332869</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7343,15 @@
         <v>112776.2683</v>
       </c>
       <c r="G232" t="n">
-        <v>-1076399.456332869</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7373,15 @@
         <v>19603.7977</v>
       </c>
       <c r="G233" t="n">
-        <v>-1056795.658632869</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7403,15 @@
         <v>2228.5024</v>
       </c>
       <c r="G234" t="n">
-        <v>-1054567.156232869</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7433,15 @@
         <v>6988.262</v>
       </c>
       <c r="G235" t="n">
-        <v>-1061555.418232869</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7463,15 @@
         <v>451.9999</v>
       </c>
       <c r="G236" t="n">
-        <v>-1061555.418232869</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7493,15 @@
         <v>544</v>
       </c>
       <c r="G237" t="n">
-        <v>-1061011.418232869</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7523,15 @@
         <v>54</v>
       </c>
       <c r="G238" t="n">
-        <v>-1061011.418232869</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7553,15 @@
         <v>250</v>
       </c>
       <c r="G239" t="n">
-        <v>-1061261.418232869</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7583,15 @@
         <v>547.8339999999999</v>
       </c>
       <c r="G240" t="n">
-        <v>-1061261.418232869</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7613,15 @@
         <v>1575.8761</v>
       </c>
       <c r="G241" t="n">
-        <v>-1059685.542132869</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7643,15 @@
         <v>1076.2666</v>
       </c>
       <c r="G242" t="n">
-        <v>-1059685.542132869</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7673,15 @@
         <v>0.0001</v>
       </c>
       <c r="G243" t="n">
-        <v>-1059685.542132869</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7703,15 @@
         <v>863.5432</v>
       </c>
       <c r="G244" t="n">
-        <v>-1058821.998932869</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7733,15 @@
         <v>99.99760000000001</v>
       </c>
       <c r="G245" t="n">
-        <v>-1058921.996532869</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7763,15 @@
         <v>54.2935</v>
       </c>
       <c r="G246" t="n">
-        <v>-1058976.290032869</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7793,15 @@
         <v>394.7301</v>
       </c>
       <c r="G247" t="n">
-        <v>-1058581.559932869</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7823,15 @@
         <v>200</v>
       </c>
       <c r="G248" t="n">
-        <v>-1058581.559932869</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7853,15 @@
         <v>358.8606</v>
       </c>
       <c r="G249" t="n">
-        <v>-1058222.699332869</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7883,15 @@
         <v>543.8804</v>
       </c>
       <c r="G250" t="n">
-        <v>-1058222.699332869</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +7913,15 @@
         <v>5669.8048</v>
       </c>
       <c r="G251" t="n">
-        <v>-1052552.894532869</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +7943,15 @@
         <v>257.3301</v>
       </c>
       <c r="G252" t="n">
-        <v>-1052552.894532869</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +7973,15 @@
         <v>151.4176</v>
       </c>
       <c r="G253" t="n">
-        <v>-1052552.894532869</v>
-      </c>
-      <c r="H253" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8003,15 @@
         <v>304</v>
       </c>
       <c r="G254" t="n">
-        <v>-1052552.894532869</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8033,15 @@
         <v>156</v>
       </c>
       <c r="G255" t="n">
-        <v>-1052552.894532869</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8063,15 @@
         <v>102.0317</v>
       </c>
       <c r="G256" t="n">
-        <v>-1052552.894532869</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8093,15 @@
         <v>221.0018</v>
       </c>
       <c r="G257" t="n">
-        <v>-1052773.896332869</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8123,15 @@
         <v>1534.1706</v>
       </c>
       <c r="G258" t="n">
-        <v>-1054308.066932869</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,22 +8153,15 @@
         <v>1149.9999</v>
       </c>
       <c r="G259" t="n">
-        <v>-1054308.066932869</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>206</v>
-      </c>
-      <c r="J259" t="n">
-        <v>206</v>
-      </c>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8966,26 +8183,15 @@
         <v>407.7805</v>
       </c>
       <c r="G260" t="n">
-        <v>-1054308.066932869</v>
-      </c>
-      <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>206</v>
-      </c>
-      <c r="J260" t="n">
-        <v>206</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9007,26 +8213,15 @@
         <v>6420.3043</v>
       </c>
       <c r="G261" t="n">
-        <v>-1047887.762632869</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>206</v>
-      </c>
-      <c r="J261" t="n">
-        <v>206</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9048,18 +8243,15 @@
         <v>5660.75</v>
       </c>
       <c r="G262" t="n">
-        <v>-1053548.512632869</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9081,18 +8273,15 @@
         <v>1441.019</v>
       </c>
       <c r="G263" t="n">
-        <v>-1052107.493632869</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9114,1477 +8303,1203 @@
         <v>7375.0673</v>
       </c>
       <c r="G264" t="n">
-        <v>-1044732.426332869</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>207</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>208</v>
+      </c>
+      <c r="C265" t="n">
+        <v>209</v>
+      </c>
+      <c r="D265" t="n">
+        <v>209</v>
+      </c>
+      <c r="E265" t="n">
+        <v>208</v>
+      </c>
+      <c r="F265" t="n">
+        <v>4764.2353</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>207</v>
+      </c>
+      <c r="C266" t="n">
+        <v>207</v>
+      </c>
+      <c r="D266" t="n">
+        <v>207</v>
+      </c>
+      <c r="E266" t="n">
+        <v>207</v>
+      </c>
+      <c r="F266" t="n">
+        <v>187.9104</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>205</v>
+      </c>
+      <c r="C267" t="n">
+        <v>204</v>
+      </c>
+      <c r="D267" t="n">
+        <v>205</v>
+      </c>
+      <c r="E267" t="n">
+        <v>204</v>
+      </c>
+      <c r="F267" t="n">
+        <v>10350</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>206</v>
+      </c>
+      <c r="C268" t="n">
+        <v>206</v>
+      </c>
+      <c r="D268" t="n">
+        <v>206</v>
+      </c>
+      <c r="E268" t="n">
+        <v>206</v>
+      </c>
+      <c r="F268" t="n">
+        <v>6.1504</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>206</v>
+      </c>
+      <c r="C269" t="n">
+        <v>206</v>
+      </c>
+      <c r="D269" t="n">
+        <v>206</v>
+      </c>
+      <c r="E269" t="n">
+        <v>206</v>
+      </c>
+      <c r="F269" t="n">
+        <v>913.9999</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>206</v>
+      </c>
+      <c r="C270" t="n">
+        <v>206</v>
+      </c>
+      <c r="D270" t="n">
+        <v>206</v>
+      </c>
+      <c r="E270" t="n">
+        <v>206</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1428.1455</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>206</v>
+      </c>
+      <c r="C271" t="n">
+        <v>206</v>
+      </c>
+      <c r="D271" t="n">
+        <v>206</v>
+      </c>
+      <c r="E271" t="n">
+        <v>206</v>
+      </c>
+      <c r="F271" t="n">
+        <v>611.2598</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>206</v>
+      </c>
+      <c r="C272" t="n">
+        <v>206</v>
+      </c>
+      <c r="D272" t="n">
+        <v>206</v>
+      </c>
+      <c r="E272" t="n">
+        <v>206</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1069.6965</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>205</v>
+      </c>
+      <c r="C273" t="n">
+        <v>205</v>
+      </c>
+      <c r="D273" t="n">
+        <v>205</v>
+      </c>
+      <c r="E273" t="n">
+        <v>205</v>
+      </c>
+      <c r="F273" t="n">
+        <v>8.079700000000001</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>206</v>
+      </c>
+      <c r="C274" t="n">
+        <v>206</v>
+      </c>
+      <c r="D274" t="n">
+        <v>206</v>
+      </c>
+      <c r="E274" t="n">
+        <v>206</v>
+      </c>
+      <c r="F274" t="n">
+        <v>285.9483</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>205</v>
+      </c>
+      <c r="C275" t="n">
+        <v>205</v>
+      </c>
+      <c r="D275" t="n">
+        <v>205</v>
+      </c>
+      <c r="E275" t="n">
+        <v>205</v>
+      </c>
+      <c r="F275" t="n">
+        <v>8064.8626</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>204</v>
+      </c>
+      <c r="C276" t="n">
+        <v>204</v>
+      </c>
+      <c r="D276" t="n">
+        <v>204</v>
+      </c>
+      <c r="E276" t="n">
+        <v>204</v>
+      </c>
+      <c r="F276" t="n">
+        <v>12798.3088</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>204</v>
+      </c>
+      <c r="C277" t="n">
+        <v>204</v>
+      </c>
+      <c r="D277" t="n">
+        <v>204</v>
+      </c>
+      <c r="E277" t="n">
+        <v>204</v>
+      </c>
+      <c r="F277" t="n">
+        <v>4521.368</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>204</v>
+      </c>
+      <c r="C278" t="n">
+        <v>204</v>
+      </c>
+      <c r="D278" t="n">
+        <v>204</v>
+      </c>
+      <c r="E278" t="n">
+        <v>204</v>
+      </c>
+      <c r="F278" t="n">
+        <v>2100</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>204</v>
+      </c>
+      <c r="C279" t="n">
+        <v>204</v>
+      </c>
+      <c r="D279" t="n">
+        <v>204</v>
+      </c>
+      <c r="E279" t="n">
+        <v>204</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>203</v>
+      </c>
+      <c r="C280" t="n">
+        <v>203</v>
+      </c>
+      <c r="D280" t="n">
+        <v>203</v>
+      </c>
+      <c r="E280" t="n">
+        <v>203</v>
+      </c>
+      <c r="F280" t="n">
+        <v>874.7807</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>203</v>
+      </c>
+      <c r="C281" t="n">
+        <v>203</v>
+      </c>
+      <c r="D281" t="n">
+        <v>203</v>
+      </c>
+      <c r="E281" t="n">
+        <v>203</v>
+      </c>
+      <c r="F281" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>205</v>
+      </c>
+      <c r="C282" t="n">
+        <v>205</v>
+      </c>
+      <c r="D282" t="n">
+        <v>205</v>
+      </c>
+      <c r="E282" t="n">
+        <v>205</v>
+      </c>
+      <c r="F282" t="n">
+        <v>1</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>204</v>
+      </c>
+      <c r="C283" t="n">
+        <v>204</v>
+      </c>
+      <c r="D283" t="n">
+        <v>204</v>
+      </c>
+      <c r="E283" t="n">
+        <v>204</v>
+      </c>
+      <c r="F283" t="n">
+        <v>267</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>202</v>
+      </c>
+      <c r="C284" t="n">
+        <v>202</v>
+      </c>
+      <c r="D284" t="n">
+        <v>202</v>
+      </c>
+      <c r="E284" t="n">
+        <v>202</v>
+      </c>
+      <c r="F284" t="n">
+        <v>219.9403</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>202</v>
+      </c>
+      <c r="C285" t="n">
+        <v>202</v>
+      </c>
+      <c r="D285" t="n">
+        <v>202</v>
+      </c>
+      <c r="E285" t="n">
+        <v>202</v>
+      </c>
+      <c r="F285" t="n">
+        <v>732.4722</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>202</v>
+      </c>
+      <c r="C286" t="n">
+        <v>202</v>
+      </c>
+      <c r="D286" t="n">
+        <v>202</v>
+      </c>
+      <c r="E286" t="n">
+        <v>202</v>
+      </c>
+      <c r="F286" t="n">
+        <v>1566.0377</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>201</v>
+      </c>
+      <c r="C287" t="n">
+        <v>201</v>
+      </c>
+      <c r="D287" t="n">
+        <v>201</v>
+      </c>
+      <c r="E287" t="n">
+        <v>201</v>
+      </c>
+      <c r="F287" t="n">
+        <v>1573.3746</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>200</v>
+      </c>
+      <c r="C288" t="n">
+        <v>201</v>
+      </c>
+      <c r="D288" t="n">
+        <v>201</v>
+      </c>
+      <c r="E288" t="n">
+        <v>200</v>
+      </c>
+      <c r="F288" t="n">
+        <v>10540.4191</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>200</v>
+      </c>
+      <c r="C289" t="n">
+        <v>199</v>
+      </c>
+      <c r="D289" t="n">
+        <v>200</v>
+      </c>
+      <c r="E289" t="n">
+        <v>199</v>
+      </c>
+      <c r="F289" t="n">
+        <v>62738.3047</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>198</v>
+      </c>
+      <c r="C290" t="n">
+        <v>200</v>
+      </c>
+      <c r="D290" t="n">
+        <v>200</v>
+      </c>
+      <c r="E290" t="n">
+        <v>198</v>
+      </c>
+      <c r="F290" t="n">
+        <v>198.1902</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>200</v>
+      </c>
+      <c r="C291" t="n">
+        <v>200</v>
+      </c>
+      <c r="D291" t="n">
+        <v>200</v>
+      </c>
+      <c r="E291" t="n">
+        <v>200</v>
+      </c>
+      <c r="F291" t="n">
+        <v>15</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>200</v>
+      </c>
+      <c r="C292" t="n">
+        <v>200</v>
+      </c>
+      <c r="D292" t="n">
+        <v>200</v>
+      </c>
+      <c r="E292" t="n">
+        <v>200</v>
+      </c>
+      <c r="F292" t="n">
+        <v>15</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>200</v>
+      </c>
+      <c r="C293" t="n">
+        <v>200</v>
+      </c>
+      <c r="D293" t="n">
+        <v>200</v>
+      </c>
+      <c r="E293" t="n">
+        <v>200</v>
+      </c>
+      <c r="F293" t="n">
+        <v>101.9403</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>201</v>
+      </c>
+      <c r="C294" t="n">
+        <v>201</v>
+      </c>
+      <c r="D294" t="n">
+        <v>201</v>
+      </c>
+      <c r="E294" t="n">
+        <v>201</v>
+      </c>
+      <c r="F294" t="n">
+        <v>1475</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>200</v>
+      </c>
+      <c r="C295" t="n">
+        <v>200</v>
+      </c>
+      <c r="D295" t="n">
+        <v>200</v>
+      </c>
+      <c r="E295" t="n">
+        <v>200</v>
+      </c>
+      <c r="F295" t="n">
+        <v>6304.5734</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>201</v>
+      </c>
+      <c r="C296" t="n">
+        <v>201</v>
+      </c>
+      <c r="D296" t="n">
+        <v>201</v>
+      </c>
+      <c r="E296" t="n">
+        <v>201</v>
+      </c>
+      <c r="F296" t="n">
+        <v>4786.3188</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>200</v>
+      </c>
+      <c r="C297" t="n">
+        <v>200</v>
+      </c>
+      <c r="D297" t="n">
+        <v>200</v>
+      </c>
+      <c r="E297" t="n">
+        <v>200</v>
+      </c>
+      <c r="F297" t="n">
+        <v>2.844</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>200</v>
+      </c>
+      <c r="C298" t="n">
+        <v>199</v>
+      </c>
+      <c r="D298" t="n">
+        <v>200</v>
+      </c>
+      <c r="E298" t="n">
+        <v>199</v>
+      </c>
+      <c r="F298" t="n">
+        <v>6884</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>200</v>
+      </c>
+      <c r="C299" t="n">
+        <v>200</v>
+      </c>
+      <c r="D299" t="n">
+        <v>200</v>
+      </c>
+      <c r="E299" t="n">
+        <v>200</v>
+      </c>
+      <c r="F299" t="n">
+        <v>234.64</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>199</v>
+      </c>
+      <c r="C300" t="n">
+        <v>199</v>
+      </c>
+      <c r="D300" t="n">
+        <v>199</v>
+      </c>
+      <c r="E300" t="n">
+        <v>199</v>
+      </c>
+      <c r="F300" t="n">
+        <v>183.7199</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>199</v>
+      </c>
+      <c r="C301" t="n">
+        <v>196</v>
+      </c>
+      <c r="D301" t="n">
+        <v>199</v>
+      </c>
+      <c r="E301" t="n">
+        <v>196</v>
+      </c>
+      <c r="F301" t="n">
+        <v>6569.0587</v>
+      </c>
+      <c r="G301" t="n">
+        <v>1</v>
+      </c>
+      <c r="H301" t="n">
+        <v>199</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>208</v>
-      </c>
-      <c r="C265" t="n">
-        <v>209</v>
-      </c>
-      <c r="D265" t="n">
-        <v>209</v>
-      </c>
-      <c r="E265" t="n">
-        <v>208</v>
-      </c>
-      <c r="F265" t="n">
-        <v>4764.2353</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-1039968.191032869</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>199</v>
+      </c>
+      <c r="C302" t="n">
+        <v>199</v>
+      </c>
+      <c r="D302" t="n">
+        <v>199</v>
+      </c>
+      <c r="E302" t="n">
+        <v>199</v>
+      </c>
+      <c r="F302" t="n">
+        <v>710.9999</v>
+      </c>
+      <c r="G302" t="n">
+        <v>1</v>
+      </c>
+      <c r="H302" t="n">
+        <v>196</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>207</v>
-      </c>
-      <c r="C266" t="n">
-        <v>207</v>
-      </c>
-      <c r="D266" t="n">
-        <v>207</v>
-      </c>
-      <c r="E266" t="n">
-        <v>207</v>
-      </c>
-      <c r="F266" t="n">
-        <v>187.9104</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-1040156.101432869</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>198</v>
+      </c>
+      <c r="C303" t="n">
+        <v>200</v>
+      </c>
+      <c r="D303" t="n">
+        <v>200</v>
+      </c>
+      <c r="E303" t="n">
+        <v>198</v>
+      </c>
+      <c r="F303" t="n">
+        <v>3902.3483</v>
+      </c>
+      <c r="G303" t="n">
+        <v>1</v>
+      </c>
+      <c r="H303" t="n">
+        <v>199</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>205</v>
-      </c>
-      <c r="C267" t="n">
-        <v>204</v>
-      </c>
-      <c r="D267" t="n">
-        <v>205</v>
-      </c>
-      <c r="E267" t="n">
-        <v>204</v>
-      </c>
-      <c r="F267" t="n">
-        <v>10350</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-1050506.101432869</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>206</v>
-      </c>
-      <c r="C268" t="n">
-        <v>206</v>
-      </c>
-      <c r="D268" t="n">
-        <v>206</v>
-      </c>
-      <c r="E268" t="n">
-        <v>206</v>
-      </c>
-      <c r="F268" t="n">
-        <v>6.1504</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-1050499.951032869</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>206</v>
-      </c>
-      <c r="C269" t="n">
-        <v>206</v>
-      </c>
-      <c r="D269" t="n">
-        <v>206</v>
-      </c>
-      <c r="E269" t="n">
-        <v>206</v>
-      </c>
-      <c r="F269" t="n">
-        <v>913.9999</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-1050499.951032869</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>206</v>
-      </c>
-      <c r="C270" t="n">
-        <v>206</v>
-      </c>
-      <c r="D270" t="n">
-        <v>206</v>
-      </c>
-      <c r="E270" t="n">
-        <v>206</v>
-      </c>
-      <c r="F270" t="n">
-        <v>1428.1455</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-1050499.951032869</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>206</v>
-      </c>
-      <c r="C271" t="n">
-        <v>206</v>
-      </c>
-      <c r="D271" t="n">
-        <v>206</v>
-      </c>
-      <c r="E271" t="n">
-        <v>206</v>
-      </c>
-      <c r="F271" t="n">
-        <v>611.2598</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-1050499.951032869</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>206</v>
-      </c>
-      <c r="C272" t="n">
-        <v>206</v>
-      </c>
-      <c r="D272" t="n">
-        <v>206</v>
-      </c>
-      <c r="E272" t="n">
-        <v>206</v>
-      </c>
-      <c r="F272" t="n">
-        <v>1069.6965</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-1050499.951032869</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>205</v>
-      </c>
-      <c r="C273" t="n">
-        <v>205</v>
-      </c>
-      <c r="D273" t="n">
-        <v>205</v>
-      </c>
-      <c r="E273" t="n">
-        <v>205</v>
-      </c>
-      <c r="F273" t="n">
-        <v>8.079700000000001</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-1050508.030732869</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>206</v>
-      </c>
-      <c r="C274" t="n">
-        <v>206</v>
-      </c>
-      <c r="D274" t="n">
-        <v>206</v>
-      </c>
-      <c r="E274" t="n">
-        <v>206</v>
-      </c>
-      <c r="F274" t="n">
-        <v>285.9483</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-1050222.082432869</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>205</v>
-      </c>
-      <c r="C275" t="n">
-        <v>205</v>
-      </c>
-      <c r="D275" t="n">
-        <v>205</v>
-      </c>
-      <c r="E275" t="n">
-        <v>205</v>
-      </c>
-      <c r="F275" t="n">
-        <v>8064.8626</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-1058286.945032869</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>204</v>
-      </c>
-      <c r="C276" t="n">
-        <v>204</v>
-      </c>
-      <c r="D276" t="n">
-        <v>204</v>
-      </c>
-      <c r="E276" t="n">
-        <v>204</v>
-      </c>
-      <c r="F276" t="n">
-        <v>12798.3088</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-1071085.253832869</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>204</v>
-      </c>
-      <c r="C277" t="n">
-        <v>204</v>
-      </c>
-      <c r="D277" t="n">
-        <v>204</v>
-      </c>
-      <c r="E277" t="n">
-        <v>204</v>
-      </c>
-      <c r="F277" t="n">
-        <v>4521.368</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-1071085.253832869</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>204</v>
-      </c>
-      <c r="C278" t="n">
-        <v>204</v>
-      </c>
-      <c r="D278" t="n">
-        <v>204</v>
-      </c>
-      <c r="E278" t="n">
-        <v>204</v>
-      </c>
-      <c r="F278" t="n">
-        <v>2100</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-1071085.253832869</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>204</v>
-      </c>
-      <c r="C279" t="n">
-        <v>204</v>
-      </c>
-      <c r="D279" t="n">
-        <v>204</v>
-      </c>
-      <c r="E279" t="n">
-        <v>204</v>
-      </c>
-      <c r="F279" t="n">
-        <v>0.382</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-1071085.253832869</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>203</v>
-      </c>
-      <c r="C280" t="n">
-        <v>203</v>
-      </c>
-      <c r="D280" t="n">
-        <v>203</v>
-      </c>
-      <c r="E280" t="n">
-        <v>203</v>
-      </c>
-      <c r="F280" t="n">
-        <v>874.7807</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-1071960.034532869</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>203</v>
-      </c>
-      <c r="C281" t="n">
-        <v>203</v>
-      </c>
-      <c r="D281" t="n">
-        <v>203</v>
-      </c>
-      <c r="E281" t="n">
-        <v>203</v>
-      </c>
-      <c r="F281" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-1071960.034532869</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>205</v>
-      </c>
-      <c r="C282" t="n">
-        <v>205</v>
-      </c>
-      <c r="D282" t="n">
-        <v>205</v>
-      </c>
-      <c r="E282" t="n">
-        <v>205</v>
-      </c>
-      <c r="F282" t="n">
-        <v>1</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-1071959.034532869</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>204</v>
-      </c>
-      <c r="C283" t="n">
-        <v>204</v>
-      </c>
-      <c r="D283" t="n">
-        <v>204</v>
-      </c>
-      <c r="E283" t="n">
-        <v>204</v>
-      </c>
-      <c r="F283" t="n">
-        <v>267</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-1072226.034532869</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>202</v>
-      </c>
-      <c r="C284" t="n">
-        <v>202</v>
-      </c>
-      <c r="D284" t="n">
-        <v>202</v>
-      </c>
-      <c r="E284" t="n">
-        <v>202</v>
-      </c>
-      <c r="F284" t="n">
-        <v>219.9403</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-1072445.974832869</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>202</v>
-      </c>
-      <c r="C285" t="n">
-        <v>202</v>
-      </c>
-      <c r="D285" t="n">
-        <v>202</v>
-      </c>
-      <c r="E285" t="n">
-        <v>202</v>
-      </c>
-      <c r="F285" t="n">
-        <v>732.4722</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-1072445.974832869</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>202</v>
-      </c>
-      <c r="C286" t="n">
-        <v>202</v>
-      </c>
-      <c r="D286" t="n">
-        <v>202</v>
-      </c>
-      <c r="E286" t="n">
-        <v>202</v>
-      </c>
-      <c r="F286" t="n">
-        <v>1566.0377</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-1072445.974832869</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>201</v>
-      </c>
-      <c r="C287" t="n">
-        <v>201</v>
-      </c>
-      <c r="D287" t="n">
-        <v>201</v>
-      </c>
-      <c r="E287" t="n">
-        <v>201</v>
-      </c>
-      <c r="F287" t="n">
-        <v>1573.3746</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-1074019.349432869</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>200</v>
-      </c>
-      <c r="C288" t="n">
-        <v>201</v>
-      </c>
-      <c r="D288" t="n">
-        <v>201</v>
-      </c>
-      <c r="E288" t="n">
-        <v>200</v>
-      </c>
-      <c r="F288" t="n">
-        <v>10540.4191</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-1074019.349432869</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>200</v>
-      </c>
-      <c r="C289" t="n">
-        <v>199</v>
-      </c>
-      <c r="D289" t="n">
-        <v>200</v>
-      </c>
-      <c r="E289" t="n">
-        <v>199</v>
-      </c>
-      <c r="F289" t="n">
-        <v>62738.3047</v>
-      </c>
-      <c r="G289" t="n">
-        <v>-1136757.654132869</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>198</v>
-      </c>
-      <c r="C290" t="n">
-        <v>200</v>
-      </c>
-      <c r="D290" t="n">
-        <v>200</v>
-      </c>
-      <c r="E290" t="n">
-        <v>198</v>
-      </c>
-      <c r="F290" t="n">
-        <v>198.1902</v>
-      </c>
-      <c r="G290" t="n">
-        <v>-1136559.463932869</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>200</v>
-      </c>
-      <c r="C291" t="n">
-        <v>200</v>
-      </c>
-      <c r="D291" t="n">
-        <v>200</v>
-      </c>
-      <c r="E291" t="n">
-        <v>200</v>
-      </c>
-      <c r="F291" t="n">
-        <v>15</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-1136559.463932869</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>200</v>
-      </c>
-      <c r="C292" t="n">
-        <v>200</v>
-      </c>
-      <c r="D292" t="n">
-        <v>200</v>
-      </c>
-      <c r="E292" t="n">
-        <v>200</v>
-      </c>
-      <c r="F292" t="n">
-        <v>15</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-1136559.463932869</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>200</v>
-      </c>
-      <c r="C293" t="n">
-        <v>200</v>
-      </c>
-      <c r="D293" t="n">
-        <v>200</v>
-      </c>
-      <c r="E293" t="n">
-        <v>200</v>
-      </c>
-      <c r="F293" t="n">
-        <v>101.9403</v>
-      </c>
-      <c r="G293" t="n">
-        <v>-1136559.463932869</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>201</v>
-      </c>
-      <c r="C294" t="n">
-        <v>201</v>
-      </c>
-      <c r="D294" t="n">
-        <v>201</v>
-      </c>
-      <c r="E294" t="n">
-        <v>201</v>
-      </c>
-      <c r="F294" t="n">
-        <v>1475</v>
-      </c>
-      <c r="G294" t="n">
-        <v>-1135084.463932869</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>200</v>
-      </c>
-      <c r="C295" t="n">
-        <v>200</v>
-      </c>
-      <c r="D295" t="n">
-        <v>200</v>
-      </c>
-      <c r="E295" t="n">
-        <v>200</v>
-      </c>
-      <c r="F295" t="n">
-        <v>6304.5734</v>
-      </c>
-      <c r="G295" t="n">
-        <v>-1141389.037332869</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>201</v>
-      </c>
-      <c r="C296" t="n">
-        <v>201</v>
-      </c>
-      <c r="D296" t="n">
-        <v>201</v>
-      </c>
-      <c r="E296" t="n">
-        <v>201</v>
-      </c>
-      <c r="F296" t="n">
-        <v>4786.3188</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-1136602.718532869</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>200</v>
-      </c>
-      <c r="C297" t="n">
-        <v>200</v>
-      </c>
-      <c r="D297" t="n">
-        <v>200</v>
-      </c>
-      <c r="E297" t="n">
-        <v>200</v>
-      </c>
-      <c r="F297" t="n">
-        <v>2.844</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-1136605.562532869</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>200</v>
-      </c>
-      <c r="C298" t="n">
-        <v>199</v>
-      </c>
-      <c r="D298" t="n">
-        <v>200</v>
-      </c>
-      <c r="E298" t="n">
-        <v>199</v>
-      </c>
-      <c r="F298" t="n">
-        <v>6884</v>
-      </c>
-      <c r="G298" t="n">
-        <v>-1143489.562532869</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>200</v>
-      </c>
-      <c r="C299" t="n">
-        <v>200</v>
-      </c>
-      <c r="D299" t="n">
-        <v>200</v>
-      </c>
-      <c r="E299" t="n">
-        <v>200</v>
-      </c>
-      <c r="F299" t="n">
-        <v>234.64</v>
-      </c>
-      <c r="G299" t="n">
-        <v>-1143254.922532869</v>
-      </c>
-      <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>199</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>199</v>
-      </c>
-      <c r="C300" t="n">
-        <v>199</v>
-      </c>
-      <c r="D300" t="n">
-        <v>199</v>
-      </c>
-      <c r="E300" t="n">
-        <v>199</v>
-      </c>
-      <c r="F300" t="n">
-        <v>183.7199</v>
-      </c>
-      <c r="G300" t="n">
-        <v>-1143438.642432869</v>
-      </c>
-      <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>200</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>199</v>
-      </c>
-      <c r="C301" t="n">
-        <v>196</v>
-      </c>
-      <c r="D301" t="n">
-        <v>199</v>
-      </c>
-      <c r="E301" t="n">
-        <v>196</v>
-      </c>
-      <c r="F301" t="n">
-        <v>6569.0587</v>
-      </c>
-      <c r="G301" t="n">
-        <v>-1150007.701132869</v>
-      </c>
-      <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>199</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>199</v>
-      </c>
-      <c r="C302" t="n">
-        <v>199</v>
-      </c>
-      <c r="D302" t="n">
-        <v>199</v>
-      </c>
-      <c r="E302" t="n">
-        <v>199</v>
-      </c>
-      <c r="F302" t="n">
-        <v>710.9999</v>
-      </c>
-      <c r="G302" t="n">
-        <v>-1149296.701232869</v>
-      </c>
-      <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>196</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>198</v>
-      </c>
-      <c r="C303" t="n">
-        <v>200</v>
-      </c>
-      <c r="D303" t="n">
-        <v>200</v>
-      </c>
-      <c r="E303" t="n">
-        <v>198</v>
-      </c>
-      <c r="F303" t="n">
-        <v>3902.3483</v>
-      </c>
-      <c r="G303" t="n">
-        <v>-1145394.352932869</v>
-      </c>
-      <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>199</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
